--- a/protected/commands/template/m_template_ones.xlsx
+++ b/protected/commands/template/m_template_ones.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="1月" sheetId="1" r:id="rId1"/>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="180">
   <si>
     <t>地区表现标准月报表</t>
   </si>
@@ -590,11 +590,11 @@
     <t>新(IA,IB)新服务年生意额增长 （(当月-上月)/上月)</t>
   </si>
   <si>
-    <t>-20% - -10%     :  1
--10% - 0%   :  2
-0% - 10%   :  3
-10% - 20%   :  4
-&gt; 20% :  5</t>
+    <t>-15% ~ -30%     :  1
+&lt;0% ~ -14%   :  2
+&gt;=0% ~ 8%   :  3
+9% ~ 14%   :  4
+&gt; =15% :  5</t>
   </si>
   <si>
     <t>新(IA,IB)服务年生意额同比增长 （(当月-去年当月）/去年当月)</t>
@@ -603,11 +603,11 @@
     <t>新增(IA,IB)生意合同数目增长（(当月-上月)/上月)</t>
   </si>
   <si>
-    <t>-40% - -20%     :  1
--20% - 0%   :  2
-0% - 20%   :  3
-20% - 40%   :  4
-&gt; 40% :  5</t>
+    <t>-10% ~ -20%     :  1
+0% ~ -9%   :  2
+10% ~ 19%   :  3
+20% ~ 29%   :  4
+&gt; =30% :  5</t>
   </si>
   <si>
     <t>新(IA,IB)生意合同数目同比增长（(当月-去年当月)/去年当月)</t>
@@ -617,11 +617,11 @@
 </t>
   </si>
   <si>
-    <t>-200% - -100%     :  1
--100% - 0% : 2
-0% - 100% :3
-100% - 300%   :  4
-&gt; 300% :  5</t>
+    <t>-100% ~ -200%     :  1
+&lt;0% ~ -99% : 2
+&gt;=0% ~ 99% :3
+100% ~ 149%   :  4
+&gt;= 150% :  5</t>
   </si>
   <si>
     <t xml:space="preserve">新兴业务(飘盈香，甲醛，厨房或其他)新年生意金额同比增长 （(当月-去年当月)/去年当月)
@@ -631,7 +631,37 @@
     <t>公司年生意额净增长比例（（当月-上月）/上月）</t>
   </si>
   <si>
+    <t>-10% ~ -20%     :  1
+&lt;0% ~ -9%   :  2
+&gt;=0% ~ 8%   :  3
+9% ~ 14%   :  4
+&gt;= 15% :  5</t>
+  </si>
+  <si>
     <t>公司年生意额净增长同比比例（（当月-去年当月）/去年当月）</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-16% ~ -30%     :  1
+&lt;0% ~ -15%   :  2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+&gt;=0% ~ 8%   :  3
+9% ~ 14%   :  4
+&gt;= 15% :  5</t>
+    </r>
   </si>
   <si>
     <t>生意结构比例</t>
@@ -663,12 +693,12 @@
     </r>
   </si>
   <si>
-    <t>20% - 40%     :  1
-40% - 70%   :  2
-70% - 100%   :  4
-100% - 150%   :  5
-150% - 230% : 3
-&gt; 230% :  1</t>
+    <t>20% ~ 39%     :  1
+40% ~ 69%   :  2
+70% ~ 99%   :  4
+100% ~ 149%   :  5
+150% ~ 229% : 3
+&gt;= 230% :  1</t>
   </si>
   <si>
     <t>当月IA, IB年生意额比例
@@ -680,17 +710,25 @@
 &gt;230%                 （7：3以上）</t>
   </si>
   <si>
+    <t>5% ~ 19%     :  1
+20% ~ 39%   :  2
+40% ~ 59%   :  4
+60% ~ 79%   :  5
+80% ~ 99% : 3
+&gt;= 100% :  1</t>
+  </si>
+  <si>
     <t>停单情况</t>
   </si>
   <si>
     <t>停单金额占生意比例% （当月停单总月金额/当月生意额）</t>
   </si>
   <si>
-    <t>0% - 0.8% : 5
-0.8% - 1.6% : 4
-1.6% - 2.4% : 3
-2.4% - 3.2% : 2
-X &gt; 3.2% : 1</t>
+    <t>0% ~ 0.8% : 5
+0.9% ~ 1.9% : 4
+2.0% ~ 2.8% : 3
+2.9% ~ 3.8% : 2
+X &gt;= 3.9% : 1</t>
   </si>
   <si>
     <t>外勤部</t>
@@ -699,89 +737,95 @@
     <t>技术员生产力</t>
   </si>
   <si>
-    <t>上月技术员平均生意额超出标准门栏比例 （标准：30000/月， 当地平均技术员生意额 - 标准生意额 / 标准生意额 ），主管/主任级别以下技术员</t>
+    <t>上月技術員平均生意額超出標準門欄比例 （標準：130000/月， 當地平均技術員生意額 - 標準生意額 / 標準生意額 ），主管/主任級別以下技術員</t>
+  </si>
+  <si>
+    <t>&gt;=20% : 5
+0% ~ 19% : 4
+-9% ~ -1% : 3
+-19% ~ -10% : 2
+-29% ~ -20% : 1
+&lt; -30% : 0</t>
+  </si>
+  <si>
+    <t>上月技術員最高生意額技術員金額跟標準比較  （標準：130000/月)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">&gt;=70% : 5
+30% - 69% : 4
+10% - 29% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="新細明體"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 3</t>
+    </r>
+  </si>
+  <si>
+    <t>上月技術員最低生意額技術員金額</t>
+  </si>
+  <si>
+    <t>仅供参考，不计算分数</t>
+  </si>
+  <si>
+    <t>NIL</t>
+  </si>
+  <si>
+    <t>技术员成本</t>
+  </si>
+  <si>
+    <t>技術員用料比例 清潔（技術員領貨金額/當月生意額）</t>
+  </si>
+  <si>
+    <t>&lt;=10% : 5
+11% ~ 15% : 4
+16% ~ 20% : 3
+21% ~ 25% : 2
+26% ~ 30% : 1
+&gt;31% : 0</t>
+  </si>
+  <si>
+    <t>技術員用料比例 滅蟲（技術員領貨金額/當月生意額）</t>
+  </si>
+  <si>
+    <t>&lt;5% : 5
+6% ~ 10% : 4
+11% ~ 15% : 3
+16% ~ 20% : 2
+21% ~ 25% : 1
+&gt;26% : 0</t>
+  </si>
+  <si>
+    <t>获奖情况</t>
+  </si>
+  <si>
+    <t>當月錦旗獲獎數目占整體技術員比例 （錦旗數目/整體技術員數目）</t>
   </si>
   <si>
     <t>&gt;20% : 5
-0% - 10% : 4
--10% - 0% : 3
--20% - -10% : 2
-'-30% - -20% : 1
-&lt; -30% : 0</t>
-  </si>
-  <si>
-    <t>上月技术员最高生意额技术员金额跟标准比较  （标准：30000/月)</t>
-  </si>
-  <si>
-    <t>&gt;70% : 5
-30% - 70% : 4
-10% - 30% ： 3</t>
-  </si>
-  <si>
-    <t>上月技术员最高生意额技术员金额</t>
-  </si>
-  <si>
-    <t>仅供参考，不计算分数</t>
-  </si>
-  <si>
-    <t>NIL</t>
-  </si>
-  <si>
-    <t>技术员成本</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="新細明體"/>
-        <charset val="134"/>
-      </rPr>
-      <t>技术员用料比例 清洁（技术员</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="新細明體"/>
-        <charset val="134"/>
-      </rPr>
-      <t>IA领货金额/当月IA生意额）</t>
-    </r>
-  </si>
-  <si>
-    <t>&lt;10% : 5
-10% - 15% : 4
-15% - 20% : 3
-20% - 25% : 2
-25% - 30% : 1
-&gt;30% : 0</t>
-  </si>
-  <si>
-    <t>技术员用料比例 灭虫（技术员IB领货金额/当月IB生意额）</t>
-  </si>
-  <si>
-    <t>&lt;5% : 5
-5% - 10% : 4
-10% - 15% : 3
-15% - 20% : 2
-20% - 25% : 1
-&gt;25% : 0</t>
-  </si>
-  <si>
-    <t>获奖情况</t>
-  </si>
-  <si>
-    <t>当月锦旗获奖数目占整体技术员比例 （锦旗数目/整体技术员数目）</t>
-  </si>
-  <si>
-    <t>&gt;20% : 5
-10% - 20% : 3
-5% - 10% : 1
+10% ~ 19% : 3
+1% ~ 9% : 1
 &lt;=0% : 0</t>
   </si>
   <si>
-    <t>当月襟章颁发明细 （P:N) P为受颁技术员数目，N为襟章发放数目</t>
+    <t>當月襟章頒發明細 （P:N) P為受頒技術員數目，N為襟章發放數目</t>
   </si>
   <si>
     <t xml:space="preserve"> :</t>
@@ -793,49 +837,49 @@
     <t>财政状况</t>
   </si>
   <si>
-    <t>IA,IB毛利率 （当月IA,IB生意额 - 材料订购 - 技术员工资）/当月IA,IB生意额</t>
-  </si>
-  <si>
-    <t>&gt;55% : 5
-50% - 55% : 4
-45% - 50%% : 3
-40% - 45% : 2
-35% - 40% : 1
-&lt;35% : 0</t>
-  </si>
-  <si>
-    <t>工资占生意额比例</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20% - 25% : 5
-25% - 28% : 4
-28% - 30% : 3
-30% - 35% : 2
-&gt;35% : 1
+    <t>毛利率 （當月生意額 - 材料訂購 - 技術員工資）/當月生意額</t>
+  </si>
+  <si>
+    <t>&gt;=55% : 5
+50% ~ 54% : 4
+45% ~ 49% : 3
+40% ~ 44% : 2
+36% ~ 39% : 1
+&lt;=35% : 0</t>
+  </si>
+  <si>
+    <t>工資占生意額比例</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20% ~ 24% : 5
+25% ~ 34% : 4
+35% ~ 39% : 3
+40% ~ 49% : 2
+&gt;50% : 1
 </t>
   </si>
   <si>
     <t>收款情况</t>
   </si>
   <si>
-    <t>收款效率（当月收款额/上月生意额）</t>
-  </si>
-  <si>
-    <t>&gt; 100% : 5
-95% - 100% : 4
-90% - 95% : 3
-85% - 90% : 2
-80% - 85% : 1</t>
-  </si>
-  <si>
-    <t>公司累积结余（到每月最后一天止）</t>
+    <t>收款效率（當月收款額/上月生意額）</t>
+  </si>
+  <si>
+    <t>&gt; =100% : 5
+95% ~ 99% : 4
+90% ~ 94% : 3
+85% ~ 89% : 2
+80% ~ 84% : 1</t>
+  </si>
+  <si>
+    <t>公司累積結餘（到每月最後一天止）</t>
   </si>
   <si>
     <t>应收未收帐情况</t>
   </si>
   <si>
-    <t>问题客人（超过90天没有结款）比例
-(问题客户总月费金额/当月生意额）</t>
+    <t>問題客人（超過90天沒有結款）比例
+(問題客戶總月費金額/當月生意額）</t>
   </si>
   <si>
     <t>&lt;= 30% : 5
@@ -1317,14 +1361,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0.0000_ "/>
     <numFmt numFmtId="178" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="38">
+  <fonts count="41">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -1397,6 +1441,11 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="14"/>
       <color indexed="10"/>
@@ -1412,33 +1461,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1455,12 +1481,10 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color indexed="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1468,6 +1492,20 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1492,14 +1530,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -1509,7 +1539,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1523,8 +1553,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1539,18 +1585,18 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1561,17 +1607,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color indexed="9"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color indexed="8"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1588,7 +1637,18 @@
     </font>
     <font>
       <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -1632,19 +1692,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor indexed="46"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="52"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1662,7 +1728,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1674,13 +1752,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="46"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="26"/>
+        <fgColor indexed="29"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1692,13 +1764,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="11"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="29"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="51"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1716,7 +1842,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="36"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="30"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1728,25 +1878,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor indexed="27"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1758,7 +1908,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1776,61 +1944,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="31"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="62"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="11"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="51"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="36"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1842,61 +1956,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="47"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="27"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="52"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="30"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor indexed="57"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1973,16 +2033,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2002,32 +2062,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color indexed="62"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="22"/>
-      </left>
-      <right style="thin">
-        <color indexed="22"/>
-      </right>
-      <top style="thin">
-        <color indexed="22"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="22"/>
+      <bottom style="double">
+        <color indexed="62"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2067,15 +2108,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -2087,11 +2119,39 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color indexed="62"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color indexed="62"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2109,55 +2169,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2166,179 +2226,179 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="40" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="40" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="38" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2495,7 +2555,7 @@
     <xf numFmtId="177" fontId="0" fillId="2" borderId="3" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="11" fillId="2" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="68" applyFont="1" applyFill="1" applyBorder="1">
@@ -2510,15 +2570,15 @@
     <xf numFmtId="177" fontId="0" fillId="2" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="10" fillId="2" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="178" fontId="11" fillId="2" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2543,28 +2603,34 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="3" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="11" fillId="3" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="3" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="3" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="3" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="3" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="3" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="11" fillId="3" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2585,30 +2651,39 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="4" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="178" fontId="11" fillId="4" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="4" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="4" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="11" fillId="4" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="4" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="4" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="4" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="4" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="4" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="4" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="4" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -2630,7 +2705,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="176" fontId="11" fillId="5" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="12" fillId="5" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2729,10 +2804,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="68" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="178" fontId="11" fillId="2" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2743,10 +2815,10 @@
     <cellStyle name="输入" xfId="3" builtinId="20"/>
     <cellStyle name="货币" xfId="4" builtinId="4"/>
     <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="20% - 輔色4" xfId="7"/>
-    <cellStyle name="差" xfId="8" builtinId="27"/>
-    <cellStyle name="40% - 輔色2" xfId="9"/>
+    <cellStyle name="差" xfId="6" builtinId="27"/>
+    <cellStyle name="40% - 輔色2" xfId="7"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="8" builtinId="39"/>
+    <cellStyle name="20% - 輔色4" xfId="9"/>
     <cellStyle name="千位分隔" xfId="10" builtinId="3"/>
     <cellStyle name="60% - 强调文字颜色 3" xfId="11" builtinId="40"/>
     <cellStyle name="超链接" xfId="12" builtinId="8"/>
@@ -2778,26 +2850,26 @@
     <cellStyle name="40% - 强调文字颜色 1" xfId="38" builtinId="31"/>
     <cellStyle name="20% - 輔色2" xfId="39"/>
     <cellStyle name="20% - 强调文字颜色 2" xfId="40" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="41" builtinId="35"/>
-    <cellStyle name="20% - 輔色3" xfId="42"/>
-    <cellStyle name="40% - 輔色1" xfId="43"/>
+    <cellStyle name="40% - 輔色1" xfId="41"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="42" builtinId="35"/>
+    <cellStyle name="20% - 輔色3" xfId="43"/>
     <cellStyle name="强调文字颜色 3" xfId="44" builtinId="37"/>
     <cellStyle name="强调文字颜色 4" xfId="45" builtinId="41"/>
     <cellStyle name="20% - 强调文字颜色 4" xfId="46" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="47" builtinId="43"/>
-    <cellStyle name="20% - 輔色5" xfId="48"/>
-    <cellStyle name="40% - 輔色3" xfId="49"/>
-    <cellStyle name="60% - 輔色1" xfId="50"/>
+    <cellStyle name="60% - 輔色1" xfId="47"/>
+    <cellStyle name="40% - 輔色3" xfId="48"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="49" builtinId="43"/>
+    <cellStyle name="20% - 輔色5" xfId="50"/>
     <cellStyle name="强调文字颜色 5" xfId="51" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="52" builtinId="47"/>
-    <cellStyle name="合計" xfId="53"/>
-    <cellStyle name="20% - 輔色6" xfId="54"/>
-    <cellStyle name="40% - 輔色4" xfId="55"/>
-    <cellStyle name="60% - 輔色2" xfId="56"/>
+    <cellStyle name="60% - 輔色2" xfId="52"/>
+    <cellStyle name="40% - 輔色4" xfId="53"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="54" builtinId="47"/>
+    <cellStyle name="合計" xfId="55"/>
+    <cellStyle name="20% - 輔色6" xfId="56"/>
     <cellStyle name="60% - 强调文字颜色 5" xfId="57" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="58" builtinId="49"/>
-    <cellStyle name="40% - 輔色5" xfId="59"/>
-    <cellStyle name="60% - 輔色3" xfId="60"/>
+    <cellStyle name="60% - 輔色3" xfId="59"/>
+    <cellStyle name="40% - 輔色5" xfId="60"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="61" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="62" builtinId="52"/>
     <cellStyle name="20% - 輔色1" xfId="63"/>
@@ -3162,8 +3234,8 @@
   <sheetPr/>
   <dimension ref="A1:F246"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="K88" sqref="K88"/>
+    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
+      <selection activeCell="D98" sqref="D98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
@@ -3953,7 +4025,7 @@
         <v>11.4545454545455</v>
       </c>
     </row>
-    <row r="76" s="2" customFormat="1" ht="82.5" spans="1:6">
+    <row r="76" s="2" customFormat="1" ht="75" spans="1:6">
       <c r="A76" s="49" t="s">
         <v>83</v>
       </c>
@@ -3964,7 +4036,7 @@
         <f>(B8-B7)/ABS(IF(B7=0,1,B7))</f>
         <v>0</v>
       </c>
-      <c r="D76" s="130" t="s">
+      <c r="D76" s="135" t="s">
         <v>85</v>
       </c>
       <c r="E76" s="53">
@@ -3973,7 +4045,7 @@
       </c>
       <c r="F76" s="54"/>
     </row>
-    <row r="77" s="2" customFormat="1" ht="82.5" spans="1:6">
+    <row r="77" s="2" customFormat="1" ht="75" spans="1:6">
       <c r="A77" s="49"/>
       <c r="B77" s="50" t="s">
         <v>86</v>
@@ -3982,7 +4054,7 @@
         <f>(B8-B9)/ABS(IF(B9=0,1,B9))</f>
         <v>0</v>
       </c>
-      <c r="D77" s="130" t="s">
+      <c r="D77" s="135" t="s">
         <v>85</v>
       </c>
       <c r="E77" s="53">
@@ -3991,7 +4063,7 @@
       </c>
       <c r="F77" s="54"/>
     </row>
-    <row r="78" s="2" customFormat="1" ht="82.5" spans="1:6">
+    <row r="78" s="2" customFormat="1" ht="75" spans="1:6">
       <c r="A78" s="49"/>
       <c r="B78" s="55" t="s">
         <v>87</v>
@@ -4000,16 +4072,16 @@
         <f>(B32-B31)/ABS(IF(B31=0,1,B31))</f>
         <v>0</v>
       </c>
-      <c r="D78" s="131" t="s">
+      <c r="D78" s="135" t="s">
         <v>88</v>
       </c>
       <c r="E78" s="53">
         <f>IF(C78&gt;0.4,5,IF(C78&gt;0.2,4,IF(C78&gt;0,3,IF(C78&gt;-0.2,2,IF(C78&gt;-0.4,1,0)))))</f>
         <v>2</v>
       </c>
-      <c r="F78" s="58"/>
-    </row>
-    <row r="79" s="2" customFormat="1" ht="82.5" spans="1:6">
+      <c r="F78" s="57"/>
+    </row>
+    <row r="79" s="2" customFormat="1" ht="75" spans="1:6">
       <c r="A79" s="49"/>
       <c r="B79" s="55" t="s">
         <v>89</v>
@@ -4018,16 +4090,16 @@
         <f>(B32-B35)/ABS(IF(B35=0,1,B35))</f>
         <v>0</v>
       </c>
-      <c r="D79" s="131" t="s">
+      <c r="D79" s="135" t="s">
         <v>88</v>
       </c>
       <c r="E79" s="53">
         <f>IF(C79&gt;0.4,5,IF(C79&gt;0.2,4,IF(C79&gt;0,3,IF(C79&gt;-0.2,2,IF(C79&gt;-0.4,1,0)))))</f>
         <v>2</v>
       </c>
-      <c r="F79" s="58"/>
-    </row>
-    <row r="80" s="2" customFormat="1" ht="82.5" spans="1:6">
+      <c r="F79" s="57"/>
+    </row>
+    <row r="80" s="2" customFormat="1" ht="75" spans="1:6">
       <c r="A80" s="49"/>
       <c r="B80" s="55" t="s">
         <v>90</v>
@@ -4036,16 +4108,16 @@
         <f>(B11-B10)/ABS(IF(B10=0,1,B10))</f>
         <v>0</v>
       </c>
-      <c r="D80" s="131" t="s">
+      <c r="D80" s="135" t="s">
         <v>91</v>
       </c>
       <c r="E80" s="53">
         <f>IF(C80&gt;3,5,IF(C80&gt;1,4,IF(C80&gt;0,3,IF(C80&gt;-1,2,IF(C80&gt;-2,1,0)))))</f>
         <v>2</v>
       </c>
-      <c r="F80" s="58"/>
-    </row>
-    <row r="81" s="2" customFormat="1" ht="82.5" spans="1:6">
+      <c r="F80" s="57"/>
+    </row>
+    <row r="81" s="2" customFormat="1" ht="75" spans="1:6">
       <c r="A81" s="49"/>
       <c r="B81" s="55" t="s">
         <v>92</v>
@@ -4054,16 +4126,16 @@
         <f>(B11-B12)/ABS(IF(B12=0,1,B12))</f>
         <v>0</v>
       </c>
-      <c r="D81" s="131" t="s">
+      <c r="D81" s="135" t="s">
         <v>91</v>
       </c>
       <c r="E81" s="53">
         <f>IF(C81&gt;3,5,IF(C81&gt;1,4,IF(C81&gt;0,3,IF(C81&gt;-1,2,IF(C81&gt;-2,1,0)))))</f>
         <v>2</v>
       </c>
-      <c r="F81" s="58"/>
-    </row>
-    <row r="82" s="2" customFormat="1" ht="82.5" spans="1:6">
+      <c r="F81" s="57"/>
+    </row>
+    <row r="82" s="2" customFormat="1" ht="75" spans="1:6">
       <c r="A82" s="49"/>
       <c r="B82" s="55" t="s">
         <v>93</v>
@@ -4072,94 +4144,94 @@
         <f>(B16-B15)/ABS(IF(B15=0,1,B15))</f>
         <v>0</v>
       </c>
-      <c r="D82" s="130" t="s">
-        <v>85</v>
+      <c r="D82" s="135" t="s">
+        <v>94</v>
       </c>
       <c r="E82" s="53">
         <f>IF(C82&gt;0.2,5,IF(C82&gt;0.1,4,IF(C82&gt;0,3,IF(C82&gt;-0.1,2,IF(C82&gt;-0.2,1,0)))))</f>
         <v>2</v>
       </c>
-      <c r="F82" s="58"/>
-    </row>
-    <row r="83" s="2" customFormat="1" ht="82.5" spans="1:6">
+      <c r="F82" s="57"/>
+    </row>
+    <row r="83" s="2" customFormat="1" ht="75" spans="1:6">
       <c r="A83" s="49"/>
       <c r="B83" s="55" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C83" s="56">
         <f>(B16-B17)/ABS(IF(B17=0,1,B17))</f>
         <v>0</v>
       </c>
-      <c r="D83" s="130" t="s">
-        <v>85</v>
+      <c r="D83" s="135" t="s">
+        <v>96</v>
       </c>
       <c r="E83" s="53">
         <f>IF(C83&gt;0.2,5,IF(C83&gt;0.1,4,IF(C83&gt;0,3,IF(C83&gt;-0.1,2,IF(C83&gt;-0.2,1,0)))))</f>
         <v>2</v>
       </c>
-      <c r="F83" s="58"/>
+      <c r="F83" s="57"/>
     </row>
     <row r="84" s="2" customFormat="1" ht="115.5" spans="1:6">
-      <c r="A84" s="59" t="s">
-        <v>95</v>
-      </c>
-      <c r="B84" s="59" t="s">
-        <v>96</v>
+      <c r="A84" s="58" t="s">
+        <v>97</v>
+      </c>
+      <c r="B84" s="58" t="s">
+        <v>98</v>
       </c>
       <c r="C84" s="56">
         <f>(B13/IF(B14=0,1,B14))</f>
         <v>0</v>
       </c>
-      <c r="D84" s="57" t="s">
-        <v>97</v>
+      <c r="D84" s="59" t="s">
+        <v>99</v>
       </c>
       <c r="E84" s="53">
         <f>IF(C84&gt;2.3,1,IF(C84&gt;1.5,3,IF(C84&gt;=1,5,IF(C84&gt;0.7,4,IF(C84&gt;0.4,2,IF(C84&gt;0.2,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="F84" s="58"/>
+      <c r="F84" s="57"/>
     </row>
     <row r="85" s="2" customFormat="1" ht="115.5" spans="1:6">
-      <c r="A85" s="59"/>
-      <c r="B85" s="59" t="s">
-        <v>98</v>
+      <c r="A85" s="58"/>
+      <c r="B85" s="58" t="s">
+        <v>100</v>
       </c>
       <c r="C85" s="56">
         <f>(B5/IF(B6=0,1,B6))</f>
         <v>0</v>
       </c>
-      <c r="D85" s="57" t="s">
-        <v>97</v>
+      <c r="D85" s="59" t="s">
+        <v>101</v>
       </c>
       <c r="E85" s="53">
         <f>IF(C85&gt;2.3,1,IF(C85&gt;1.5,3,IF(C85&gt;=1,5,IF(C85&gt;0.7,4,IF(C85&gt;0.4,2,IF(C85&gt;0.2,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="F85" s="58"/>
-    </row>
-    <row r="86" s="2" customFormat="1" ht="82.5" spans="1:6">
+      <c r="F85" s="57"/>
+    </row>
+    <row r="86" s="2" customFormat="1" ht="75" spans="1:6">
       <c r="A86" s="60" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B86" s="55" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C86" s="56">
         <f>(B19/IF(B4=0,1,B4))</f>
         <v>0</v>
       </c>
-      <c r="D86" s="57" t="s">
-        <v>101</v>
+      <c r="D86" s="59" t="s">
+        <v>104</v>
       </c>
       <c r="E86" s="53">
         <f>IF(C86&gt;0.032,1,IF(C86&gt;0.024,2,IF(C86&gt;0.016,3,IF(C86&gt;0.008,4,IF(C86&gt;0,5,5)))))</f>
         <v>5</v>
       </c>
-      <c r="F86" s="58"/>
+      <c r="F86" s="57"/>
     </row>
     <row r="87" s="2" customFormat="1" ht="24.95" customHeight="1" spans="1:6">
       <c r="A87" s="61" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B87" s="62"/>
       <c r="C87" s="63"/>
@@ -4170,19 +4242,19 @@
         <v>8</v>
       </c>
     </row>
-    <row r="88" s="2" customFormat="1" ht="99" spans="1:6">
+    <row r="88" s="2" customFormat="1" ht="90" spans="1:6">
       <c r="A88" s="67" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B88" s="68" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C88" s="69">
         <f>(B20-30000)/30000</f>
         <v>-1</v>
       </c>
       <c r="D88" s="70" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E88" s="71">
         <f>IF(C88&gt;0.2,5,IF(C88&gt;0,4,IF(C88&gt;-0.1,3,IF(C88&gt;-0.2,2,IF(C88&gt;-0.3,1,0)))))</f>
@@ -4190,17 +4262,17 @@
       </c>
       <c r="F88" s="72"/>
     </row>
-    <row r="89" s="2" customFormat="1" ht="49.5" spans="1:6">
+    <row r="89" s="2" customFormat="1" ht="46.5" spans="1:6">
       <c r="A89" s="67"/>
       <c r="B89" s="68" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C89" s="69">
         <f>(B21-30000)/30000</f>
         <v>-1</v>
       </c>
       <c r="D89" s="70" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E89" s="71">
         <f>IF(C89&gt;0.7,5,IF(C89&gt;0.3,4,IF(C89&gt;0.1,3,)))</f>
@@ -4211,33 +4283,33 @@
     <row r="90" s="2" customFormat="1" ht="19.5" spans="1:6">
       <c r="A90" s="67"/>
       <c r="B90" s="68" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C90" s="73">
         <f>B21</f>
         <v>0</v>
       </c>
-      <c r="D90" s="70" t="s">
-        <v>109</v>
+      <c r="D90" s="74" t="s">
+        <v>112</v>
       </c>
       <c r="E90" s="71" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="F90" s="72"/>
     </row>
-    <row r="91" s="2" customFormat="1" ht="99" spans="1:6">
+    <row r="91" s="2" customFormat="1" ht="90" spans="1:6">
       <c r="A91" s="67" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B91" s="68" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C91" s="69">
         <f>B25/IF(B5=0,1,B5)</f>
         <v>0</v>
       </c>
       <c r="D91" s="70" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E91" s="71">
         <f>IF(C91&gt;0.3,0,IF(C91&gt;0.25,1,IF(C91&gt;0.2,2,IF(C91&gt;0.15,3,IF(C91&gt;0.1,4,5)))))</f>
@@ -4245,17 +4317,17 @@
       </c>
       <c r="F91" s="72"/>
     </row>
-    <row r="92" s="2" customFormat="1" ht="99" spans="1:6">
+    <row r="92" s="2" customFormat="1" ht="90" spans="1:6">
       <c r="A92" s="67"/>
       <c r="B92" s="68" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C92" s="69">
         <f>B26/IF(B6=0,1,B6)</f>
         <v>0</v>
       </c>
       <c r="D92" s="70" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E92" s="71">
         <f>IF(C92&gt;0.25,0,IF(C92&gt;0.2,1,IF(C92&gt;0.15,2,IF(C92&gt;0.1,3,IF(C92&gt;0.05,4,5)))))</f>
@@ -4263,19 +4335,19 @@
       </c>
       <c r="F92" s="72"/>
     </row>
-    <row r="93" s="2" customFormat="1" ht="66" spans="1:6">
+    <row r="93" s="2" customFormat="1" ht="60" spans="1:6">
       <c r="A93" s="67" t="s">
-        <v>116</v>
-      </c>
-      <c r="B93" s="67" t="s">
-        <v>117</v>
-      </c>
-      <c r="C93" s="74">
+        <v>119</v>
+      </c>
+      <c r="B93" s="75" t="s">
+        <v>120</v>
+      </c>
+      <c r="C93" s="76">
         <f>B37/IF(B66=0,1,B66)</f>
         <v>0</v>
       </c>
-      <c r="D93" s="75" t="s">
-        <v>118</v>
+      <c r="D93" s="77" t="s">
+        <v>121</v>
       </c>
       <c r="E93" s="71">
         <f>IF(C93&gt;0.2,5,IF(C93&gt;0.1,3,IF(C93&gt;0.05,1,0)))</f>
@@ -4285,1357 +4357,1357 @@
     </row>
     <row r="94" s="2" customFormat="1" ht="33" spans="1:6">
       <c r="A94" s="67"/>
-      <c r="B94" s="67" t="s">
-        <v>119</v>
-      </c>
-      <c r="C94" s="76" t="s">
-        <v>120</v>
-      </c>
-      <c r="D94" s="70" t="s">
-        <v>109</v>
+      <c r="B94" s="75" t="s">
+        <v>122</v>
+      </c>
+      <c r="C94" s="78" t="s">
+        <v>123</v>
+      </c>
+      <c r="D94" s="74" t="s">
+        <v>112</v>
       </c>
       <c r="E94" s="71" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="F94" s="72"/>
     </row>
     <row r="95" s="2" customFormat="1" ht="24.95" customHeight="1" spans="1:6">
       <c r="A95" s="61" t="s">
-        <v>121</v>
-      </c>
-      <c r="B95" s="77"/>
-      <c r="C95" s="78"/>
-      <c r="D95" s="79"/>
-      <c r="E95" s="80"/>
+        <v>124</v>
+      </c>
+      <c r="B95" s="79"/>
+      <c r="C95" s="80"/>
+      <c r="D95" s="81"/>
+      <c r="E95" s="82"/>
       <c r="F95" s="66">
         <f>SUM(E96:E100)/20*25</f>
         <v>6.25</v>
       </c>
     </row>
-    <row r="96" s="2" customFormat="1" ht="99" spans="1:6">
-      <c r="A96" s="81" t="s">
-        <v>122</v>
-      </c>
-      <c r="B96" s="81" t="s">
-        <v>123</v>
-      </c>
-      <c r="C96" s="82">
+    <row r="96" s="2" customFormat="1" ht="90" spans="1:6">
+      <c r="A96" s="83" t="s">
+        <v>125</v>
+      </c>
+      <c r="B96" s="84" t="s">
+        <v>126</v>
+      </c>
+      <c r="C96" s="85">
         <f>(B5+B6-B25-B26-B27)/IF((B5+B6)=0,1,B5+B6)</f>
         <v>0</v>
       </c>
-      <c r="D96" s="83" t="s">
-        <v>124</v>
-      </c>
-      <c r="E96" s="84">
+      <c r="D96" s="86" t="s">
+        <v>127</v>
+      </c>
+      <c r="E96" s="87">
         <f>IF(C96&gt;0.55,5,IF(C96&gt;0.5,4,IF(C96&gt;0.45,3,IF(C96&gt;0.4,2,IF(C96&gt;0.35,1,0)))))</f>
         <v>0</v>
       </c>
-      <c r="F96" s="85"/>
-    </row>
-    <row r="97" s="2" customFormat="1" ht="99" spans="1:6">
-      <c r="A97" s="81"/>
-      <c r="B97" s="81" t="s">
-        <v>125</v>
-      </c>
-      <c r="C97" s="82">
+      <c r="F96" s="88"/>
+    </row>
+    <row r="97" s="2" customFormat="1" ht="90" spans="1:6">
+      <c r="A97" s="83"/>
+      <c r="B97" s="84" t="s">
+        <v>128</v>
+      </c>
+      <c r="C97" s="85">
         <f>B28/IF(B4=0,1,B4)</f>
         <v>0</v>
       </c>
-      <c r="D97" s="83" t="s">
-        <v>126</v>
-      </c>
-      <c r="E97" s="84">
+      <c r="D97" s="86" t="s">
+        <v>129</v>
+      </c>
+      <c r="E97" s="87">
         <f>IF(C97&gt;0.35,1,IF(C97&gt;0.3,2,IF(C97&gt;0.28,3,IF(C97&gt;0.25,3,IF(C97&gt;0.2,5,0)))))</f>
         <v>0</v>
       </c>
-      <c r="F97" s="85"/>
-    </row>
-    <row r="98" s="2" customFormat="1" ht="82.5" spans="1:6">
-      <c r="A98" s="81" t="s">
-        <v>127</v>
-      </c>
-      <c r="B98" s="81" t="s">
-        <v>128</v>
-      </c>
-      <c r="C98" s="86">
+      <c r="F97" s="88"/>
+    </row>
+    <row r="98" s="2" customFormat="1" ht="75" spans="1:6">
+      <c r="A98" s="83" t="s">
+        <v>130</v>
+      </c>
+      <c r="B98" s="84" t="s">
+        <v>131</v>
+      </c>
+      <c r="C98" s="89">
         <f>B23/IF(B3=0,1,B3)</f>
         <v>0</v>
       </c>
-      <c r="D98" s="87" t="s">
-        <v>129</v>
-      </c>
-      <c r="E98" s="84">
+      <c r="D98" s="90" t="s">
+        <v>132</v>
+      </c>
+      <c r="E98" s="87">
         <f>IF(C98&gt;1,5,IF(C98&gt;0.95,4,IF(C98&gt;0.9,3,IF(C98&gt;0.85,2,IF(C98&gt;0.8,1,0)))))</f>
         <v>0</v>
       </c>
-      <c r="F98" s="85"/>
+      <c r="F98" s="88"/>
     </row>
     <row r="99" s="2" customFormat="1" ht="19.5" spans="1:6">
-      <c r="A99" s="81"/>
-      <c r="B99" s="88" t="s">
-        <v>130</v>
-      </c>
-      <c r="C99" s="89">
+      <c r="A99" s="83"/>
+      <c r="B99" s="91" t="s">
+        <v>133</v>
+      </c>
+      <c r="C99" s="92">
         <f>B29</f>
         <v>0</v>
       </c>
-      <c r="D99" s="87" t="s">
-        <v>109</v>
-      </c>
-      <c r="E99" s="84" t="s">
-        <v>110</v>
-      </c>
-      <c r="F99" s="85"/>
+      <c r="D99" s="93" t="s">
+        <v>112</v>
+      </c>
+      <c r="E99" s="87" t="s">
+        <v>113</v>
+      </c>
+      <c r="F99" s="88"/>
     </row>
     <row r="100" s="2" customFormat="1" ht="82.5" spans="1:6">
-      <c r="A100" s="81" t="s">
-        <v>131</v>
-      </c>
-      <c r="B100" s="88" t="s">
-        <v>132</v>
-      </c>
-      <c r="C100" s="82">
+      <c r="A100" s="83" t="s">
+        <v>134</v>
+      </c>
+      <c r="B100" s="91" t="s">
+        <v>135</v>
+      </c>
+      <c r="C100" s="85">
         <f>B22/IF(B4=0,1,B4)</f>
         <v>0</v>
       </c>
-      <c r="D100" s="83" t="s">
-        <v>133</v>
-      </c>
-      <c r="E100" s="84">
+      <c r="D100" s="94" t="s">
+        <v>136</v>
+      </c>
+      <c r="E100" s="87">
         <f>IF(C100&gt;0.7,0,IF(C100&gt;0.6,1,IF(C100&gt;0.5,2,IF(C100&gt;0.4,3,IF(C100&gt;0.3,4,5)))))</f>
         <v>5</v>
       </c>
-      <c r="F100" s="85"/>
+      <c r="F100" s="88"/>
     </row>
     <row r="101" s="2" customFormat="1" ht="24.95" customHeight="1" spans="1:6">
       <c r="A101" s="61" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B101" s="62"/>
-      <c r="C101" s="90"/>
-      <c r="D101" s="91"/>
-      <c r="E101" s="92"/>
+      <c r="C101" s="95"/>
+      <c r="D101" s="96"/>
+      <c r="E101" s="97"/>
       <c r="F101" s="66">
         <f>SUM(E102:E115)/55*15</f>
         <v>0.818181818181818</v>
       </c>
     </row>
     <row r="102" s="3" customFormat="1" ht="99" spans="1:6">
-      <c r="A102" s="93" t="s">
-        <v>135</v>
-      </c>
-      <c r="B102" s="93" t="s">
-        <v>136</v>
-      </c>
-      <c r="C102" s="94">
+      <c r="A102" s="98" t="s">
+        <v>138</v>
+      </c>
+      <c r="B102" s="98" t="s">
+        <v>139</v>
+      </c>
+      <c r="C102" s="99">
         <f>B52/IF(B32=0,1,B32)</f>
         <v>0</v>
       </c>
-      <c r="D102" s="95" t="s">
-        <v>137</v>
-      </c>
-      <c r="E102" s="96">
+      <c r="D102" s="100" t="s">
+        <v>140</v>
+      </c>
+      <c r="E102" s="101">
         <f>IF(C102&gt;0.95,5,IF(C102&gt;0.9,4,IF(C102&gt;0.85,3,IF(C102&gt;0.8,2,IF(C102&gt;=0.75,1,0)))))</f>
         <v>0</v>
       </c>
-      <c r="F102" s="97"/>
+      <c r="F102" s="102"/>
     </row>
     <row r="103" s="3" customFormat="1" ht="99" spans="1:6">
-      <c r="A103" s="93" t="s">
-        <v>138</v>
-      </c>
-      <c r="B103" s="93" t="s">
-        <v>139</v>
-      </c>
-      <c r="C103" s="94">
+      <c r="A103" s="98" t="s">
+        <v>141</v>
+      </c>
+      <c r="B103" s="98" t="s">
+        <v>142</v>
+      </c>
+      <c r="C103" s="99">
         <f>B57/IF(B56=0,1,B56)</f>
         <v>0</v>
       </c>
-      <c r="D103" s="95" t="s">
-        <v>137</v>
-      </c>
-      <c r="E103" s="96">
+      <c r="D103" s="100" t="s">
+        <v>140</v>
+      </c>
+      <c r="E103" s="101">
         <f>IF(C103&gt;0.95,5,IF(C103&gt;0.9,4,IF(C103&gt;0.85,3,IF(C103&gt;0.8,2,IF(C103&gt;=0.75,1,0)))))</f>
         <v>0</v>
       </c>
-      <c r="F103" s="97"/>
+      <c r="F103" s="102"/>
     </row>
     <row r="104" s="3" customFormat="1" ht="99" spans="1:6">
-      <c r="A104" s="93"/>
-      <c r="B104" s="93" t="s">
-        <v>140</v>
-      </c>
-      <c r="C104" s="94">
+      <c r="A104" s="98"/>
+      <c r="B104" s="98" t="s">
+        <v>143</v>
+      </c>
+      <c r="C104" s="99">
         <f>B59/IF(B58=0,1,B58)</f>
         <v>0</v>
       </c>
-      <c r="D104" s="95" t="s">
-        <v>137</v>
-      </c>
-      <c r="E104" s="96">
+      <c r="D104" s="100" t="s">
+        <v>140</v>
+      </c>
+      <c r="E104" s="101">
         <f>IF(C104&gt;0.95,5,IF(C104&gt;0.9,4,IF(C104&gt;0.85,3,IF(C104&gt;0.8,2,IF(C104&gt;=0.75,1,0)))))</f>
         <v>0</v>
       </c>
-      <c r="F104" s="97"/>
+      <c r="F104" s="102"/>
     </row>
     <row r="105" s="3" customFormat="1" ht="33" spans="1:6">
-      <c r="A105" s="93"/>
-      <c r="B105" s="98" t="s">
-        <v>141</v>
-      </c>
-      <c r="C105" s="99" t="s">
-        <v>120</v>
-      </c>
-      <c r="D105" s="100" t="s">
-        <v>109</v>
-      </c>
-      <c r="E105" s="96" t="s">
-        <v>110</v>
-      </c>
-      <c r="F105" s="97"/>
+      <c r="A105" s="98"/>
+      <c r="B105" s="103" t="s">
+        <v>144</v>
+      </c>
+      <c r="C105" s="104" t="s">
+        <v>123</v>
+      </c>
+      <c r="D105" s="105" t="s">
+        <v>112</v>
+      </c>
+      <c r="E105" s="101" t="s">
+        <v>113</v>
+      </c>
+      <c r="F105" s="102"/>
     </row>
     <row r="106" s="3" customFormat="1" ht="99" spans="1:6">
-      <c r="A106" s="93" t="s">
-        <v>142</v>
-      </c>
-      <c r="B106" s="93" t="s">
-        <v>143</v>
-      </c>
-      <c r="C106" s="101">
+      <c r="A106" s="98" t="s">
+        <v>145</v>
+      </c>
+      <c r="B106" s="98" t="s">
+        <v>146</v>
+      </c>
+      <c r="C106" s="106">
         <f>B60/100</f>
         <v>0</v>
       </c>
-      <c r="D106" s="100" t="s">
-        <v>144</v>
-      </c>
-      <c r="E106" s="96">
+      <c r="D106" s="105" t="s">
+        <v>147</v>
+      </c>
+      <c r="E106" s="101">
         <f>IF(C106&gt;1.08,0,IF(C106&gt;1.04,1,IF(C106&gt;1,3,IF(C106&gt;0.96,5,IF(C106&gt;0.92,3,IF(C106&gt;0.88,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="F106" s="97"/>
+      <c r="F106" s="102"/>
     </row>
     <row r="107" s="3" customFormat="1" ht="99" spans="1:6">
-      <c r="A107" s="93"/>
-      <c r="B107" s="93" t="s">
-        <v>145</v>
-      </c>
-      <c r="C107" s="101">
+      <c r="A107" s="98"/>
+      <c r="B107" s="98" t="s">
+        <v>148</v>
+      </c>
+      <c r="C107" s="106">
         <f>B51/IF(B33=0,1,B33)</f>
         <v>0</v>
       </c>
-      <c r="D107" s="95" t="s">
-        <v>146</v>
-      </c>
-      <c r="E107" s="96">
+      <c r="D107" s="100" t="s">
+        <v>149</v>
+      </c>
+      <c r="E107" s="101">
         <f>IF(C107&gt;0.95,5,IF(C107&gt;0.9,4,IF(C107&gt;0.85,3,IF(C107&gt;0.8,2,IF(C107&gt;=0.75,1,0)))))</f>
         <v>0</v>
       </c>
-      <c r="F107" s="97"/>
+      <c r="F107" s="102"/>
     </row>
     <row r="108" s="2" customFormat="1" ht="99" spans="1:6">
-      <c r="A108" s="93" t="s">
-        <v>147</v>
-      </c>
-      <c r="B108" s="93" t="s">
-        <v>148</v>
-      </c>
-      <c r="C108" s="94">
+      <c r="A108" s="98" t="s">
+        <v>150</v>
+      </c>
+      <c r="B108" s="98" t="s">
+        <v>151</v>
+      </c>
+      <c r="C108" s="99">
         <f>B48/(IF(B18=0,1,B18)/(1500*12))</f>
         <v>0</v>
       </c>
-      <c r="D108" s="95" t="s">
-        <v>149</v>
-      </c>
-      <c r="E108" s="96">
+      <c r="D108" s="100" t="s">
+        <v>152</v>
+      </c>
+      <c r="E108" s="101">
         <f>IF(C108&gt;0.9,5,IF(C108&gt;0.7,4,IF(C108&gt;0.5,3,IF(C108&gt;0.3,2,IF(C108&gt;0.1,1,0)))))</f>
         <v>0</v>
       </c>
-      <c r="F108" s="102"/>
+      <c r="F108" s="107"/>
     </row>
     <row r="109" s="2" customFormat="1" ht="66" spans="1:6">
-      <c r="A109" s="93"/>
-      <c r="B109" s="93" t="s">
-        <v>150</v>
-      </c>
-      <c r="C109" s="94">
+      <c r="A109" s="98"/>
+      <c r="B109" s="98" t="s">
+        <v>153</v>
+      </c>
+      <c r="C109" s="99">
         <f>B49/IF(B48=0,1,B48)</f>
         <v>0</v>
       </c>
-      <c r="D109" s="95" t="s">
-        <v>151</v>
-      </c>
-      <c r="E109" s="96">
+      <c r="D109" s="100" t="s">
+        <v>154</v>
+      </c>
+      <c r="E109" s="101">
         <f>IF(C109&gt;0.2,3,IF(C109&gt;0.1,5,IF(C109&gt;=0,1,0)))</f>
         <v>1</v>
       </c>
-      <c r="F109" s="102"/>
+      <c r="F109" s="107"/>
     </row>
     <row r="110" s="2" customFormat="1" ht="33" spans="1:6">
-      <c r="A110" s="93"/>
-      <c r="B110" s="93" t="s">
-        <v>152</v>
-      </c>
-      <c r="C110" s="94">
+      <c r="A110" s="98"/>
+      <c r="B110" s="98" t="s">
+        <v>155</v>
+      </c>
+      <c r="C110" s="99">
         <f>B50</f>
         <v>0</v>
       </c>
-      <c r="D110" s="95" t="s">
-        <v>109</v>
-      </c>
-      <c r="E110" s="96" t="s">
-        <v>110</v>
-      </c>
-      <c r="F110" s="102"/>
+      <c r="D110" s="100" t="s">
+        <v>112</v>
+      </c>
+      <c r="E110" s="101" t="s">
+        <v>113</v>
+      </c>
+      <c r="F110" s="107"/>
     </row>
     <row r="111" s="2" customFormat="1" ht="99" spans="1:6">
-      <c r="A111" s="93" t="s">
-        <v>153</v>
-      </c>
-      <c r="B111" s="93" t="s">
-        <v>154</v>
-      </c>
-      <c r="C111" s="94">
+      <c r="A111" s="98" t="s">
+        <v>156</v>
+      </c>
+      <c r="B111" s="98" t="s">
+        <v>157</v>
+      </c>
+      <c r="C111" s="99">
         <f>(B42-B41)/ABS(IF(B41=0,1,B41))</f>
         <v>0</v>
       </c>
-      <c r="D111" s="95" t="s">
-        <v>155</v>
-      </c>
-      <c r="E111" s="96">
+      <c r="D111" s="100" t="s">
+        <v>158</v>
+      </c>
+      <c r="E111" s="101">
         <f>IF(C111&gt;0.05,0,IF(C111&gt;0,1,IF(C111&gt;-0.1,2,IF(C111&gt;-0.2,3,IF(C111&gt;-0.3,4,5)))))</f>
         <v>2</v>
       </c>
-      <c r="F111" s="102"/>
+      <c r="F111" s="107"/>
     </row>
     <row r="112" s="2" customFormat="1" ht="99" spans="1:6">
-      <c r="A112" s="93"/>
-      <c r="B112" s="93" t="s">
-        <v>156</v>
-      </c>
-      <c r="C112" s="94">
+      <c r="A112" s="98"/>
+      <c r="B112" s="98" t="s">
+        <v>159</v>
+      </c>
+      <c r="C112" s="99">
         <f>B44/IF(B42=0,1,B42)</f>
         <v>0</v>
       </c>
-      <c r="D112" s="95" t="s">
-        <v>137</v>
-      </c>
-      <c r="E112" s="96">
+      <c r="D112" s="100" t="s">
+        <v>140</v>
+      </c>
+      <c r="E112" s="101">
         <f>IF(C112&gt;0.95,5,IF(C112&gt;0.9,4,IF(C112&gt;0.85,3,IF(C112&gt;0.8,2,IF(C112&gt;=0.75,1,0)))))</f>
         <v>0</v>
       </c>
-      <c r="F112" s="102"/>
+      <c r="F112" s="107"/>
     </row>
     <row r="113" s="2" customFormat="1" ht="66" spans="1:6">
-      <c r="A113" s="93"/>
-      <c r="B113" s="98" t="s">
-        <v>157</v>
-      </c>
-      <c r="C113" s="103">
+      <c r="A113" s="98"/>
+      <c r="B113" s="103" t="s">
+        <v>160</v>
+      </c>
+      <c r="C113" s="108">
         <f>B46/IF(B42=0,1,B42)</f>
         <v>0</v>
       </c>
-      <c r="D113" s="95" t="s">
-        <v>158</v>
-      </c>
-      <c r="E113" s="104">
+      <c r="D113" s="100" t="s">
+        <v>161</v>
+      </c>
+      <c r="E113" s="109">
         <f>IF(C113&gt;0.15,5,IF(C113&gt;0.1,3,IF(C113&gt;0.05,1,0)))</f>
         <v>0</v>
       </c>
-      <c r="F113" s="102"/>
+      <c r="F113" s="107"/>
     </row>
     <row r="114" s="2" customFormat="1" ht="99" spans="1:6">
-      <c r="A114" s="93"/>
-      <c r="B114" s="93" t="s">
-        <v>159</v>
-      </c>
-      <c r="C114" s="94">
+      <c r="A114" s="98"/>
+      <c r="B114" s="98" t="s">
+        <v>162</v>
+      </c>
+      <c r="C114" s="99">
         <f>B45/IF(B42=0,1,B42)</f>
         <v>0</v>
       </c>
-      <c r="D114" s="95" t="s">
-        <v>137</v>
-      </c>
-      <c r="E114" s="96">
+      <c r="D114" s="100" t="s">
+        <v>140</v>
+      </c>
+      <c r="E114" s="101">
         <f>IF(C114&gt;0.95,5,IF(C114&gt;0.9,4,IF(C114&gt;0.85,3,IF(C114&gt;0.8,2,IF(C114&gt;=0.75,1,0)))))</f>
         <v>0</v>
       </c>
-      <c r="F114" s="102"/>
+      <c r="F114" s="107"/>
     </row>
     <row r="115" s="2" customFormat="1" ht="19.5" spans="1:6">
-      <c r="A115" s="93"/>
-      <c r="B115" s="98" t="s">
+      <c r="A115" s="98"/>
+      <c r="B115" s="103" t="s">
         <v>57</v>
       </c>
-      <c r="C115" s="103">
+      <c r="C115" s="108">
         <f>B47</f>
         <v>0</v>
       </c>
-      <c r="D115" s="100" t="s">
-        <v>109</v>
-      </c>
-      <c r="E115" s="96" t="s">
-        <v>110</v>
-      </c>
-      <c r="F115" s="102"/>
+      <c r="D115" s="105" t="s">
+        <v>112</v>
+      </c>
+      <c r="E115" s="101" t="s">
+        <v>113</v>
+      </c>
+      <c r="F115" s="107"/>
     </row>
     <row r="116" s="2" customFormat="1" ht="24.95" customHeight="1" spans="1:6">
       <c r="A116" s="61" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B116" s="62"/>
-      <c r="C116" s="90"/>
-      <c r="D116" s="91"/>
-      <c r="E116" s="92"/>
+      <c r="C116" s="95"/>
+      <c r="D116" s="96"/>
+      <c r="E116" s="97"/>
       <c r="F116" s="66">
         <f>SUM(E117:E124)/35*10</f>
         <v>7.71428571428571</v>
       </c>
     </row>
     <row r="117" s="2" customFormat="1" ht="66" spans="1:6">
-      <c r="A117" s="105" t="s">
-        <v>135</v>
-      </c>
-      <c r="B117" s="106" t="s">
-        <v>161</v>
-      </c>
-      <c r="C117" s="107">
+      <c r="A117" s="110" t="s">
+        <v>138</v>
+      </c>
+      <c r="B117" s="111" t="s">
+        <v>164</v>
+      </c>
+      <c r="C117" s="112">
         <f>B62</f>
         <v>0</v>
       </c>
-      <c r="D117" s="108" t="s">
-        <v>162</v>
-      </c>
-      <c r="E117" s="109">
+      <c r="D117" s="113" t="s">
+        <v>165</v>
+      </c>
+      <c r="E117" s="114">
         <f>IF(C117&gt;5,0,IF(C117&gt;3,3,IF(C117&gt;1,4,5)))</f>
         <v>5</v>
       </c>
-      <c r="F117" s="110"/>
+      <c r="F117" s="115"/>
     </row>
     <row r="118" s="2" customFormat="1" ht="66" spans="1:6">
-      <c r="A118" s="111" t="s">
-        <v>163</v>
-      </c>
-      <c r="B118" s="106" t="s">
-        <v>164</v>
-      </c>
-      <c r="C118" s="112">
+      <c r="A118" s="116" t="s">
+        <v>166</v>
+      </c>
+      <c r="B118" s="111" t="s">
+        <v>167</v>
+      </c>
+      <c r="C118" s="117">
         <f>B63/IF(B69=0,1,B69)</f>
         <v>0</v>
       </c>
-      <c r="D118" s="113" t="s">
-        <v>165</v>
-      </c>
-      <c r="E118" s="109">
+      <c r="D118" s="118" t="s">
+        <v>168</v>
+      </c>
+      <c r="E118" s="114">
         <f>IF(C118&gt;0.3,0,IF(C118&gt;0.2,1,IF(C118&gt;0.1,3,5)))</f>
         <v>5</v>
       </c>
-      <c r="F118" s="110"/>
+      <c r="F118" s="115"/>
     </row>
     <row r="119" s="2" customFormat="1" ht="49.5" spans="1:6">
-      <c r="A119" s="111"/>
-      <c r="B119" s="106" t="s">
-        <v>166</v>
-      </c>
-      <c r="C119" s="112">
+      <c r="A119" s="116"/>
+      <c r="B119" s="111" t="s">
+        <v>169</v>
+      </c>
+      <c r="C119" s="117">
         <f>B72/IF(B71=0,1,B71)</f>
         <v>0</v>
       </c>
-      <c r="D119" s="108" t="s">
-        <v>167</v>
-      </c>
-      <c r="E119" s="109">
+      <c r="D119" s="113" t="s">
+        <v>170</v>
+      </c>
+      <c r="E119" s="114">
         <f>IF(C119&gt;0.6,1,IF(C119&gt;0.2,3,5))</f>
         <v>5</v>
       </c>
-      <c r="F119" s="110"/>
+      <c r="F119" s="115"/>
     </row>
     <row r="120" s="2" customFormat="1" ht="66" spans="1:6">
-      <c r="A120" s="106" t="s">
-        <v>168</v>
-      </c>
-      <c r="B120" s="114" t="s">
-        <v>169</v>
-      </c>
-      <c r="C120" s="115">
+      <c r="A120" s="111" t="s">
+        <v>171</v>
+      </c>
+      <c r="B120" s="119" t="s">
+        <v>172</v>
+      </c>
+      <c r="C120" s="120">
         <f>B64/IF(B66=0,1,B66)</f>
         <v>0</v>
       </c>
-      <c r="D120" s="113" t="s">
-        <v>170</v>
-      </c>
-      <c r="E120" s="109">
+      <c r="D120" s="118" t="s">
+        <v>173</v>
+      </c>
+      <c r="E120" s="114">
         <f>IF(C120&gt;0.15,0,IF(C120&gt;0.1,1,IF(C120&gt;0.05,3,5)))</f>
         <v>5</v>
       </c>
-      <c r="F120" s="110"/>
+      <c r="F120" s="115"/>
     </row>
     <row r="121" s="2" customFormat="1" ht="66" spans="1:6">
-      <c r="A121" s="106"/>
-      <c r="B121" s="114" t="s">
-        <v>171</v>
-      </c>
-      <c r="C121" s="115">
+      <c r="A121" s="111"/>
+      <c r="B121" s="119" t="s">
+        <v>174</v>
+      </c>
+      <c r="C121" s="120">
         <f>B67/(IF(B66=0,1,B66)/6)</f>
         <v>0</v>
       </c>
-      <c r="D121" s="113" t="s">
-        <v>172</v>
-      </c>
-      <c r="E121" s="109">
+      <c r="D121" s="118" t="s">
+        <v>175</v>
+      </c>
+      <c r="E121" s="114">
         <f>IF(C121&gt;1,5,IF(C121&gt;0.8,3,1))</f>
         <v>1</v>
       </c>
-      <c r="F121" s="110"/>
+      <c r="F121" s="115"/>
     </row>
     <row r="122" s="2" customFormat="1" ht="66" spans="1:6">
-      <c r="A122" s="106"/>
-      <c r="B122" s="114" t="s">
-        <v>173</v>
-      </c>
-      <c r="C122" s="107">
+      <c r="A122" s="111"/>
+      <c r="B122" s="119" t="s">
+        <v>176</v>
+      </c>
+      <c r="C122" s="112">
         <f>B68/(IF(B66=0,1,B66)/30)</f>
         <v>0</v>
       </c>
-      <c r="D122" s="113" t="s">
-        <v>172</v>
-      </c>
-      <c r="E122" s="109">
+      <c r="D122" s="118" t="s">
+        <v>175</v>
+      </c>
+      <c r="E122" s="114">
         <f>IF(C122&gt;1,5,IF(C122&gt;0.8,3,1))</f>
         <v>1</v>
       </c>
-      <c r="F122" s="110"/>
+      <c r="F122" s="115"/>
     </row>
     <row r="123" s="2" customFormat="1" ht="19.5" hidden="1" spans="1:6">
-      <c r="A123" s="106"/>
-      <c r="B123" s="114" t="s">
-        <v>174</v>
-      </c>
-      <c r="C123" s="107"/>
-      <c r="D123" s="113" t="s">
-        <v>109</v>
-      </c>
-      <c r="E123" s="109" t="s">
-        <v>110</v>
-      </c>
-      <c r="F123" s="110"/>
+      <c r="A123" s="111"/>
+      <c r="B123" s="119" t="s">
+        <v>177</v>
+      </c>
+      <c r="C123" s="112"/>
+      <c r="D123" s="118" t="s">
+        <v>112</v>
+      </c>
+      <c r="E123" s="114" t="s">
+        <v>113</v>
+      </c>
+      <c r="F123" s="115"/>
     </row>
     <row r="124" s="2" customFormat="1" ht="66" spans="1:6">
-      <c r="A124" s="116" t="s">
-        <v>175</v>
-      </c>
-      <c r="B124" s="117" t="s">
-        <v>176</v>
-      </c>
-      <c r="C124" s="118">
+      <c r="A124" s="121" t="s">
+        <v>178</v>
+      </c>
+      <c r="B124" s="122" t="s">
+        <v>179</v>
+      </c>
+      <c r="C124" s="123">
         <f>B65/IF(B70=0,1,B70)</f>
         <v>0</v>
       </c>
-      <c r="D124" s="119" t="s">
-        <v>165</v>
-      </c>
-      <c r="E124" s="120">
+      <c r="D124" s="124" t="s">
+        <v>168</v>
+      </c>
+      <c r="E124" s="125">
         <f>IF(C124&gt;0.3,0,IF(C124&gt;0.2,1,IF(C124&gt;0.1,3,5)))</f>
         <v>5</v>
       </c>
-      <c r="F124" s="110"/>
+      <c r="F124" s="115"/>
     </row>
     <row r="125" s="2" customFormat="1" spans="1:6">
       <c r="A125" s="4"/>
-      <c r="B125" s="121"/>
-      <c r="C125" s="122"/>
-      <c r="D125" s="123"/>
-      <c r="E125" s="124"/>
-      <c r="F125" s="125"/>
+      <c r="B125" s="126"/>
+      <c r="C125" s="127"/>
+      <c r="D125" s="128"/>
+      <c r="E125" s="129"/>
+      <c r="F125" s="130"/>
     </row>
     <row r="126" s="2" customFormat="1" spans="1:6">
       <c r="A126" s="4"/>
-      <c r="B126" s="121"/>
-      <c r="C126" s="122"/>
-      <c r="D126" s="123"/>
-      <c r="E126" s="124"/>
-      <c r="F126" s="125"/>
+      <c r="B126" s="126"/>
+      <c r="C126" s="127"/>
+      <c r="D126" s="128"/>
+      <c r="E126" s="129"/>
+      <c r="F126" s="130"/>
     </row>
     <row r="127" s="2" customFormat="1" spans="1:6">
       <c r="A127" s="4"/>
-      <c r="B127" s="121"/>
-      <c r="C127" s="122"/>
-      <c r="D127" s="123"/>
-      <c r="E127" s="124"/>
-      <c r="F127" s="125"/>
+      <c r="B127" s="126"/>
+      <c r="C127" s="127"/>
+      <c r="D127" s="128"/>
+      <c r="E127" s="129"/>
+      <c r="F127" s="130"/>
     </row>
     <row r="128" s="2" customFormat="1" spans="1:6">
       <c r="A128" s="4"/>
-      <c r="B128" s="121"/>
-      <c r="C128" s="122"/>
-      <c r="D128" s="123"/>
-      <c r="E128" s="124"/>
-      <c r="F128" s="125"/>
+      <c r="B128" s="126"/>
+      <c r="C128" s="127"/>
+      <c r="D128" s="128"/>
+      <c r="E128" s="129"/>
+      <c r="F128" s="130"/>
     </row>
     <row r="129" s="2" customFormat="1" spans="1:6">
       <c r="A129" s="4"/>
-      <c r="B129" s="121"/>
-      <c r="C129" s="122"/>
-      <c r="D129" s="123"/>
-      <c r="E129" s="124"/>
-      <c r="F129" s="125"/>
+      <c r="B129" s="126"/>
+      <c r="C129" s="127"/>
+      <c r="D129" s="128"/>
+      <c r="E129" s="129"/>
+      <c r="F129" s="130"/>
     </row>
     <row r="130" s="2" customFormat="1" spans="1:6">
       <c r="A130" s="4"/>
-      <c r="B130" s="121"/>
-      <c r="C130" s="122"/>
-      <c r="D130" s="123"/>
-      <c r="E130" s="124"/>
-      <c r="F130" s="125"/>
+      <c r="B130" s="126"/>
+      <c r="C130" s="127"/>
+      <c r="D130" s="128"/>
+      <c r="E130" s="129"/>
+      <c r="F130" s="130"/>
     </row>
     <row r="131" s="2" customFormat="1" spans="1:6">
       <c r="A131" s="4"/>
-      <c r="B131" s="121"/>
-      <c r="C131" s="122"/>
-      <c r="D131" s="123"/>
-      <c r="E131" s="124"/>
-      <c r="F131" s="125"/>
+      <c r="B131" s="126"/>
+      <c r="C131" s="127"/>
+      <c r="D131" s="128"/>
+      <c r="E131" s="129"/>
+      <c r="F131" s="130"/>
     </row>
     <row r="132" s="2" customFormat="1" spans="1:6">
       <c r="A132" s="4"/>
-      <c r="B132" s="121"/>
-      <c r="C132" s="122"/>
-      <c r="D132" s="123"/>
-      <c r="E132" s="124"/>
-      <c r="F132" s="125"/>
+      <c r="B132" s="126"/>
+      <c r="C132" s="127"/>
+      <c r="D132" s="128"/>
+      <c r="E132" s="129"/>
+      <c r="F132" s="130"/>
     </row>
     <row r="133" s="2" customFormat="1" spans="1:6">
       <c r="A133" s="4"/>
-      <c r="B133" s="121"/>
-      <c r="C133" s="122"/>
-      <c r="D133" s="123"/>
-      <c r="E133" s="124"/>
-      <c r="F133" s="125"/>
+      <c r="B133" s="126"/>
+      <c r="C133" s="127"/>
+      <c r="D133" s="128"/>
+      <c r="E133" s="129"/>
+      <c r="F133" s="130"/>
     </row>
     <row r="134" s="2" customFormat="1" spans="1:6">
       <c r="A134" s="4"/>
-      <c r="B134" s="121"/>
-      <c r="C134" s="122"/>
-      <c r="D134" s="123"/>
-      <c r="E134" s="124"/>
-      <c r="F134" s="125"/>
+      <c r="B134" s="126"/>
+      <c r="C134" s="127"/>
+      <c r="D134" s="128"/>
+      <c r="E134" s="129"/>
+      <c r="F134" s="130"/>
     </row>
     <row r="135" s="2" customFormat="1" spans="1:6">
       <c r="A135" s="4"/>
-      <c r="B135" s="121"/>
-      <c r="C135" s="122"/>
-      <c r="D135" s="123"/>
-      <c r="E135" s="124"/>
-      <c r="F135" s="125"/>
+      <c r="B135" s="126"/>
+      <c r="C135" s="127"/>
+      <c r="D135" s="128"/>
+      <c r="E135" s="129"/>
+      <c r="F135" s="130"/>
     </row>
     <row r="136" s="2" customFormat="1" spans="1:6">
       <c r="A136" s="4"/>
-      <c r="B136" s="121"/>
-      <c r="C136" s="122"/>
-      <c r="D136" s="123"/>
-      <c r="E136" s="124"/>
-      <c r="F136" s="125"/>
+      <c r="B136" s="126"/>
+      <c r="C136" s="127"/>
+      <c r="D136" s="128"/>
+      <c r="E136" s="129"/>
+      <c r="F136" s="130"/>
     </row>
     <row r="137" s="2" customFormat="1" spans="1:6">
       <c r="A137" s="4"/>
-      <c r="B137" s="121"/>
-      <c r="C137" s="122"/>
-      <c r="D137" s="123"/>
-      <c r="E137" s="124"/>
-      <c r="F137" s="125"/>
+      <c r="B137" s="126"/>
+      <c r="C137" s="127"/>
+      <c r="D137" s="128"/>
+      <c r="E137" s="129"/>
+      <c r="F137" s="130"/>
     </row>
     <row r="138" s="2" customFormat="1" spans="1:6">
       <c r="A138" s="4"/>
-      <c r="B138" s="121"/>
-      <c r="C138" s="122"/>
-      <c r="D138" s="123"/>
-      <c r="E138" s="124"/>
-      <c r="F138" s="125"/>
+      <c r="B138" s="126"/>
+      <c r="C138" s="127"/>
+      <c r="D138" s="128"/>
+      <c r="E138" s="129"/>
+      <c r="F138" s="130"/>
     </row>
     <row r="139" s="2" customFormat="1" spans="1:6">
       <c r="A139" s="4"/>
-      <c r="B139" s="121"/>
-      <c r="C139" s="122"/>
-      <c r="D139" s="123"/>
-      <c r="E139" s="124"/>
-      <c r="F139" s="125"/>
+      <c r="B139" s="126"/>
+      <c r="C139" s="127"/>
+      <c r="D139" s="128"/>
+      <c r="E139" s="129"/>
+      <c r="F139" s="130"/>
     </row>
     <row r="140" s="2" customFormat="1" spans="1:6">
       <c r="A140" s="4"/>
-      <c r="B140" s="121"/>
-      <c r="C140" s="122"/>
-      <c r="D140" s="123"/>
-      <c r="E140" s="124"/>
-      <c r="F140" s="125"/>
+      <c r="B140" s="126"/>
+      <c r="C140" s="127"/>
+      <c r="D140" s="128"/>
+      <c r="E140" s="129"/>
+      <c r="F140" s="130"/>
     </row>
     <row r="141" s="2" customFormat="1" spans="1:6">
       <c r="A141" s="4"/>
-      <c r="B141" s="121"/>
-      <c r="C141" s="122"/>
-      <c r="D141" s="123"/>
-      <c r="E141" s="124"/>
-      <c r="F141" s="125"/>
+      <c r="B141" s="126"/>
+      <c r="C141" s="127"/>
+      <c r="D141" s="128"/>
+      <c r="E141" s="129"/>
+      <c r="F141" s="130"/>
     </row>
     <row r="142" s="2" customFormat="1" spans="1:6">
       <c r="A142" s="4"/>
-      <c r="B142" s="121"/>
-      <c r="C142" s="122"/>
-      <c r="D142" s="123"/>
-      <c r="E142" s="124"/>
-      <c r="F142" s="125"/>
+      <c r="B142" s="126"/>
+      <c r="C142" s="127"/>
+      <c r="D142" s="128"/>
+      <c r="E142" s="129"/>
+      <c r="F142" s="130"/>
     </row>
     <row r="143" s="2" customFormat="1" spans="1:6">
       <c r="A143" s="4"/>
-      <c r="B143" s="121"/>
-      <c r="C143" s="122"/>
-      <c r="D143" s="123"/>
-      <c r="E143" s="124"/>
-      <c r="F143" s="125"/>
+      <c r="B143" s="126"/>
+      <c r="C143" s="127"/>
+      <c r="D143" s="128"/>
+      <c r="E143" s="129"/>
+      <c r="F143" s="130"/>
     </row>
     <row r="144" s="2" customFormat="1" spans="1:6">
       <c r="A144" s="4"/>
-      <c r="B144" s="121"/>
-      <c r="C144" s="122"/>
-      <c r="D144" s="123"/>
-      <c r="E144" s="124"/>
-      <c r="F144" s="125"/>
+      <c r="B144" s="126"/>
+      <c r="C144" s="127"/>
+      <c r="D144" s="128"/>
+      <c r="E144" s="129"/>
+      <c r="F144" s="130"/>
     </row>
     <row r="145" s="2" customFormat="1" spans="1:6">
       <c r="A145" s="4"/>
-      <c r="B145" s="121"/>
-      <c r="C145" s="122"/>
-      <c r="D145" s="123"/>
-      <c r="E145" s="124"/>
-      <c r="F145" s="125"/>
+      <c r="B145" s="126"/>
+      <c r="C145" s="127"/>
+      <c r="D145" s="128"/>
+      <c r="E145" s="129"/>
+      <c r="F145" s="130"/>
     </row>
     <row r="146" s="2" customFormat="1" spans="1:6">
       <c r="A146" s="4"/>
-      <c r="B146" s="121"/>
-      <c r="C146" s="122"/>
-      <c r="D146" s="123"/>
-      <c r="E146" s="124"/>
-      <c r="F146" s="125"/>
+      <c r="B146" s="126"/>
+      <c r="C146" s="127"/>
+      <c r="D146" s="128"/>
+      <c r="E146" s="129"/>
+      <c r="F146" s="130"/>
     </row>
     <row r="147" s="2" customFormat="1" spans="1:6">
       <c r="A147" s="4"/>
-      <c r="B147" s="121"/>
-      <c r="C147" s="122"/>
-      <c r="D147" s="123"/>
-      <c r="E147" s="124"/>
-      <c r="F147" s="125"/>
+      <c r="B147" s="126"/>
+      <c r="C147" s="127"/>
+      <c r="D147" s="128"/>
+      <c r="E147" s="129"/>
+      <c r="F147" s="130"/>
     </row>
     <row r="148" s="2" customFormat="1" spans="1:6">
       <c r="A148" s="4"/>
-      <c r="B148" s="121"/>
-      <c r="C148" s="122"/>
-      <c r="D148" s="123"/>
-      <c r="E148" s="124"/>
-      <c r="F148" s="125"/>
+      <c r="B148" s="126"/>
+      <c r="C148" s="127"/>
+      <c r="D148" s="128"/>
+      <c r="E148" s="129"/>
+      <c r="F148" s="130"/>
     </row>
     <row r="149" s="2" customFormat="1" spans="1:6">
       <c r="A149" s="4"/>
-      <c r="B149" s="121"/>
-      <c r="C149" s="122"/>
-      <c r="D149" s="123"/>
-      <c r="E149" s="124"/>
-      <c r="F149" s="125"/>
+      <c r="B149" s="126"/>
+      <c r="C149" s="127"/>
+      <c r="D149" s="128"/>
+      <c r="E149" s="129"/>
+      <c r="F149" s="130"/>
     </row>
     <row r="150" s="2" customFormat="1" spans="1:6">
       <c r="A150" s="4"/>
-      <c r="B150" s="121"/>
-      <c r="C150" s="122"/>
-      <c r="D150" s="123"/>
-      <c r="E150" s="124"/>
-      <c r="F150" s="125"/>
+      <c r="B150" s="126"/>
+      <c r="C150" s="127"/>
+      <c r="D150" s="128"/>
+      <c r="E150" s="129"/>
+      <c r="F150" s="130"/>
     </row>
     <row r="151" s="2" customFormat="1" spans="1:6">
       <c r="A151" s="4"/>
-      <c r="B151" s="121"/>
-      <c r="C151" s="122"/>
-      <c r="D151" s="123"/>
-      <c r="E151" s="124"/>
-      <c r="F151" s="125"/>
+      <c r="B151" s="126"/>
+      <c r="C151" s="127"/>
+      <c r="D151" s="128"/>
+      <c r="E151" s="129"/>
+      <c r="F151" s="130"/>
     </row>
     <row r="152" s="2" customFormat="1" spans="1:6">
       <c r="A152" s="4"/>
-      <c r="B152" s="121"/>
-      <c r="C152" s="122"/>
-      <c r="D152" s="123"/>
-      <c r="E152" s="124"/>
-      <c r="F152" s="125"/>
+      <c r="B152" s="126"/>
+      <c r="C152" s="127"/>
+      <c r="D152" s="128"/>
+      <c r="E152" s="129"/>
+      <c r="F152" s="130"/>
     </row>
     <row r="153" s="2" customFormat="1" spans="1:6">
       <c r="A153" s="4"/>
-      <c r="B153" s="121"/>
-      <c r="C153" s="122"/>
-      <c r="D153" s="123"/>
-      <c r="E153" s="124"/>
-      <c r="F153" s="125"/>
+      <c r="B153" s="126"/>
+      <c r="C153" s="127"/>
+      <c r="D153" s="128"/>
+      <c r="E153" s="129"/>
+      <c r="F153" s="130"/>
     </row>
     <row r="154" s="2" customFormat="1" spans="1:6">
       <c r="A154" s="4"/>
-      <c r="B154" s="121"/>
-      <c r="C154" s="122"/>
-      <c r="D154" s="123"/>
-      <c r="E154" s="124"/>
-      <c r="F154" s="125"/>
+      <c r="B154" s="126"/>
+      <c r="C154" s="127"/>
+      <c r="D154" s="128"/>
+      <c r="E154" s="129"/>
+      <c r="F154" s="130"/>
     </row>
     <row r="155" s="2" customFormat="1" spans="1:6">
       <c r="A155" s="4"/>
-      <c r="B155" s="121"/>
-      <c r="C155" s="122"/>
-      <c r="D155" s="123"/>
-      <c r="E155" s="124"/>
-      <c r="F155" s="125"/>
+      <c r="B155" s="126"/>
+      <c r="C155" s="127"/>
+      <c r="D155" s="128"/>
+      <c r="E155" s="129"/>
+      <c r="F155" s="130"/>
     </row>
     <row r="156" s="2" customFormat="1" spans="1:6">
       <c r="A156" s="4"/>
-      <c r="B156" s="121"/>
-      <c r="C156" s="122"/>
-      <c r="D156" s="123"/>
-      <c r="E156" s="124"/>
-      <c r="F156" s="125"/>
+      <c r="B156" s="126"/>
+      <c r="C156" s="127"/>
+      <c r="D156" s="128"/>
+      <c r="E156" s="129"/>
+      <c r="F156" s="130"/>
     </row>
     <row r="157" s="2" customFormat="1" spans="1:6">
       <c r="A157" s="4"/>
-      <c r="B157" s="121"/>
-      <c r="C157" s="122"/>
-      <c r="D157" s="123"/>
-      <c r="E157" s="124"/>
-      <c r="F157" s="125"/>
+      <c r="B157" s="126"/>
+      <c r="C157" s="127"/>
+      <c r="D157" s="128"/>
+      <c r="E157" s="129"/>
+      <c r="F157" s="130"/>
     </row>
     <row r="158" spans="2:5">
-      <c r="B158" s="126"/>
-      <c r="C158" s="127"/>
-      <c r="D158" s="128"/>
-      <c r="E158" s="129"/>
+      <c r="B158" s="131"/>
+      <c r="C158" s="132"/>
+      <c r="D158" s="133"/>
+      <c r="E158" s="134"/>
     </row>
     <row r="159" spans="2:5">
-      <c r="B159" s="126"/>
-      <c r="C159" s="127"/>
-      <c r="D159" s="128"/>
-      <c r="E159" s="129"/>
+      <c r="B159" s="131"/>
+      <c r="C159" s="132"/>
+      <c r="D159" s="133"/>
+      <c r="E159" s="134"/>
     </row>
     <row r="160" spans="2:5">
-      <c r="B160" s="126"/>
-      <c r="C160" s="127"/>
-      <c r="D160" s="128"/>
-      <c r="E160" s="129"/>
+      <c r="B160" s="131"/>
+      <c r="C160" s="132"/>
+      <c r="D160" s="133"/>
+      <c r="E160" s="134"/>
     </row>
     <row r="161" spans="2:5">
-      <c r="B161" s="126"/>
-      <c r="C161" s="127"/>
-      <c r="D161" s="128"/>
-      <c r="E161" s="129"/>
+      <c r="B161" s="131"/>
+      <c r="C161" s="132"/>
+      <c r="D161" s="133"/>
+      <c r="E161" s="134"/>
     </row>
     <row r="162" spans="2:5">
-      <c r="B162" s="126"/>
-      <c r="C162" s="127"/>
-      <c r="D162" s="128"/>
-      <c r="E162" s="129"/>
+      <c r="B162" s="131"/>
+      <c r="C162" s="132"/>
+      <c r="D162" s="133"/>
+      <c r="E162" s="134"/>
     </row>
     <row r="163" spans="2:5">
-      <c r="B163" s="126"/>
-      <c r="C163" s="127"/>
-      <c r="D163" s="128"/>
-      <c r="E163" s="129"/>
+      <c r="B163" s="131"/>
+      <c r="C163" s="132"/>
+      <c r="D163" s="133"/>
+      <c r="E163" s="134"/>
     </row>
     <row r="164" spans="2:5">
-      <c r="B164" s="126"/>
-      <c r="C164" s="127"/>
-      <c r="D164" s="128"/>
-      <c r="E164" s="129"/>
+      <c r="B164" s="131"/>
+      <c r="C164" s="132"/>
+      <c r="D164" s="133"/>
+      <c r="E164" s="134"/>
     </row>
     <row r="165" spans="2:5">
-      <c r="B165" s="126"/>
-      <c r="C165" s="127"/>
-      <c r="D165" s="128"/>
-      <c r="E165" s="129"/>
+      <c r="B165" s="131"/>
+      <c r="C165" s="132"/>
+      <c r="D165" s="133"/>
+      <c r="E165" s="134"/>
     </row>
     <row r="166" spans="2:5">
-      <c r="B166" s="126"/>
-      <c r="C166" s="127"/>
-      <c r="D166" s="128"/>
-      <c r="E166" s="129"/>
+      <c r="B166" s="131"/>
+      <c r="C166" s="132"/>
+      <c r="D166" s="133"/>
+      <c r="E166" s="134"/>
     </row>
     <row r="167" spans="2:5">
-      <c r="B167" s="126"/>
-      <c r="C167" s="127"/>
-      <c r="D167" s="128"/>
-      <c r="E167" s="129"/>
+      <c r="B167" s="131"/>
+      <c r="C167" s="132"/>
+      <c r="D167" s="133"/>
+      <c r="E167" s="134"/>
     </row>
     <row r="168" spans="2:5">
-      <c r="B168" s="126"/>
-      <c r="C168" s="127"/>
-      <c r="D168" s="128"/>
-      <c r="E168" s="129"/>
+      <c r="B168" s="131"/>
+      <c r="C168" s="132"/>
+      <c r="D168" s="133"/>
+      <c r="E168" s="134"/>
     </row>
     <row r="169" spans="2:5">
-      <c r="B169" s="126"/>
-      <c r="C169" s="127"/>
-      <c r="D169" s="128"/>
-      <c r="E169" s="129"/>
+      <c r="B169" s="131"/>
+      <c r="C169" s="132"/>
+      <c r="D169" s="133"/>
+      <c r="E169" s="134"/>
     </row>
     <row r="170" spans="2:5">
-      <c r="B170" s="126"/>
-      <c r="C170" s="127"/>
-      <c r="D170" s="128"/>
-      <c r="E170" s="129"/>
+      <c r="B170" s="131"/>
+      <c r="C170" s="132"/>
+      <c r="D170" s="133"/>
+      <c r="E170" s="134"/>
     </row>
     <row r="171" spans="2:5">
-      <c r="B171" s="126"/>
-      <c r="C171" s="127"/>
-      <c r="D171" s="128"/>
-      <c r="E171" s="129"/>
+      <c r="B171" s="131"/>
+      <c r="C171" s="132"/>
+      <c r="D171" s="133"/>
+      <c r="E171" s="134"/>
     </row>
     <row r="172" spans="2:5">
-      <c r="B172" s="126"/>
-      <c r="C172" s="127"/>
-      <c r="D172" s="128"/>
-      <c r="E172" s="129"/>
+      <c r="B172" s="131"/>
+      <c r="C172" s="132"/>
+      <c r="D172" s="133"/>
+      <c r="E172" s="134"/>
     </row>
     <row r="173" spans="2:5">
-      <c r="B173" s="126"/>
-      <c r="C173" s="127"/>
-      <c r="D173" s="128"/>
-      <c r="E173" s="129"/>
+      <c r="B173" s="131"/>
+      <c r="C173" s="132"/>
+      <c r="D173" s="133"/>
+      <c r="E173" s="134"/>
     </row>
     <row r="174" spans="2:5">
-      <c r="B174" s="126"/>
-      <c r="C174" s="127"/>
-      <c r="D174" s="128"/>
-      <c r="E174" s="129"/>
+      <c r="B174" s="131"/>
+      <c r="C174" s="132"/>
+      <c r="D174" s="133"/>
+      <c r="E174" s="134"/>
     </row>
     <row r="175" spans="2:5">
-      <c r="B175" s="126"/>
-      <c r="C175" s="127"/>
-      <c r="D175" s="128"/>
-      <c r="E175" s="129"/>
+      <c r="B175" s="131"/>
+      <c r="C175" s="132"/>
+      <c r="D175" s="133"/>
+      <c r="E175" s="134"/>
     </row>
     <row r="176" spans="2:5">
-      <c r="B176" s="126"/>
-      <c r="C176" s="127"/>
-      <c r="D176" s="128"/>
-      <c r="E176" s="129"/>
+      <c r="B176" s="131"/>
+      <c r="C176" s="132"/>
+      <c r="D176" s="133"/>
+      <c r="E176" s="134"/>
     </row>
     <row r="177" spans="2:5">
-      <c r="B177" s="126"/>
-      <c r="C177" s="127"/>
-      <c r="D177" s="128"/>
-      <c r="E177" s="129"/>
+      <c r="B177" s="131"/>
+      <c r="C177" s="132"/>
+      <c r="D177" s="133"/>
+      <c r="E177" s="134"/>
     </row>
     <row r="178" spans="2:5">
-      <c r="B178" s="126"/>
-      <c r="C178" s="127"/>
-      <c r="D178" s="128"/>
-      <c r="E178" s="129"/>
+      <c r="B178" s="131"/>
+      <c r="C178" s="132"/>
+      <c r="D178" s="133"/>
+      <c r="E178" s="134"/>
     </row>
     <row r="179" spans="2:5">
-      <c r="B179" s="126"/>
-      <c r="C179" s="127"/>
-      <c r="D179" s="128"/>
-      <c r="E179" s="129"/>
+      <c r="B179" s="131"/>
+      <c r="C179" s="132"/>
+      <c r="D179" s="133"/>
+      <c r="E179" s="134"/>
     </row>
     <row r="180" spans="2:5">
-      <c r="B180" s="126"/>
-      <c r="C180" s="127"/>
-      <c r="D180" s="128"/>
-      <c r="E180" s="129"/>
+      <c r="B180" s="131"/>
+      <c r="C180" s="132"/>
+      <c r="D180" s="133"/>
+      <c r="E180" s="134"/>
     </row>
     <row r="181" spans="2:5">
-      <c r="B181" s="126"/>
-      <c r="C181" s="127"/>
-      <c r="D181" s="128"/>
-      <c r="E181" s="129"/>
+      <c r="B181" s="131"/>
+      <c r="C181" s="132"/>
+      <c r="D181" s="133"/>
+      <c r="E181" s="134"/>
     </row>
     <row r="182" spans="2:5">
-      <c r="B182" s="126"/>
-      <c r="C182" s="127"/>
-      <c r="D182" s="128"/>
-      <c r="E182" s="129"/>
+      <c r="B182" s="131"/>
+      <c r="C182" s="132"/>
+      <c r="D182" s="133"/>
+      <c r="E182" s="134"/>
     </row>
     <row r="183" spans="2:5">
-      <c r="B183" s="126"/>
-      <c r="C183" s="127"/>
-      <c r="D183" s="128"/>
-      <c r="E183" s="129"/>
+      <c r="B183" s="131"/>
+      <c r="C183" s="132"/>
+      <c r="D183" s="133"/>
+      <c r="E183" s="134"/>
     </row>
     <row r="184" spans="2:5">
-      <c r="B184" s="126"/>
-      <c r="C184" s="127"/>
-      <c r="D184" s="128"/>
-      <c r="E184" s="129"/>
+      <c r="B184" s="131"/>
+      <c r="C184" s="132"/>
+      <c r="D184" s="133"/>
+      <c r="E184" s="134"/>
     </row>
     <row r="185" spans="2:5">
-      <c r="B185" s="126"/>
-      <c r="C185" s="127"/>
-      <c r="D185" s="128"/>
-      <c r="E185" s="129"/>
+      <c r="B185" s="131"/>
+      <c r="C185" s="132"/>
+      <c r="D185" s="133"/>
+      <c r="E185" s="134"/>
     </row>
     <row r="186" spans="2:5">
-      <c r="B186" s="126"/>
-      <c r="C186" s="127"/>
-      <c r="D186" s="128"/>
-      <c r="E186" s="129"/>
+      <c r="B186" s="131"/>
+      <c r="C186" s="132"/>
+      <c r="D186" s="133"/>
+      <c r="E186" s="134"/>
     </row>
     <row r="187" spans="2:5">
-      <c r="B187" s="126"/>
-      <c r="C187" s="127"/>
-      <c r="D187" s="128"/>
-      <c r="E187" s="129"/>
+      <c r="B187" s="131"/>
+      <c r="C187" s="132"/>
+      <c r="D187" s="133"/>
+      <c r="E187" s="134"/>
     </row>
     <row r="188" spans="2:5">
-      <c r="B188" s="126"/>
-      <c r="C188" s="127"/>
-      <c r="D188" s="128"/>
-      <c r="E188" s="129"/>
+      <c r="B188" s="131"/>
+      <c r="C188" s="132"/>
+      <c r="D188" s="133"/>
+      <c r="E188" s="134"/>
     </row>
     <row r="189" spans="2:5">
-      <c r="B189" s="126"/>
-      <c r="C189" s="127"/>
-      <c r="D189" s="128"/>
-      <c r="E189" s="129"/>
+      <c r="B189" s="131"/>
+      <c r="C189" s="132"/>
+      <c r="D189" s="133"/>
+      <c r="E189" s="134"/>
     </row>
     <row r="190" spans="2:5">
-      <c r="B190" s="126"/>
-      <c r="C190" s="127"/>
-      <c r="D190" s="128"/>
-      <c r="E190" s="129"/>
+      <c r="B190" s="131"/>
+      <c r="C190" s="132"/>
+      <c r="D190" s="133"/>
+      <c r="E190" s="134"/>
     </row>
     <row r="191" spans="2:5">
-      <c r="B191" s="126"/>
-      <c r="C191" s="127"/>
-      <c r="D191" s="128"/>
-      <c r="E191" s="129"/>
+      <c r="B191" s="131"/>
+      <c r="C191" s="132"/>
+      <c r="D191" s="133"/>
+      <c r="E191" s="134"/>
     </row>
     <row r="192" spans="2:5">
-      <c r="B192" s="126"/>
-      <c r="C192" s="127"/>
-      <c r="D192" s="128"/>
-      <c r="E192" s="129"/>
+      <c r="B192" s="131"/>
+      <c r="C192" s="132"/>
+      <c r="D192" s="133"/>
+      <c r="E192" s="134"/>
     </row>
     <row r="193" spans="2:5">
-      <c r="B193" s="126"/>
-      <c r="C193" s="127"/>
-      <c r="D193" s="128"/>
-      <c r="E193" s="129"/>
+      <c r="B193" s="131"/>
+      <c r="C193" s="132"/>
+      <c r="D193" s="133"/>
+      <c r="E193" s="134"/>
     </row>
     <row r="194" spans="2:5">
-      <c r="B194" s="126"/>
-      <c r="C194" s="127"/>
-      <c r="D194" s="128"/>
-      <c r="E194" s="129"/>
+      <c r="B194" s="131"/>
+      <c r="C194" s="132"/>
+      <c r="D194" s="133"/>
+      <c r="E194" s="134"/>
     </row>
     <row r="195" spans="2:5">
-      <c r="B195" s="126"/>
-      <c r="C195" s="127"/>
-      <c r="D195" s="128"/>
-      <c r="E195" s="129"/>
+      <c r="B195" s="131"/>
+      <c r="C195" s="132"/>
+      <c r="D195" s="133"/>
+      <c r="E195" s="134"/>
     </row>
     <row r="196" spans="2:5">
-      <c r="B196" s="126"/>
-      <c r="C196" s="127"/>
-      <c r="D196" s="128"/>
-      <c r="E196" s="129"/>
+      <c r="B196" s="131"/>
+      <c r="C196" s="132"/>
+      <c r="D196" s="133"/>
+      <c r="E196" s="134"/>
     </row>
     <row r="197" spans="2:5">
-      <c r="B197" s="126"/>
-      <c r="C197" s="127"/>
-      <c r="D197" s="128"/>
-      <c r="E197" s="129"/>
+      <c r="B197" s="131"/>
+      <c r="C197" s="132"/>
+      <c r="D197" s="133"/>
+      <c r="E197" s="134"/>
     </row>
     <row r="198" spans="2:5">
-      <c r="B198" s="126"/>
-      <c r="C198" s="127"/>
-      <c r="D198" s="128"/>
-      <c r="E198" s="129"/>
+      <c r="B198" s="131"/>
+      <c r="C198" s="132"/>
+      <c r="D198" s="133"/>
+      <c r="E198" s="134"/>
     </row>
     <row r="199" spans="2:5">
-      <c r="B199" s="126"/>
-      <c r="C199" s="127"/>
-      <c r="D199" s="128"/>
-      <c r="E199" s="129"/>
+      <c r="B199" s="131"/>
+      <c r="C199" s="132"/>
+      <c r="D199" s="133"/>
+      <c r="E199" s="134"/>
     </row>
     <row r="200" spans="2:5">
-      <c r="B200" s="126"/>
-      <c r="C200" s="127"/>
-      <c r="D200" s="128"/>
-      <c r="E200" s="129"/>
+      <c r="B200" s="131"/>
+      <c r="C200" s="132"/>
+      <c r="D200" s="133"/>
+      <c r="E200" s="134"/>
     </row>
     <row r="201" spans="2:5">
-      <c r="B201" s="126"/>
-      <c r="C201" s="127"/>
-      <c r="D201" s="128"/>
-      <c r="E201" s="129"/>
+      <c r="B201" s="131"/>
+      <c r="C201" s="132"/>
+      <c r="D201" s="133"/>
+      <c r="E201" s="134"/>
     </row>
     <row r="202" spans="2:5">
-      <c r="B202" s="126"/>
-      <c r="C202" s="127"/>
-      <c r="D202" s="128"/>
-      <c r="E202" s="129"/>
+      <c r="B202" s="131"/>
+      <c r="C202" s="132"/>
+      <c r="D202" s="133"/>
+      <c r="E202" s="134"/>
     </row>
     <row r="203" spans="2:5">
-      <c r="B203" s="126"/>
-      <c r="C203" s="127"/>
-      <c r="D203" s="128"/>
-      <c r="E203" s="129"/>
+      <c r="B203" s="131"/>
+      <c r="C203" s="132"/>
+      <c r="D203" s="133"/>
+      <c r="E203" s="134"/>
     </row>
     <row r="204" spans="2:5">
-      <c r="B204" s="126"/>
-      <c r="C204" s="127"/>
-      <c r="D204" s="128"/>
-      <c r="E204" s="129"/>
+      <c r="B204" s="131"/>
+      <c r="C204" s="132"/>
+      <c r="D204" s="133"/>
+      <c r="E204" s="134"/>
     </row>
     <row r="205" spans="2:5">
-      <c r="B205" s="126"/>
-      <c r="C205" s="127"/>
-      <c r="D205" s="128"/>
-      <c r="E205" s="129"/>
+      <c r="B205" s="131"/>
+      <c r="C205" s="132"/>
+      <c r="D205" s="133"/>
+      <c r="E205" s="134"/>
     </row>
     <row r="206" spans="2:5">
-      <c r="B206" s="126"/>
-      <c r="C206" s="127"/>
-      <c r="D206" s="128"/>
-      <c r="E206" s="129"/>
+      <c r="B206" s="131"/>
+      <c r="C206" s="132"/>
+      <c r="D206" s="133"/>
+      <c r="E206" s="134"/>
     </row>
     <row r="207" spans="2:5">
-      <c r="B207" s="126"/>
-      <c r="C207" s="127"/>
-      <c r="D207" s="128"/>
-      <c r="E207" s="129"/>
+      <c r="B207" s="131"/>
+      <c r="C207" s="132"/>
+      <c r="D207" s="133"/>
+      <c r="E207" s="134"/>
     </row>
     <row r="208" spans="2:5">
-      <c r="B208" s="126"/>
-      <c r="C208" s="127"/>
-      <c r="D208" s="128"/>
-      <c r="E208" s="129"/>
+      <c r="B208" s="131"/>
+      <c r="C208" s="132"/>
+      <c r="D208" s="133"/>
+      <c r="E208" s="134"/>
     </row>
     <row r="209" spans="2:5">
-      <c r="B209" s="126"/>
-      <c r="C209" s="127"/>
-      <c r="D209" s="128"/>
-      <c r="E209" s="129"/>
+      <c r="B209" s="131"/>
+      <c r="C209" s="132"/>
+      <c r="D209" s="133"/>
+      <c r="E209" s="134"/>
     </row>
     <row r="210" spans="2:5">
-      <c r="B210" s="126"/>
-      <c r="C210" s="127"/>
-      <c r="D210" s="128"/>
-      <c r="E210" s="129"/>
+      <c r="B210" s="131"/>
+      <c r="C210" s="132"/>
+      <c r="D210" s="133"/>
+      <c r="E210" s="134"/>
     </row>
     <row r="211" spans="2:5">
-      <c r="B211" s="126"/>
-      <c r="C211" s="127"/>
-      <c r="D211" s="128"/>
-      <c r="E211" s="129"/>
+      <c r="B211" s="131"/>
+      <c r="C211" s="132"/>
+      <c r="D211" s="133"/>
+      <c r="E211" s="134"/>
     </row>
     <row r="212" spans="2:5">
-      <c r="B212" s="126"/>
-      <c r="C212" s="127"/>
-      <c r="D212" s="128"/>
-      <c r="E212" s="129"/>
+      <c r="B212" s="131"/>
+      <c r="C212" s="132"/>
+      <c r="D212" s="133"/>
+      <c r="E212" s="134"/>
     </row>
     <row r="213" spans="2:5">
-      <c r="B213" s="126"/>
-      <c r="C213" s="127"/>
-      <c r="D213" s="128"/>
-      <c r="E213" s="129"/>
+      <c r="B213" s="131"/>
+      <c r="C213" s="132"/>
+      <c r="D213" s="133"/>
+      <c r="E213" s="134"/>
     </row>
     <row r="214" spans="2:5">
-      <c r="B214" s="126"/>
-      <c r="C214" s="127"/>
-      <c r="D214" s="128"/>
-      <c r="E214" s="129"/>
+      <c r="B214" s="131"/>
+      <c r="C214" s="132"/>
+      <c r="D214" s="133"/>
+      <c r="E214" s="134"/>
     </row>
     <row r="215" spans="2:5">
-      <c r="B215" s="126"/>
-      <c r="C215" s="127"/>
-      <c r="D215" s="128"/>
-      <c r="E215" s="129"/>
+      <c r="B215" s="131"/>
+      <c r="C215" s="132"/>
+      <c r="D215" s="133"/>
+      <c r="E215" s="134"/>
     </row>
     <row r="216" spans="2:5">
-      <c r="B216" s="126"/>
-      <c r="C216" s="127"/>
-      <c r="D216" s="128"/>
-      <c r="E216" s="129"/>
+      <c r="B216" s="131"/>
+      <c r="C216" s="132"/>
+      <c r="D216" s="133"/>
+      <c r="E216" s="134"/>
     </row>
     <row r="217" spans="2:5">
-      <c r="B217" s="126"/>
-      <c r="C217" s="127"/>
-      <c r="D217" s="128"/>
-      <c r="E217" s="129"/>
+      <c r="B217" s="131"/>
+      <c r="C217" s="132"/>
+      <c r="D217" s="133"/>
+      <c r="E217" s="134"/>
     </row>
     <row r="218" spans="2:5">
-      <c r="B218" s="126"/>
-      <c r="C218" s="127"/>
-      <c r="D218" s="128"/>
-      <c r="E218" s="129"/>
+      <c r="B218" s="131"/>
+      <c r="C218" s="132"/>
+      <c r="D218" s="133"/>
+      <c r="E218" s="134"/>
     </row>
     <row r="219" spans="2:5">
-      <c r="B219" s="126"/>
-      <c r="C219" s="127"/>
-      <c r="D219" s="128"/>
-      <c r="E219" s="129"/>
+      <c r="B219" s="131"/>
+      <c r="C219" s="132"/>
+      <c r="D219" s="133"/>
+      <c r="E219" s="134"/>
     </row>
     <row r="220" spans="2:5">
-      <c r="B220" s="126"/>
-      <c r="C220" s="127"/>
-      <c r="D220" s="128"/>
-      <c r="E220" s="129"/>
+      <c r="B220" s="131"/>
+      <c r="C220" s="132"/>
+      <c r="D220" s="133"/>
+      <c r="E220" s="134"/>
     </row>
     <row r="221" spans="2:5">
-      <c r="B221" s="126"/>
-      <c r="C221" s="127"/>
-      <c r="D221" s="128"/>
-      <c r="E221" s="129"/>
+      <c r="B221" s="131"/>
+      <c r="C221" s="132"/>
+      <c r="D221" s="133"/>
+      <c r="E221" s="134"/>
     </row>
     <row r="222" spans="2:5">
-      <c r="B222" s="126"/>
-      <c r="C222" s="127"/>
-      <c r="D222" s="128"/>
-      <c r="E222" s="129"/>
+      <c r="B222" s="131"/>
+      <c r="C222" s="132"/>
+      <c r="D222" s="133"/>
+      <c r="E222" s="134"/>
     </row>
     <row r="223" spans="2:5">
-      <c r="B223" s="126"/>
-      <c r="C223" s="127"/>
-      <c r="D223" s="128"/>
-      <c r="E223" s="129"/>
+      <c r="B223" s="131"/>
+      <c r="C223" s="132"/>
+      <c r="D223" s="133"/>
+      <c r="E223" s="134"/>
     </row>
     <row r="224" spans="2:5">
-      <c r="B224" s="126"/>
-      <c r="C224" s="127"/>
-      <c r="D224" s="128"/>
-      <c r="E224" s="129"/>
+      <c r="B224" s="131"/>
+      <c r="C224" s="132"/>
+      <c r="D224" s="133"/>
+      <c r="E224" s="134"/>
     </row>
     <row r="225" spans="2:5">
-      <c r="B225" s="126"/>
-      <c r="C225" s="127"/>
-      <c r="D225" s="128"/>
-      <c r="E225" s="129"/>
+      <c r="B225" s="131"/>
+      <c r="C225" s="132"/>
+      <c r="D225" s="133"/>
+      <c r="E225" s="134"/>
     </row>
     <row r="226" spans="2:5">
-      <c r="B226" s="126"/>
-      <c r="C226" s="127"/>
-      <c r="D226" s="128"/>
-      <c r="E226" s="129"/>
+      <c r="B226" s="131"/>
+      <c r="C226" s="132"/>
+      <c r="D226" s="133"/>
+      <c r="E226" s="134"/>
     </row>
     <row r="227" spans="2:5">
-      <c r="B227" s="126"/>
-      <c r="C227" s="127"/>
-      <c r="D227" s="128"/>
-      <c r="E227" s="129"/>
+      <c r="B227" s="131"/>
+      <c r="C227" s="132"/>
+      <c r="D227" s="133"/>
+      <c r="E227" s="134"/>
     </row>
     <row r="228" spans="2:5">
-      <c r="B228" s="126"/>
-      <c r="C228" s="127"/>
-      <c r="D228" s="128"/>
-      <c r="E228" s="129"/>
+      <c r="B228" s="131"/>
+      <c r="C228" s="132"/>
+      <c r="D228" s="133"/>
+      <c r="E228" s="134"/>
     </row>
     <row r="229" spans="2:5">
-      <c r="B229" s="126"/>
-      <c r="C229" s="127"/>
-      <c r="D229" s="128"/>
-      <c r="E229" s="129"/>
+      <c r="B229" s="131"/>
+      <c r="C229" s="132"/>
+      <c r="D229" s="133"/>
+      <c r="E229" s="134"/>
     </row>
     <row r="230" spans="2:5">
-      <c r="B230" s="126"/>
-      <c r="C230" s="127"/>
-      <c r="D230" s="128"/>
-      <c r="E230" s="129"/>
+      <c r="B230" s="131"/>
+      <c r="C230" s="132"/>
+      <c r="D230" s="133"/>
+      <c r="E230" s="134"/>
     </row>
     <row r="231" spans="2:5">
-      <c r="B231" s="126"/>
-      <c r="C231" s="127"/>
-      <c r="D231" s="128"/>
-      <c r="E231" s="129"/>
+      <c r="B231" s="131"/>
+      <c r="C231" s="132"/>
+      <c r="D231" s="133"/>
+      <c r="E231" s="134"/>
     </row>
     <row r="232" spans="2:5">
-      <c r="B232" s="126"/>
-      <c r="C232" s="127"/>
-      <c r="D232" s="128"/>
-      <c r="E232" s="129"/>
+      <c r="B232" s="131"/>
+      <c r="C232" s="132"/>
+      <c r="D232" s="133"/>
+      <c r="E232" s="134"/>
     </row>
     <row r="233" spans="2:5">
-      <c r="B233" s="126"/>
-      <c r="C233" s="127"/>
-      <c r="D233" s="128"/>
-      <c r="E233" s="129"/>
+      <c r="B233" s="131"/>
+      <c r="C233" s="132"/>
+      <c r="D233" s="133"/>
+      <c r="E233" s="134"/>
     </row>
     <row r="234" spans="2:5">
-      <c r="B234" s="126"/>
-      <c r="C234" s="127"/>
-      <c r="D234" s="128"/>
-      <c r="E234" s="129"/>
+      <c r="B234" s="131"/>
+      <c r="C234" s="132"/>
+      <c r="D234" s="133"/>
+      <c r="E234" s="134"/>
     </row>
     <row r="235" spans="2:5">
-      <c r="B235" s="126"/>
-      <c r="C235" s="127"/>
-      <c r="D235" s="128"/>
-      <c r="E235" s="129"/>
+      <c r="B235" s="131"/>
+      <c r="C235" s="132"/>
+      <c r="D235" s="133"/>
+      <c r="E235" s="134"/>
     </row>
     <row r="236" spans="2:5">
-      <c r="B236" s="126"/>
-      <c r="C236" s="127"/>
-      <c r="D236" s="128"/>
-      <c r="E236" s="129"/>
+      <c r="B236" s="131"/>
+      <c r="C236" s="132"/>
+      <c r="D236" s="133"/>
+      <c r="E236" s="134"/>
     </row>
     <row r="237" spans="2:5">
-      <c r="B237" s="126"/>
-      <c r="C237" s="127"/>
-      <c r="D237" s="128"/>
-      <c r="E237" s="129"/>
+      <c r="B237" s="131"/>
+      <c r="C237" s="132"/>
+      <c r="D237" s="133"/>
+      <c r="E237" s="134"/>
     </row>
     <row r="238" spans="2:5">
-      <c r="B238" s="126"/>
-      <c r="C238" s="127"/>
-      <c r="D238" s="128"/>
-      <c r="E238" s="129"/>
+      <c r="B238" s="131"/>
+      <c r="C238" s="132"/>
+      <c r="D238" s="133"/>
+      <c r="E238" s="134"/>
     </row>
     <row r="239" spans="2:5">
-      <c r="B239" s="126"/>
-      <c r="C239" s="127"/>
-      <c r="D239" s="128"/>
-      <c r="E239" s="129"/>
+      <c r="B239" s="131"/>
+      <c r="C239" s="132"/>
+      <c r="D239" s="133"/>
+      <c r="E239" s="134"/>
     </row>
     <row r="240" spans="2:5">
-      <c r="B240" s="126"/>
-      <c r="C240" s="127"/>
-      <c r="D240" s="128"/>
-      <c r="E240" s="129"/>
+      <c r="B240" s="131"/>
+      <c r="C240" s="132"/>
+      <c r="D240" s="133"/>
+      <c r="E240" s="134"/>
     </row>
     <row r="241" spans="2:5">
-      <c r="B241" s="126"/>
-      <c r="C241" s="127"/>
-      <c r="D241" s="128"/>
-      <c r="E241" s="129"/>
+      <c r="B241" s="131"/>
+      <c r="C241" s="132"/>
+      <c r="D241" s="133"/>
+      <c r="E241" s="134"/>
     </row>
     <row r="242" spans="2:5">
-      <c r="B242" s="126"/>
-      <c r="C242" s="127"/>
-      <c r="D242" s="128"/>
-      <c r="E242" s="129"/>
+      <c r="B242" s="131"/>
+      <c r="C242" s="132"/>
+      <c r="D242" s="133"/>
+      <c r="E242" s="134"/>
     </row>
     <row r="243" spans="2:5">
-      <c r="B243" s="126"/>
-      <c r="C243" s="127"/>
-      <c r="D243" s="128"/>
-      <c r="E243" s="129"/>
+      <c r="B243" s="131"/>
+      <c r="C243" s="132"/>
+      <c r="D243" s="133"/>
+      <c r="E243" s="134"/>
     </row>
     <row r="244" spans="2:5">
-      <c r="B244" s="126"/>
-      <c r="C244" s="127"/>
-      <c r="D244" s="128"/>
-      <c r="E244" s="129"/>
+      <c r="B244" s="131"/>
+      <c r="C244" s="132"/>
+      <c r="D244" s="133"/>
+      <c r="E244" s="134"/>
     </row>
     <row r="245" spans="2:5">
-      <c r="B245" s="126"/>
-      <c r="C245" s="127"/>
-      <c r="D245" s="128"/>
-      <c r="E245" s="129"/>
+      <c r="B245" s="131"/>
+      <c r="C245" s="132"/>
+      <c r="D245" s="133"/>
+      <c r="E245" s="134"/>
     </row>
     <row r="246" spans="2:5">
-      <c r="B246" s="126"/>
-      <c r="C246" s="127"/>
-      <c r="D246" s="128"/>
-      <c r="E246" s="129"/>
+      <c r="B246" s="131"/>
+      <c r="C246" s="132"/>
+      <c r="D246" s="133"/>
+      <c r="E246" s="134"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>

--- a/protected/commands/template/m_template_ones.xlsx
+++ b/protected/commands/template/m_template_ones.xlsx
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="185">
   <si>
     <t>地区表现标准月报表</t>
   </si>
@@ -587,148 +587,117 @@
     <t>新生意情况</t>
   </si>
   <si>
-    <t>新(IA,IB)新服务年生意额增长 （(当月-上月)/上月)</t>
-  </si>
-  <si>
-    <t>-15% ~ -30%     :  1
-&lt;0% ~ -14%   :  2
-&gt;=0% ~ 8%   :  3
-9% ~ 14%   :  4
-&gt; =15% :  5</t>
-  </si>
-  <si>
-    <t>新(IA,IB)服务年生意额同比增长 （(当月-去年当月）/去年当月)</t>
-  </si>
-  <si>
-    <t>新增(IA,IB)生意合同数目增长（(当月-上月)/上月)</t>
-  </si>
-  <si>
-    <t>-10% ~ -20%     :  1
-0% ~ -9%   :  2
-10% ~ 19%   :  3
-20% ~ 29%   :  4
-&gt; =30% :  5</t>
-  </si>
-  <si>
-    <t>新(IA,IB)生意合同数目同比增长（(当月-去年当月)/去年当月)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">新业务(飘盈香，甲醛，厨房或其他)新年生意金额增长（(当月-上月)/上月)
+    <t>傳統服務(IA,IB)新生意年金額增長 （(當月-上月)/上月)</t>
+  </si>
+  <si>
+    <t>-15% ~ -30% : 1
+&lt;0% ~ -14% : 2
+&gt;=0% ~ 8%  : 3
+9% ~ 14%  : 4
+&gt; =15%  : 5</t>
+  </si>
+  <si>
+    <t>傳統服務(IA,IB)新生意年金額橫比增長 （(當月-去年當月）/去年當月)</t>
+  </si>
+  <si>
+    <t>-15% ~ -30% : 1
+&lt;0% ~ -14% : 2
+&gt;=0% ~ 8% : 3
+9% ~ 14% : 4
+&gt; =15% : 5</t>
+  </si>
+  <si>
+    <t>傳統服務(IA,IB)新生意合同數量增長（(當月-上月)/上月)</t>
+  </si>
+  <si>
+    <t>-10% ~ -20% : 1
+4% ~ -9% : 2
+5% ~ 19% : 3
+20% ~ 29% : 4
+&gt; =30% : 5</t>
+  </si>
+  <si>
+    <t>傳統服務(IA,IB)新生意合同數量橫比增長（(當月-去年當月)/去年當月)</t>
+  </si>
+  <si>
+    <t>-10% ~ -20% : 1
+0% ~ -9% : 2
+10% ~ 19% : 3
+20% ~ 29% : 4
+&gt; =30% : 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">新興業務(空氣淨化機, 飄盈香，甲醛，廚房或其他)新生意年金額增長 （(當月-上月)/上月)
 </t>
   </si>
   <si>
-    <t>-100% ~ -200%     :  1
+    <t>-100% ~ -200% : 1
 &lt;0% ~ -99% : 2
-&gt;=0% ~ 99% :3
-100% ~ 149%   :  4
-&gt;= 150% :  5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">新兴业务(飘盈香，甲醛，厨房或其他)新年生意金额同比增长 （(当月-去年当月)/去年当月)
+&gt;=0% ~ 99% : 3
+100% ~ 149% : 4
+&gt;= 150% : 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">新興業務(空氣淨化機,飄盈香，甲醛，廚房或其他)新生意年金額橫比增長 （(當月-去年當月)/去年當月)
 </t>
   </si>
   <si>
-    <t>公司年生意额净增长比例（（当月-上月）/上月）</t>
-  </si>
-  <si>
-    <t>-10% ~ -20%     :  1
-&lt;0% ~ -9%   :  2
-&gt;=0% ~ 8%   :  3
-9% ~ 14%   :  4
-&gt;= 15% :  5</t>
-  </si>
-  <si>
-    <t>公司年生意额净增长同比比例（（当月-去年当月）/去年当月）</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>-16% ~ -30%     :  1
-&lt;0% ~ -15%   :  2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-&gt;=0% ~ 8%   :  3
-9% ~ 14%   :  4
-&gt;= 15% :  5</t>
-    </r>
+    <t>公司整體生意年金額淨增長比例（（當月-上月）/上月）</t>
+  </si>
+  <si>
+    <t>-10% ~ -20% : 1
+&lt;0% ~ -9% : 2
+&gt;=0% ~ 8% : 3
+9% ~ 14% : 4
+&gt;= 15% : 5</t>
+  </si>
+  <si>
+    <t>公司整體生意淨增長年金額橫比比例（（當月-去年當月）/去年當月）</t>
+  </si>
+  <si>
+    <t>-16% ~ -30% : 1
+&lt;0% ~ -15% : 2
+&gt;=0% ~ 8% : 3
+9% ~ 14% : 4
+&gt;= 15% : 5</t>
   </si>
   <si>
     <t>生意结构比例</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="新細明體"/>
-        <charset val="134"/>
-      </rPr>
-      <t>餐饮非餐饮</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="新細明體"/>
-        <charset val="134"/>
-      </rPr>
-      <t>新生意年生意额比例
-20% - 40%           （2：8和3：7之间）
-40% - 70%         （3：7和4：6之间）
-70% - 100%       （4：6和 5：5之间）
-100% - 150%    （5：5 和 6：4之间）
-150% - 230%    （6 ： 4 和 7：3之间）
-&gt;230%                 （7：3以上）</t>
-    </r>
-  </si>
-  <si>
-    <t>20% ~ 39%     :  1
-40% ~ 69%   :  2
-70% ~ 99%   :  4
-100% ~ 149%   :  5
+    <t>餐飲非餐飲年生意額比例</t>
+  </si>
+  <si>
+    <t>20% ~ 39% : 1
+40% ~ 69% : 2
+70% ~ 99% : 4
+100% ~ 149% : 5
 150% ~ 229% : 3
-&gt;= 230% :  1</t>
-  </si>
-  <si>
-    <t>当月IA, IB年生意额比例
-20% - 40%           （2：8和3：7之间）
-40% - 70%         （3：7和4：6之间）
-70% - 100%       （4：6和 5：5之间）
-100% - 150%    （5：5 和 6：4之间）
-150% - 230%    （6 ： 4 和 7：3之间）
-&gt;230%                 （7：3以上）</t>
-  </si>
-  <si>
-    <t>5% ~ 19%     :  1
-20% ~ 39%   :  2
-40% ~ 59%   :  4
-60% ~ 79%   :  5
+&gt;= 230% : 1</t>
+  </si>
+  <si>
+    <t>IA, IB年生意額比例</t>
+  </si>
+  <si>
+    <t>5% ~ 19% : 1
+20% ~ 39% : 2
+40% ~ 59% : 4
+60% ~ 79% : 5
 80% ~ 99% : 3
-&gt;= 100% :  1</t>
+&gt;= 100% : 1</t>
   </si>
   <si>
     <t>停单情况</t>
   </si>
   <si>
-    <t>停单金额占生意比例% （当月停单总月金额/当月生意额）</t>
+    <t>停單金額占生意比例% （當月停單總月金額/當月生意額）</t>
   </si>
   <si>
     <t>0% ~ 0.8% : 5
 0.9% ~ 1.9% : 4
 2.0% ~ 2.8% : 3
 2.9% ~ 3.8% : 2
-X &gt;= 3.9% : 1</t>
+&gt;= 3.9% : 1</t>
   </si>
   <si>
     <t>外勤部</t>
@@ -757,9 +726,9 @@
         <rFont val="Arial"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">&gt;=70% : 5
+      <t>&gt;=70% : 5
 30% - 69% : 4
-10% - 29% </t>
+10% - 29%</t>
     </r>
     <r>
       <rPr>
@@ -775,14 +744,14 @@
         <rFont val="Arial"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> 3</t>
+      <t>3</t>
     </r>
   </si>
   <si>
     <t>上月技術員最低生意額技術員金額</t>
   </si>
   <si>
-    <t>仅供参考，不计算分数</t>
+    <t>僅供參考，不計算分數</t>
   </si>
   <si>
     <t>NIL</t>
@@ -805,7 +774,7 @@
     <t>技術員用料比例 滅蟲（技術員領貨金額/當月生意額）</t>
   </si>
   <si>
-    <t>&lt;5% : 5
+    <t>&lt;=5% : 5
 6% ~ 10% : 4
 11% ~ 15% : 3
 16% ~ 20% : 2
@@ -851,12 +820,11 @@
     <t>工資占生意額比例</t>
   </si>
   <si>
-    <t xml:space="preserve">20% ~ 24% : 5
+    <t>20% ~ 24% : 5
 25% ~ 34% : 4
 35% ~ 39% : 3
 40% ~ 49% : 2
-&gt;50% : 1
-</t>
+&gt;50% : 1</t>
   </si>
   <si>
     <t>收款情况</t>
@@ -883,10 +851,10 @@
   </si>
   <si>
     <t>&lt;= 30% : 5
-30% - 40% : 4
-40% - 50% :３
-50% - 60% : 2
-60% - 70% : 1</t>
+31% ~ 40% : 4
+41% ~ 50% :3
+51% ~ 60% : 2
+61% ~ 70% : 1</t>
   </si>
   <si>
     <t>营运部</t>
@@ -895,465 +863,620 @@
     <t>整体情况</t>
   </si>
   <si>
-    <t>新合同7天内安排首次比例 （成功7天首次客户数目/整体当月新IA,IB合同数目）</t>
-  </si>
-  <si>
-    <t>95% - 100% ： 5
-90% - 95% ： 4
-85% - 90% ： 3
-80% - 85% ： 2
-75% - 80% ： 1
+    <t>新合同7天內安排首次比例 （成功7天首次客戶數目/整體當月新合同數目）</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">95% ~ 100% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="新細明體"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 5
+90% ~ 94% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="新細明體"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 4
+85% ~ 89% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="新細明體"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 3
+80% ~ 84% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="新細明體"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 2
+75% ~ 79% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="新細明體"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 1
 &lt;75% : 0</t>
+    </r>
   </si>
   <si>
     <t>物流情况</t>
   </si>
   <si>
-    <t>运送皂液准确度 （实际送皂液/应送皂液）</t>
-  </si>
-  <si>
-    <t>运送销售货品准确度 （实际送销售货品/应送销售货品）</t>
-  </si>
-  <si>
-    <t>汽车支出平均 （C:M)
- C : 车辆数目，M：车的平均用油量</t>
+    <t>運送皂液準確度 （實際送皂液/應送皂液）</t>
+  </si>
+  <si>
+    <t>運送銷售貨品準確度 （實際送銷售貨品/應送銷售貨品）</t>
+  </si>
+  <si>
+    <t>汽車支出平均 （C:M)
+ C : 車輛數目，M：車的平均用油量</t>
   </si>
   <si>
     <t>仓库情况</t>
   </si>
   <si>
-    <t xml:space="preserve">每月盘点准确度
+    <t>每月盤點準確度</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">&gt;=108% : 0
+104% ~ 107% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="新細明體"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 1
+101% ~103% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="新細明體"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 3
+96% ~ 100% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="新細明體"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 5
+92% ~ 95% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="新細明體"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 3
+88% ~ 91% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="新細明體"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 1</t>
+    </r>
+  </si>
+  <si>
+    <t>新合同5天內安排安裝比例 （成功5天安裝客戶數目/整體當月新合同數目）</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">96% ~ 100% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="新細明體"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 5
+91% ~ 95% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="新細明體"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 4
+86% ~ 90% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="新細明體"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 3
+81% ~ 85% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="新細明體"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 2
+76% ~ 80% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="新細明體"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 1
+&lt;= 75% : 0</t>
+    </r>
+  </si>
+  <si>
+    <t>质检情况</t>
+  </si>
+  <si>
+    <t>當月質檢客戶數量效率 （跟標準每月客戶拜訪數目比較）
+（估計客戶每個約4000/月，當地服務客戶金額/客戶金額估值=客戶約數量，客戶約數量除6（希望每12個月拜訪客戶一次），等於標準每月客戶拜訪數目）</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&gt;=90% : 5
+70% ~ 89% :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="新細明體"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">４
 </t>
-  </si>
-  <si>
-    <t>&gt;108% : 0
-104% - 108% ： 1
-100% -104% ： 3
-96% - 100% ： 5
-92% - 96% ： 3
-88% - 92% ： 1</t>
-  </si>
-  <si>
+    </r>
     <r>
       <rPr>
         <sz val="12"/>
-        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>50% ~ 69% : 3
+30% ~ 49% : 2
+10% ~ 29% : 1
+&lt;9% : 0</t>
+    </r>
+  </si>
+  <si>
+    <t>質檢問題客戶數量比例 
+（問題客戶 ： 質檢拜訪客戶分數低於70分。問題客戶/當月質檢拜訪客戶 = 質檢問題客戶數量比例）</t>
+  </si>
+  <si>
+    <t>&gt;20% : 3
+10% ~ 19% : 5
+0% ~ 9% : 1</t>
+  </si>
+  <si>
+    <t>表現滿意技術員 (質檢拜訪表平均分數最高同事）</t>
+  </si>
+  <si>
+    <t>客诉处理</t>
+  </si>
+  <si>
+    <t>當月客訴數目比較（當月客訴數目 - 上月客訴數目 / 上月客訴數目）</t>
+  </si>
+  <si>
+    <t>&lt; -15% : 5
+-10% ~ -14% : 4
+-5% ~ -9% : 3
+-1% ~ -4% : 2
+5% ~ 0% : 1
+&gt;=6% : 0</t>
+  </si>
+  <si>
+    <t>客訴解決效率（高效客訴數目 = 2工作天內處理完成客訴數量）
+（客訴解決效率 = 高效客訴解決數目/當月客訴數目）</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">95% ~ 100% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
         <rFont val="新細明體"/>
         <charset val="134"/>
       </rPr>
-      <t>新合同5天</t>
+      <t>：</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>内</t>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 5
+90% ~ 94% </t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
-        <color indexed="8"/>
         <rFont val="新細明體"/>
         <charset val="134"/>
       </rPr>
-      <t>安排安</t>
+      <t>：</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>装</t>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 4
+85% ~ 89% </t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
-        <color indexed="8"/>
         <rFont val="新細明體"/>
         <charset val="134"/>
       </rPr>
-      <t>比例 （成功5天安</t>
+      <t>：</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>装</t>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 3
+80% ~ 84% </t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
-        <color indexed="8"/>
         <rFont val="新細明體"/>
         <charset val="134"/>
       </rPr>
-      <t>客</t>
+      <t>：</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>户数</t>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 2
+75% ~ 79% </t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
-        <color indexed="8"/>
         <rFont val="新細明體"/>
         <charset val="134"/>
       </rPr>
-      <t>目/今月新IA服</t>
+      <t>：</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>务</t>
-    </r>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 1
+&lt;74% : 0</t>
+    </r>
+  </si>
+  <si>
+    <t>主任跟投訴技術員面談比例 
+（主任/組長面談客訴技術員數目/客訴數目）</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
-        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">8% ~10% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
         <rFont val="新細明體"/>
         <charset val="134"/>
       </rPr>
-      <t>合同</t>
+      <t>：</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>数</t>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 5
+6% ~ 7% </t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
-        <color indexed="8"/>
         <rFont val="新細明體"/>
         <charset val="134"/>
       </rPr>
-      <t>目）</t>
-    </r>
-  </si>
-  <si>
-    <t>95% - 100% ： 5
-90% - 95% ： 4
-85% - 90% ： 3
-80% - 85% ： 2
-75% - 80% ： 1
-&lt;= 75% : 0</t>
-  </si>
-  <si>
-    <t>质检情况</t>
-  </si>
-  <si>
-    <t>当月质检客户数量效率 （跟标准每月客户拜访数目比较）
-（估计客户每个约￥1500/月，当地服务客户金额/客户金额估值=客户约数量，客户约数量除6（希望每12个月拜访客户一次），等于标准每月客户拜访数目）</t>
-  </si>
-  <si>
-    <t>&gt;90% : 5
-70% - 90% :４
-50% - 70% : 3
-30% - 50% : 2
-10% - 30% : 1
-&lt;= 10% : 0</t>
-  </si>
-  <si>
-    <t>质检问题客户数量比例 
-（问题客户 ： 质检拜访客户分数低于70分。问题客户/当月质检拜访客户 = 质检问题客户数量比例）</t>
-  </si>
-  <si>
-    <t>&gt;20% : 3
-10% - 20% : 5
-0% - 10% : 1</t>
-  </si>
-  <si>
-    <t>表现满意技术员 (质检拜访表平均分数最高同事）</t>
-  </si>
-  <si>
-    <t>客诉处理</t>
-  </si>
-  <si>
-    <t>当月客诉数目比较（当月客诉数目 - 上月客诉数目 / 上月客诉数目）</t>
-  </si>
-  <si>
-    <t>&lt;-30% : 5
--30% - -20% : 4
--20% - -10% : 3
--10% - 0% : 2
-0% - 5% : 1
-&gt;5% : 0</t>
-  </si>
-  <si>
-    <t>客诉解决效率（高效客诉数目 = 2工作天内处理完成客诉数量）
-（客诉解决效率 = 高效客诉解决数目/当月客诉数目）</t>
-  </si>
-  <si>
-    <t>队长跟投诉技术员面谈比例 
-（队长/组长面谈客诉技术员数目/客诉数目）</t>
-  </si>
-  <si>
-    <t>15% - 20% ： 5
-10% - 15% ： 3
-5% - 10% ： 1
-&lt;5% : 0</t>
-  </si>
-  <si>
+      <t>：</t>
+    </r>
     <r>
       <rPr>
         <sz val="12"/>
-        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 3
+4% ~ 5% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
         <rFont val="新細明體"/>
         <charset val="134"/>
       </rPr>
-      <t>高效回</t>
+      <t>：</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>访</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="新細明體"/>
-        <charset val="134"/>
-      </rPr>
-      <t>率 （高效回</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>访</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="新細明體"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> = 客</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>诉</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="新細明體"/>
-        <charset val="134"/>
-      </rPr>
-      <t>后7天</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>内电话</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="新細明體"/>
-        <charset val="134"/>
-      </rPr>
-      <t>客</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>户</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="新細明體"/>
-        <charset val="134"/>
-      </rPr>
-      <t>回</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>访数</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="新細明體"/>
-        <charset val="134"/>
-      </rPr>
-      <t>目）
-（高效回</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>访</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="新細明體"/>
-        <charset val="134"/>
-      </rPr>
-      <t>率=高效回</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>访</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="新細明體"/>
-        <charset val="134"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>今月客诉数目</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="新細明體"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 1
+&lt;3% : 0</t>
+    </r>
+  </si>
+  <si>
+    <t>高效回訪率 （高效回訪 = 客訴後7天內電話客戶回訪數目）
+（高效回訪率=高效回訪/當月解決客訴數目）</t>
+  </si>
+  <si>
+    <t>問題客戶需要主任組長跟進數目</t>
   </si>
   <si>
     <t>人事部</t>
   </si>
   <si>
-    <t>所有同事劳动合同进展 (超过一个月没有签署劳动合同同事数目（张））</t>
+    <t>所有同事勞動合同進展 (超過一個月沒有簽署勞動合同同事數目（張））</t>
   </si>
   <si>
     <t>0 : 5
-1 - 3 : 4
-3 - 5 : 3
-&gt;5 : 0</t>
+1 ~ 3 : 4
+4 ~ 5 : 3
+&gt;6 : 0</t>
   </si>
   <si>
     <t>销售人员情况</t>
   </si>
   <si>
-    <t>销售人员流失率 （工作满一个月的）（离职销售人员/当月所有销售人员）</t>
-  </si>
-  <si>
-    <t>0% - 10% : 5
-10% - 20% : 3
-20% - 30% : 1
-&gt;30% : 0</t>
-  </si>
-  <si>
-    <t>销售区域空置率（公共区域/销售划分区域）</t>
-  </si>
-  <si>
-    <t>0% - 20%     :  5
-20% - 60%   :  3
-60%  - 100% :  1</t>
+    <t>銷售人員流失率 （工作滿一個月的）（離職銷售人員/當月所有銷售人員）</t>
+  </si>
+  <si>
+    <t>0% ~ 10% : 5
+11% ~ 20% : 3
+21% ~ 30% : 1
+&gt;31% : 0</t>
+  </si>
+  <si>
+    <t>銷售區域空置率（公共區域/銷售劃分區域）</t>
+  </si>
+  <si>
+    <t>0% ~ 20%     :  5
+21% ~ 60%   :  3
+61%  ~ 100% :  1</t>
   </si>
   <si>
     <t>外勤人员情况</t>
   </si>
   <si>
-    <t>离职技术员（工作满一个月的）人数% （当月离职技术人员/整体外勤技术人员）</t>
-  </si>
-  <si>
-    <t>0% - 5% : 5
-5% - 10% : 3
-10% - 15% : 1
-&gt;15% : 0</t>
-  </si>
-  <si>
-    <t>队长数目跟标准比例 （最多每5个技术员，就要有一个队长的设置) 
-(技术员数目/6=标准队长数目， 比例 = 队长数目/标准队长数目）</t>
-  </si>
-  <si>
-    <t>&gt;100% : 5
-80% - 100% : 3
+    <t>離職技術員（工作滿一個月的）人數% （當月離職技術人員/整體外勤技術人員）</t>
+  </si>
+  <si>
+    <t>0% ~ 5% : 5
+6% ~ 10% : 3
+11% ~ 15% : 1
+&gt;16% : 0</t>
+  </si>
+  <si>
+    <t>組長數目跟標準比例 （最多每10個技術員，就要有一個組長的設置) 
+(技術員數目/10=標準組長數目， 比例 = 主管數目/標準主任長數目）</t>
+  </si>
+  <si>
+    <t>&gt;=100% : 5
+81% ~ 99% : 3
 &lt;= 80% : 1</t>
   </si>
   <si>
-    <t>组长数目跟标准比例 （最多每30个技术员，就要有一个组长的设置) 
-(技术员数目/30=标准组长数目， 比例 = 组长数目/标准数目）</t>
-  </si>
-  <si>
-    <t>新招技术员人数</t>
+    <t>主任數目跟標準比例 （最多每20個技術員，就要有一個主任的設置) 
+(技術員數目/20=標準組長數目， 比例 = 組長數目/標準數目）</t>
+  </si>
+  <si>
+    <t>&gt;=100% : 5
+81% ~ 100% : 3
+&lt;= 80% : 1</t>
+  </si>
+  <si>
+    <t>新招技術員人數</t>
   </si>
   <si>
     <t>办公室人员情况</t>
   </si>
   <si>
-    <t>离职办公室（工作满一个月的）人数% （当月离职办公室人员/整体办公室人员）</t>
+    <t>離職辦公室（工作滿一個月的）人數% （當月離職辦公室人員/整體辦公室人員）</t>
   </si>
 </sst>
 </file>
@@ -1361,14 +1484,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0.0000_ "/>
     <numFmt numFmtId="178" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="41">
+  <fonts count="40">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -1446,26 +1569,17 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="新細明體"/>
+      <charset val="136"/>
+    </font>
+    <font>
       <b/>
       <sz val="14"/>
       <color indexed="10"/>
       <name val="新細明體"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1482,22 +1596,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="9"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1515,8 +1616,59 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1533,37 +1685,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1623,6 +1744,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color indexed="52"/>
       <name val="宋体"/>
@@ -1632,18 +1761,6 @@
       <b/>
       <sz val="10"/>
       <color indexed="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -1692,13 +1809,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1710,7 +1821,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="52"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1722,19 +1839,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="47"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor indexed="27"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="11"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="30"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1746,25 +1983,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="29"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="31"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1782,31 +2013,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="11"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="36"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1818,127 +2049,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="36"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="30"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="27"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor indexed="52"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="26"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2032,17 +2149,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color indexed="62"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color indexed="62"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2062,28 +2175,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color indexed="62"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color indexed="62"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2141,6 +2243,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="52"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="22"/>
       </left>
@@ -2155,250 +2281,241 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color indexed="52"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="40" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="40" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="38" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="31" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="32" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2549,14 +2666,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="2" borderId="3" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="11" fillId="2" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="68" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -2564,8 +2681,8 @@
     <xf numFmtId="176" fontId="10" fillId="2" borderId="3" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="2" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -2576,8 +2693,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="178" fontId="11" fillId="2" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2586,12 +2706,12 @@
       <alignment vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="12" fillId="0" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2604,13 +2724,13 @@
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="3" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="11" fillId="3" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
@@ -2621,11 +2741,11 @@
     <xf numFmtId="177" fontId="0" fillId="3" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="3" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="178" fontId="12" fillId="3" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="3" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
@@ -2636,9 +2756,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2652,7 +2769,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="4" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
@@ -2670,19 +2787,16 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="11" fillId="4" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="4" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="4" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="4" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="178" fontId="12" fillId="4" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
@@ -2696,32 +2810,44 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="5" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="5" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="11" fillId="5" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="176" fontId="12" fillId="5" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="13" fillId="5" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="5" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="5" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="178" fontId="12" fillId="5" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="5" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="178" fontId="11" fillId="5" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="10" fillId="5" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="12" fillId="5" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="5" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -2729,51 +2855,54 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="178" fontId="12" fillId="0" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="6" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="11" fillId="6" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="6" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="6" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="11" fillId="6" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="6" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="6" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="6" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="6" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="6" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="6" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="12" fillId="6" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="177" fontId="3" fillId="6" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="6" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -2805,7 +2934,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="11" fillId="2" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="77">
@@ -2815,10 +2944,10 @@
     <cellStyle name="输入" xfId="3" builtinId="20"/>
     <cellStyle name="货币" xfId="4" builtinId="4"/>
     <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="差" xfId="6" builtinId="27"/>
-    <cellStyle name="40% - 輔色2" xfId="7"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="8" builtinId="39"/>
-    <cellStyle name="20% - 輔色4" xfId="9"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="20% - 輔色4" xfId="7"/>
+    <cellStyle name="差" xfId="8" builtinId="27"/>
+    <cellStyle name="40% - 輔色2" xfId="9"/>
     <cellStyle name="千位分隔" xfId="10" builtinId="3"/>
     <cellStyle name="60% - 强调文字颜色 3" xfId="11" builtinId="40"/>
     <cellStyle name="超链接" xfId="12" builtinId="8"/>
@@ -2850,26 +2979,26 @@
     <cellStyle name="40% - 强调文字颜色 1" xfId="38" builtinId="31"/>
     <cellStyle name="20% - 輔色2" xfId="39"/>
     <cellStyle name="20% - 强调文字颜色 2" xfId="40" builtinId="34"/>
-    <cellStyle name="40% - 輔色1" xfId="41"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="42" builtinId="35"/>
-    <cellStyle name="20% - 輔色3" xfId="43"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="41" builtinId="35"/>
+    <cellStyle name="20% - 輔色3" xfId="42"/>
+    <cellStyle name="40% - 輔色1" xfId="43"/>
     <cellStyle name="强调文字颜色 3" xfId="44" builtinId="37"/>
     <cellStyle name="强调文字颜色 4" xfId="45" builtinId="41"/>
     <cellStyle name="20% - 强调文字颜色 4" xfId="46" builtinId="42"/>
-    <cellStyle name="60% - 輔色1" xfId="47"/>
-    <cellStyle name="40% - 輔色3" xfId="48"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="49" builtinId="43"/>
-    <cellStyle name="20% - 輔色5" xfId="50"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="47" builtinId="43"/>
+    <cellStyle name="20% - 輔色5" xfId="48"/>
+    <cellStyle name="40% - 輔色3" xfId="49"/>
+    <cellStyle name="60% - 輔色1" xfId="50"/>
     <cellStyle name="强调文字颜色 5" xfId="51" builtinId="45"/>
-    <cellStyle name="60% - 輔色2" xfId="52"/>
-    <cellStyle name="40% - 輔色4" xfId="53"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="54" builtinId="47"/>
-    <cellStyle name="合計" xfId="55"/>
-    <cellStyle name="20% - 輔色6" xfId="56"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="52" builtinId="47"/>
+    <cellStyle name="合計" xfId="53"/>
+    <cellStyle name="20% - 輔色6" xfId="54"/>
+    <cellStyle name="40% - 輔色4" xfId="55"/>
+    <cellStyle name="60% - 輔色2" xfId="56"/>
     <cellStyle name="60% - 强调文字颜色 5" xfId="57" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="58" builtinId="49"/>
-    <cellStyle name="60% - 輔色3" xfId="59"/>
-    <cellStyle name="40% - 輔色5" xfId="60"/>
+    <cellStyle name="40% - 輔色5" xfId="59"/>
+    <cellStyle name="60% - 輔色3" xfId="60"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="61" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="62" builtinId="52"/>
     <cellStyle name="20% - 輔色1" xfId="63"/>
@@ -3234,8 +3363,8 @@
   <sheetPr/>
   <dimension ref="A1:F246"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
-      <selection activeCell="D98" sqref="D98"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="J76" sqref="J76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
@@ -4036,7 +4165,7 @@
         <f>(B8-B7)/ABS(IF(B7=0,1,B7))</f>
         <v>0</v>
       </c>
-      <c r="D76" s="135" t="s">
+      <c r="D76" s="139" t="s">
         <v>85</v>
       </c>
       <c r="E76" s="53">
@@ -4054,8 +4183,8 @@
         <f>(B8-B9)/ABS(IF(B9=0,1,B9))</f>
         <v>0</v>
       </c>
-      <c r="D77" s="135" t="s">
-        <v>85</v>
+      <c r="D77" s="139" t="s">
+        <v>87</v>
       </c>
       <c r="E77" s="53">
         <f>IF(C77&gt;0.2,5,IF(C77&gt;0.1,4,IF(C77&gt;0,3,IF(C77&gt;-0.1,2,IF(C77&gt;-0.2,1,0)))))</f>
@@ -4066,14 +4195,14 @@
     <row r="78" s="2" customFormat="1" ht="75" spans="1:6">
       <c r="A78" s="49"/>
       <c r="B78" s="55" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C78" s="56">
         <f>(B32-B31)/ABS(IF(B31=0,1,B31))</f>
         <v>0</v>
       </c>
-      <c r="D78" s="135" t="s">
-        <v>88</v>
+      <c r="D78" s="139" t="s">
+        <v>89</v>
       </c>
       <c r="E78" s="53">
         <f>IF(C78&gt;0.4,5,IF(C78&gt;0.2,4,IF(C78&gt;0,3,IF(C78&gt;-0.2,2,IF(C78&gt;-0.4,1,0)))))</f>
@@ -4084,14 +4213,14 @@
     <row r="79" s="2" customFormat="1" ht="75" spans="1:6">
       <c r="A79" s="49"/>
       <c r="B79" s="55" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C79" s="56">
         <f>(B32-B35)/ABS(IF(B35=0,1,B35))</f>
         <v>0</v>
       </c>
-      <c r="D79" s="135" t="s">
-        <v>88</v>
+      <c r="D79" s="139" t="s">
+        <v>91</v>
       </c>
       <c r="E79" s="53">
         <f>IF(C79&gt;0.4,5,IF(C79&gt;0.2,4,IF(C79&gt;0,3,IF(C79&gt;-0.2,2,IF(C79&gt;-0.4,1,0)))))</f>
@@ -4102,14 +4231,14 @@
     <row r="80" s="2" customFormat="1" ht="75" spans="1:6">
       <c r="A80" s="49"/>
       <c r="B80" s="55" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C80" s="56">
         <f>(B11-B10)/ABS(IF(B10=0,1,B10))</f>
         <v>0</v>
       </c>
-      <c r="D80" s="135" t="s">
-        <v>91</v>
+      <c r="D80" s="139" t="s">
+        <v>93</v>
       </c>
       <c r="E80" s="53">
         <f>IF(C80&gt;3,5,IF(C80&gt;1,4,IF(C80&gt;0,3,IF(C80&gt;-1,2,IF(C80&gt;-2,1,0)))))</f>
@@ -4120,14 +4249,14 @@
     <row r="81" s="2" customFormat="1" ht="75" spans="1:6">
       <c r="A81" s="49"/>
       <c r="B81" s="55" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C81" s="56">
         <f>(B11-B12)/ABS(IF(B12=0,1,B12))</f>
         <v>0</v>
       </c>
-      <c r="D81" s="135" t="s">
-        <v>91</v>
+      <c r="D81" s="139" t="s">
+        <v>93</v>
       </c>
       <c r="E81" s="53">
         <f>IF(C81&gt;3,5,IF(C81&gt;1,4,IF(C81&gt;0,3,IF(C81&gt;-1,2,IF(C81&gt;-2,1,0)))))</f>
@@ -4138,14 +4267,14 @@
     <row r="82" s="2" customFormat="1" ht="75" spans="1:6">
       <c r="A82" s="49"/>
       <c r="B82" s="55" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C82" s="56">
         <f>(B16-B15)/ABS(IF(B15=0,1,B15))</f>
         <v>0</v>
       </c>
-      <c r="D82" s="135" t="s">
-        <v>94</v>
+      <c r="D82" s="139" t="s">
+        <v>96</v>
       </c>
       <c r="E82" s="53">
         <f>IF(C82&gt;0.2,5,IF(C82&gt;0.1,4,IF(C82&gt;0,3,IF(C82&gt;-0.1,2,IF(C82&gt;-0.2,1,0)))))</f>
@@ -4156,14 +4285,14 @@
     <row r="83" s="2" customFormat="1" ht="75" spans="1:6">
       <c r="A83" s="49"/>
       <c r="B83" s="55" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C83" s="56">
         <f>(B16-B17)/ABS(IF(B17=0,1,B17))</f>
         <v>0</v>
       </c>
-      <c r="D83" s="135" t="s">
-        <v>96</v>
+      <c r="D83" s="139" t="s">
+        <v>98</v>
       </c>
       <c r="E83" s="53">
         <f>IF(C83&gt;0.2,5,IF(C83&gt;0.1,4,IF(C83&gt;0,3,IF(C83&gt;-0.1,2,IF(C83&gt;-0.2,1,0)))))</f>
@@ -4171,19 +4300,19 @@
       </c>
       <c r="F83" s="57"/>
     </row>
-    <row r="84" s="2" customFormat="1" ht="115.5" spans="1:6">
+    <row r="84" s="2" customFormat="1" ht="90" spans="1:6">
       <c r="A84" s="58" t="s">
-        <v>97</v>
-      </c>
-      <c r="B84" s="58" t="s">
-        <v>98</v>
+        <v>99</v>
+      </c>
+      <c r="B84" s="59" t="s">
+        <v>100</v>
       </c>
       <c r="C84" s="56">
         <f>(B13/IF(B14=0,1,B14))</f>
         <v>0</v>
       </c>
-      <c r="D84" s="59" t="s">
-        <v>99</v>
+      <c r="D84" s="60" t="s">
+        <v>101</v>
       </c>
       <c r="E84" s="53">
         <f>IF(C84&gt;2.3,1,IF(C84&gt;1.5,3,IF(C84&gt;=1,5,IF(C84&gt;0.7,4,IF(C84&gt;0.4,2,IF(C84&gt;0.2,1,0))))))</f>
@@ -4191,17 +4320,17 @@
       </c>
       <c r="F84" s="57"/>
     </row>
-    <row r="85" s="2" customFormat="1" ht="115.5" spans="1:6">
+    <row r="85" s="2" customFormat="1" ht="90" spans="1:6">
       <c r="A85" s="58"/>
-      <c r="B85" s="58" t="s">
-        <v>100</v>
+      <c r="B85" s="59" t="s">
+        <v>102</v>
       </c>
       <c r="C85" s="56">
         <f>(B5/IF(B6=0,1,B6))</f>
         <v>0</v>
       </c>
-      <c r="D85" s="59" t="s">
-        <v>101</v>
+      <c r="D85" s="60" t="s">
+        <v>103</v>
       </c>
       <c r="E85" s="53">
         <f>IF(C85&gt;2.3,1,IF(C85&gt;1.5,3,IF(C85&gt;=1,5,IF(C85&gt;0.7,4,IF(C85&gt;0.4,2,IF(C85&gt;0.2,1,0))))))</f>
@@ -4210,18 +4339,18 @@
       <c r="F85" s="57"/>
     </row>
     <row r="86" s="2" customFormat="1" ht="75" spans="1:6">
-      <c r="A86" s="60" t="s">
-        <v>102</v>
+      <c r="A86" s="61" t="s">
+        <v>104</v>
       </c>
       <c r="B86" s="55" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C86" s="56">
         <f>(B19/IF(B4=0,1,B4))</f>
         <v>0</v>
       </c>
-      <c r="D86" s="59" t="s">
-        <v>104</v>
+      <c r="D86" s="60" t="s">
+        <v>106</v>
       </c>
       <c r="E86" s="53">
         <f>IF(C86&gt;0.032,1,IF(C86&gt;0.024,2,IF(C86&gt;0.016,3,IF(C86&gt;0.008,4,IF(C86&gt;0,5,5)))))</f>
@@ -4230,173 +4359,173 @@
       <c r="F86" s="57"/>
     </row>
     <row r="87" s="2" customFormat="1" ht="24.95" customHeight="1" spans="1:6">
-      <c r="A87" s="61" t="s">
-        <v>105</v>
-      </c>
-      <c r="B87" s="62"/>
-      <c r="C87" s="63"/>
-      <c r="D87" s="64"/>
-      <c r="E87" s="65"/>
-      <c r="F87" s="66">
+      <c r="A87" s="62" t="s">
+        <v>107</v>
+      </c>
+      <c r="B87" s="63"/>
+      <c r="C87" s="64"/>
+      <c r="D87" s="65"/>
+      <c r="E87" s="66"/>
+      <c r="F87" s="67">
         <f>SUM(E88:E94)/25*20</f>
         <v>8</v>
       </c>
     </row>
     <row r="88" s="2" customFormat="1" ht="90" spans="1:6">
-      <c r="A88" s="67" t="s">
-        <v>106</v>
-      </c>
-      <c r="B88" s="68" t="s">
-        <v>107</v>
-      </c>
-      <c r="C88" s="69">
+      <c r="A88" s="68" t="s">
+        <v>108</v>
+      </c>
+      <c r="B88" s="69" t="s">
+        <v>109</v>
+      </c>
+      <c r="C88" s="70">
         <f>(B20-30000)/30000</f>
         <v>-1</v>
       </c>
-      <c r="D88" s="70" t="s">
-        <v>108</v>
-      </c>
-      <c r="E88" s="71">
+      <c r="D88" s="71" t="s">
+        <v>110</v>
+      </c>
+      <c r="E88" s="72">
         <f>IF(C88&gt;0.2,5,IF(C88&gt;0,4,IF(C88&gt;-0.1,3,IF(C88&gt;-0.2,2,IF(C88&gt;-0.3,1,0)))))</f>
         <v>0</v>
       </c>
-      <c r="F88" s="72"/>
+      <c r="F88" s="73"/>
     </row>
     <row r="89" s="2" customFormat="1" ht="46.5" spans="1:6">
-      <c r="A89" s="67"/>
-      <c r="B89" s="68" t="s">
-        <v>109</v>
-      </c>
-      <c r="C89" s="69">
+      <c r="A89" s="68"/>
+      <c r="B89" s="69" t="s">
+        <v>111</v>
+      </c>
+      <c r="C89" s="70">
         <f>(B21-30000)/30000</f>
         <v>-1</v>
       </c>
-      <c r="D89" s="70" t="s">
-        <v>110</v>
-      </c>
-      <c r="E89" s="71">
+      <c r="D89" s="71" t="s">
+        <v>112</v>
+      </c>
+      <c r="E89" s="72">
         <f>IF(C89&gt;0.7,5,IF(C89&gt;0.3,4,IF(C89&gt;0.1,3,)))</f>
         <v>0</v>
       </c>
-      <c r="F89" s="72"/>
+      <c r="F89" s="73"/>
     </row>
     <row r="90" s="2" customFormat="1" ht="19.5" spans="1:6">
-      <c r="A90" s="67"/>
-      <c r="B90" s="68" t="s">
-        <v>111</v>
-      </c>
-      <c r="C90" s="73">
+      <c r="A90" s="68"/>
+      <c r="B90" s="69" t="s">
+        <v>113</v>
+      </c>
+      <c r="C90" s="74">
         <f>B21</f>
         <v>0</v>
       </c>
-      <c r="D90" s="74" t="s">
-        <v>112</v>
-      </c>
-      <c r="E90" s="71" t="s">
-        <v>113</v>
-      </c>
-      <c r="F90" s="72"/>
+      <c r="D90" s="75" t="s">
+        <v>114</v>
+      </c>
+      <c r="E90" s="72" t="s">
+        <v>115</v>
+      </c>
+      <c r="F90" s="73"/>
     </row>
     <row r="91" s="2" customFormat="1" ht="90" spans="1:6">
-      <c r="A91" s="67" t="s">
-        <v>114</v>
-      </c>
-      <c r="B91" s="68" t="s">
-        <v>115</v>
-      </c>
-      <c r="C91" s="69">
+      <c r="A91" s="68" t="s">
+        <v>116</v>
+      </c>
+      <c r="B91" s="69" t="s">
+        <v>117</v>
+      </c>
+      <c r="C91" s="70">
         <f>B25/IF(B5=0,1,B5)</f>
         <v>0</v>
       </c>
-      <c r="D91" s="70" t="s">
-        <v>116</v>
-      </c>
-      <c r="E91" s="71">
+      <c r="D91" s="71" t="s">
+        <v>118</v>
+      </c>
+      <c r="E91" s="72">
         <f>IF(C91&gt;0.3,0,IF(C91&gt;0.25,1,IF(C91&gt;0.2,2,IF(C91&gt;0.15,3,IF(C91&gt;0.1,4,5)))))</f>
         <v>5</v>
       </c>
-      <c r="F91" s="72"/>
+      <c r="F91" s="73"/>
     </row>
     <row r="92" s="2" customFormat="1" ht="90" spans="1:6">
-      <c r="A92" s="67"/>
-      <c r="B92" s="68" t="s">
-        <v>117</v>
-      </c>
-      <c r="C92" s="69">
+      <c r="A92" s="68"/>
+      <c r="B92" s="69" t="s">
+        <v>119</v>
+      </c>
+      <c r="C92" s="70">
         <f>B26/IF(B6=0,1,B6)</f>
         <v>0</v>
       </c>
-      <c r="D92" s="70" t="s">
-        <v>118</v>
-      </c>
-      <c r="E92" s="71">
+      <c r="D92" s="71" t="s">
+        <v>120</v>
+      </c>
+      <c r="E92" s="72">
         <f>IF(C92&gt;0.25,0,IF(C92&gt;0.2,1,IF(C92&gt;0.15,2,IF(C92&gt;0.1,3,IF(C92&gt;0.05,4,5)))))</f>
         <v>5</v>
       </c>
-      <c r="F92" s="72"/>
+      <c r="F92" s="73"/>
     </row>
     <row r="93" s="2" customFormat="1" ht="60" spans="1:6">
-      <c r="A93" s="67" t="s">
-        <v>119</v>
-      </c>
-      <c r="B93" s="75" t="s">
-        <v>120</v>
-      </c>
-      <c r="C93" s="76">
+      <c r="A93" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="B93" s="76" t="s">
+        <v>122</v>
+      </c>
+      <c r="C93" s="77">
         <f>B37/IF(B66=0,1,B66)</f>
         <v>0</v>
       </c>
-      <c r="D93" s="77" t="s">
-        <v>121</v>
-      </c>
-      <c r="E93" s="71">
+      <c r="D93" s="78" t="s">
+        <v>123</v>
+      </c>
+      <c r="E93" s="72">
         <f>IF(C93&gt;0.2,5,IF(C93&gt;0.1,3,IF(C93&gt;0.05,1,0)))</f>
         <v>0</v>
       </c>
-      <c r="F93" s="72"/>
+      <c r="F93" s="73"/>
     </row>
     <row r="94" s="2" customFormat="1" ht="33" spans="1:6">
-      <c r="A94" s="67"/>
-      <c r="B94" s="75" t="s">
-        <v>122</v>
-      </c>
-      <c r="C94" s="78" t="s">
-        <v>123</v>
-      </c>
-      <c r="D94" s="74" t="s">
-        <v>112</v>
-      </c>
-      <c r="E94" s="71" t="s">
-        <v>113</v>
-      </c>
-      <c r="F94" s="72"/>
+      <c r="A94" s="68"/>
+      <c r="B94" s="76" t="s">
+        <v>124</v>
+      </c>
+      <c r="C94" s="79" t="s">
+        <v>125</v>
+      </c>
+      <c r="D94" s="75" t="s">
+        <v>114</v>
+      </c>
+      <c r="E94" s="72" t="s">
+        <v>115</v>
+      </c>
+      <c r="F94" s="73"/>
     </row>
     <row r="95" s="2" customFormat="1" ht="24.95" customHeight="1" spans="1:6">
-      <c r="A95" s="61" t="s">
-        <v>124</v>
-      </c>
-      <c r="B95" s="79"/>
+      <c r="A95" s="62" t="s">
+        <v>126</v>
+      </c>
+      <c r="B95" s="63"/>
       <c r="C95" s="80"/>
       <c r="D95" s="81"/>
       <c r="E95" s="82"/>
-      <c r="F95" s="66">
+      <c r="F95" s="67">
         <f>SUM(E96:E100)/20*25</f>
         <v>6.25</v>
       </c>
     </row>
     <row r="96" s="2" customFormat="1" ht="90" spans="1:6">
       <c r="A96" s="83" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B96" s="84" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C96" s="85">
         <f>(B5+B6-B25-B26-B27)/IF((B5+B6)=0,1,B5+B6)</f>
         <v>0</v>
       </c>
       <c r="D96" s="86" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E96" s="87">
         <f>IF(C96&gt;0.55,5,IF(C96&gt;0.5,4,IF(C96&gt;0.45,3,IF(C96&gt;0.4,2,IF(C96&gt;0.35,1,0)))))</f>
@@ -4404,17 +4533,17 @@
       </c>
       <c r="F96" s="88"/>
     </row>
-    <row r="97" s="2" customFormat="1" ht="90" spans="1:6">
+    <row r="97" s="2" customFormat="1" ht="75" spans="1:6">
       <c r="A97" s="83"/>
       <c r="B97" s="84" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C97" s="85">
         <f>B28/IF(B4=0,1,B4)</f>
         <v>0</v>
       </c>
       <c r="D97" s="86" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E97" s="87">
         <f>IF(C97&gt;0.35,1,IF(C97&gt;0.3,2,IF(C97&gt;0.28,3,IF(C97&gt;0.25,3,IF(C97&gt;0.2,5,0)))))</f>
@@ -4424,17 +4553,17 @@
     </row>
     <row r="98" s="2" customFormat="1" ht="75" spans="1:6">
       <c r="A98" s="83" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B98" s="84" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C98" s="89">
         <f>B23/IF(B3=0,1,B3)</f>
         <v>0</v>
       </c>
       <c r="D98" s="90" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E98" s="87">
         <f>IF(C98&gt;1,5,IF(C98&gt;0.95,4,IF(C98&gt;0.9,3,IF(C98&gt;0.85,2,IF(C98&gt;0.8,1,0)))))</f>
@@ -4445,33 +4574,33 @@
     <row r="99" s="2" customFormat="1" ht="19.5" spans="1:6">
       <c r="A99" s="83"/>
       <c r="B99" s="91" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C99" s="92">
         <f>B29</f>
         <v>0</v>
       </c>
       <c r="D99" s="93" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E99" s="87" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F99" s="88"/>
     </row>
-    <row r="100" s="2" customFormat="1" ht="82.5" spans="1:6">
+    <row r="100" s="2" customFormat="1" ht="75" spans="1:6">
       <c r="A100" s="83" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B100" s="91" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C100" s="85">
         <f>B22/IF(B4=0,1,B4)</f>
         <v>0</v>
       </c>
-      <c r="D100" s="94" t="s">
-        <v>136</v>
+      <c r="D100" s="86" t="s">
+        <v>138</v>
       </c>
       <c r="E100" s="87">
         <f>IF(C100&gt;0.7,0,IF(C100&gt;0.6,1,IF(C100&gt;0.5,2,IF(C100&gt;0.4,3,IF(C100&gt;0.3,4,5)))))</f>
@@ -4480,31 +4609,31 @@
       <c r="F100" s="88"/>
     </row>
     <row r="101" s="2" customFormat="1" ht="24.95" customHeight="1" spans="1:6">
-      <c r="A101" s="61" t="s">
-        <v>137</v>
-      </c>
-      <c r="B101" s="62"/>
-      <c r="C101" s="95"/>
-      <c r="D101" s="96"/>
-      <c r="E101" s="97"/>
-      <c r="F101" s="66">
+      <c r="A101" s="62" t="s">
+        <v>139</v>
+      </c>
+      <c r="B101" s="63"/>
+      <c r="C101" s="94"/>
+      <c r="D101" s="95"/>
+      <c r="E101" s="96"/>
+      <c r="F101" s="67">
         <f>SUM(E102:E115)/55*15</f>
         <v>0.818181818181818</v>
       </c>
     </row>
-    <row r="102" s="3" customFormat="1" ht="99" spans="1:6">
-      <c r="A102" s="98" t="s">
-        <v>138</v>
+    <row r="102" s="3" customFormat="1" ht="97.5" spans="1:6">
+      <c r="A102" s="97" t="s">
+        <v>140</v>
       </c>
       <c r="B102" s="98" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C102" s="99">
         <f>B52/IF(B32=0,1,B32)</f>
         <v>0</v>
       </c>
       <c r="D102" s="100" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E102" s="101">
         <f>IF(C102&gt;0.95,5,IF(C102&gt;0.9,4,IF(C102&gt;0.85,3,IF(C102&gt;0.8,2,IF(C102&gt;=0.75,1,0)))))</f>
@@ -4512,19 +4641,19 @@
       </c>
       <c r="F102" s="102"/>
     </row>
-    <row r="103" s="3" customFormat="1" ht="99" spans="1:6">
-      <c r="A103" s="98" t="s">
-        <v>141</v>
+    <row r="103" s="3" customFormat="1" ht="97.5" spans="1:6">
+      <c r="A103" s="97" t="s">
+        <v>143</v>
       </c>
       <c r="B103" s="98" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C103" s="99">
         <f>B57/IF(B56=0,1,B56)</f>
         <v>0</v>
       </c>
       <c r="D103" s="100" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E103" s="101">
         <f>IF(C103&gt;0.95,5,IF(C103&gt;0.9,4,IF(C103&gt;0.85,3,IF(C103&gt;0.8,2,IF(C103&gt;=0.75,1,0)))))</f>
@@ -4532,17 +4661,17 @@
       </c>
       <c r="F103" s="102"/>
     </row>
-    <row r="104" s="3" customFormat="1" ht="99" spans="1:6">
-      <c r="A104" s="98"/>
+    <row r="104" s="3" customFormat="1" ht="97.5" spans="1:6">
+      <c r="A104" s="97"/>
       <c r="B104" s="98" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C104" s="99">
         <f>B59/IF(B58=0,1,B58)</f>
         <v>0</v>
       </c>
       <c r="D104" s="100" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E104" s="101">
         <f>IF(C104&gt;0.95,5,IF(C104&gt;0.9,4,IF(C104&gt;0.85,3,IF(C104&gt;0.8,2,IF(C104&gt;=0.75,1,0)))))</f>
@@ -4551,34 +4680,34 @@
       <c r="F104" s="102"/>
     </row>
     <row r="105" s="3" customFormat="1" ht="33" spans="1:6">
-      <c r="A105" s="98"/>
+      <c r="A105" s="97"/>
       <c r="B105" s="103" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C105" s="104" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D105" s="105" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E105" s="101" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F105" s="102"/>
     </row>
-    <row r="106" s="3" customFormat="1" ht="99" spans="1:6">
-      <c r="A106" s="98" t="s">
-        <v>145</v>
+    <row r="106" s="3" customFormat="1" ht="97.5" spans="1:6">
+      <c r="A106" s="97" t="s">
+        <v>147</v>
       </c>
       <c r="B106" s="98" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C106" s="106">
         <f>B60/100</f>
         <v>0</v>
       </c>
-      <c r="D106" s="105" t="s">
-        <v>147</v>
+      <c r="D106" s="107" t="s">
+        <v>149</v>
       </c>
       <c r="E106" s="101">
         <f>IF(C106&gt;1.08,0,IF(C106&gt;1.04,1,IF(C106&gt;1,3,IF(C106&gt;0.96,5,IF(C106&gt;0.92,3,IF(C106&gt;0.88,1,0))))))</f>
@@ -4586,17 +4715,17 @@
       </c>
       <c r="F106" s="102"/>
     </row>
-    <row r="107" s="3" customFormat="1" ht="99" spans="1:6">
-      <c r="A107" s="98"/>
+    <row r="107" s="3" customFormat="1" ht="97.5" spans="1:6">
+      <c r="A107" s="97"/>
       <c r="B107" s="98" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C107" s="106">
         <f>B51/IF(B33=0,1,B33)</f>
         <v>0</v>
       </c>
       <c r="D107" s="100" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E107" s="101">
         <f>IF(C107&gt;0.95,5,IF(C107&gt;0.9,4,IF(C107&gt;0.85,3,IF(C107&gt;0.8,2,IF(C107&gt;=0.75,1,0)))))</f>
@@ -4605,1109 +4734,1109 @@
       <c r="F107" s="102"/>
     </row>
     <row r="108" s="2" customFormat="1" ht="99" spans="1:6">
-      <c r="A108" s="98" t="s">
-        <v>150</v>
+      <c r="A108" s="97" t="s">
+        <v>152</v>
       </c>
       <c r="B108" s="98" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C108" s="99">
         <f>B48/(IF(B18=0,1,B18)/(1500*12))</f>
         <v>0</v>
       </c>
       <c r="D108" s="100" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E108" s="101">
         <f>IF(C108&gt;0.9,5,IF(C108&gt;0.7,4,IF(C108&gt;0.5,3,IF(C108&gt;0.3,2,IF(C108&gt;0.1,1,0)))))</f>
         <v>0</v>
       </c>
-      <c r="F108" s="107"/>
+      <c r="F108" s="108"/>
     </row>
     <row r="109" s="2" customFormat="1" ht="66" spans="1:6">
-      <c r="A109" s="98"/>
+      <c r="A109" s="97"/>
       <c r="B109" s="98" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C109" s="99">
         <f>B49/IF(B48=0,1,B48)</f>
         <v>0</v>
       </c>
       <c r="D109" s="100" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E109" s="101">
         <f>IF(C109&gt;0.2,3,IF(C109&gt;0.1,5,IF(C109&gt;=0,1,0)))</f>
         <v>1</v>
       </c>
-      <c r="F109" s="107"/>
+      <c r="F109" s="108"/>
     </row>
     <row r="110" s="2" customFormat="1" ht="33" spans="1:6">
-      <c r="A110" s="98"/>
-      <c r="B110" s="98" t="s">
-        <v>155</v>
+      <c r="A110" s="97"/>
+      <c r="B110" s="103" t="s">
+        <v>157</v>
       </c>
       <c r="C110" s="99">
         <f>B50</f>
         <v>0</v>
       </c>
-      <c r="D110" s="100" t="s">
-        <v>112</v>
+      <c r="D110" s="109" t="s">
+        <v>114</v>
       </c>
       <c r="E110" s="101" t="s">
-        <v>113</v>
-      </c>
-      <c r="F110" s="107"/>
-    </row>
-    <row r="111" s="2" customFormat="1" ht="99" spans="1:6">
-      <c r="A111" s="98" t="s">
-        <v>156</v>
+        <v>115</v>
+      </c>
+      <c r="F110" s="108"/>
+    </row>
+    <row r="111" s="2" customFormat="1" ht="90" spans="1:6">
+      <c r="A111" s="97" t="s">
+        <v>158</v>
       </c>
       <c r="B111" s="98" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C111" s="99">
         <f>(B42-B41)/ABS(IF(B41=0,1,B41))</f>
         <v>0</v>
       </c>
       <c r="D111" s="100" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E111" s="101">
         <f>IF(C111&gt;0.05,0,IF(C111&gt;0,1,IF(C111&gt;-0.1,2,IF(C111&gt;-0.2,3,IF(C111&gt;-0.3,4,5)))))</f>
         <v>2</v>
       </c>
-      <c r="F111" s="107"/>
-    </row>
-    <row r="112" s="2" customFormat="1" ht="99" spans="1:6">
-      <c r="A112" s="98"/>
+      <c r="F111" s="108"/>
+    </row>
+    <row r="112" s="2" customFormat="1" ht="97.5" spans="1:6">
+      <c r="A112" s="97"/>
       <c r="B112" s="98" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C112" s="99">
         <f>B44/IF(B42=0,1,B42)</f>
         <v>0</v>
       </c>
       <c r="D112" s="100" t="s">
-        <v>140</v>
+        <v>162</v>
       </c>
       <c r="E112" s="101">
         <f>IF(C112&gt;0.95,5,IF(C112&gt;0.9,4,IF(C112&gt;0.85,3,IF(C112&gt;0.8,2,IF(C112&gt;=0.75,1,0)))))</f>
         <v>0</v>
       </c>
-      <c r="F112" s="107"/>
-    </row>
-    <row r="113" s="2" customFormat="1" ht="66" spans="1:6">
-      <c r="A113" s="98"/>
-      <c r="B113" s="103" t="s">
-        <v>160</v>
-      </c>
-      <c r="C113" s="108">
+      <c r="F112" s="108"/>
+    </row>
+    <row r="113" s="2" customFormat="1" ht="64.5" spans="1:6">
+      <c r="A113" s="97"/>
+      <c r="B113" s="110" t="s">
+        <v>163</v>
+      </c>
+      <c r="C113" s="111">
         <f>B46/IF(B42=0,1,B42)</f>
         <v>0</v>
       </c>
       <c r="D113" s="100" t="s">
-        <v>161</v>
-      </c>
-      <c r="E113" s="109">
+        <v>164</v>
+      </c>
+      <c r="E113" s="112">
         <f>IF(C113&gt;0.15,5,IF(C113&gt;0.1,3,IF(C113&gt;0.05,1,0)))</f>
         <v>0</v>
       </c>
-      <c r="F113" s="107"/>
-    </row>
-    <row r="114" s="2" customFormat="1" ht="99" spans="1:6">
-      <c r="A114" s="98"/>
+      <c r="F113" s="108"/>
+    </row>
+    <row r="114" s="2" customFormat="1" ht="97.5" spans="1:6">
+      <c r="A114" s="97"/>
       <c r="B114" s="98" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C114" s="99">
         <f>B45/IF(B42=0,1,B42)</f>
         <v>0</v>
       </c>
       <c r="D114" s="100" t="s">
-        <v>140</v>
+        <v>162</v>
       </c>
       <c r="E114" s="101">
         <f>IF(C114&gt;0.95,5,IF(C114&gt;0.9,4,IF(C114&gt;0.85,3,IF(C114&gt;0.8,2,IF(C114&gt;=0.75,1,0)))))</f>
         <v>0</v>
       </c>
-      <c r="F114" s="107"/>
+      <c r="F114" s="108"/>
     </row>
     <row r="115" s="2" customFormat="1" ht="19.5" spans="1:6">
-      <c r="A115" s="98"/>
-      <c r="B115" s="103" t="s">
-        <v>57</v>
-      </c>
-      <c r="C115" s="108">
+      <c r="A115" s="97"/>
+      <c r="B115" s="110" t="s">
+        <v>166</v>
+      </c>
+      <c r="C115" s="111">
         <f>B47</f>
         <v>0</v>
       </c>
       <c r="D115" s="105" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E115" s="101" t="s">
-        <v>113</v>
-      </c>
-      <c r="F115" s="107"/>
+        <v>115</v>
+      </c>
+      <c r="F115" s="108"/>
     </row>
     <row r="116" s="2" customFormat="1" ht="24.95" customHeight="1" spans="1:6">
-      <c r="A116" s="61" t="s">
-        <v>163</v>
-      </c>
-      <c r="B116" s="62"/>
-      <c r="C116" s="95"/>
-      <c r="D116" s="96"/>
-      <c r="E116" s="97"/>
-      <c r="F116" s="66">
+      <c r="A116" s="62" t="s">
+        <v>167</v>
+      </c>
+      <c r="B116" s="63"/>
+      <c r="C116" s="94"/>
+      <c r="D116" s="113"/>
+      <c r="E116" s="96"/>
+      <c r="F116" s="67">
         <f>SUM(E117:E124)/35*10</f>
         <v>7.71428571428571</v>
       </c>
     </row>
-    <row r="117" s="2" customFormat="1" ht="66" spans="1:6">
-      <c r="A117" s="110" t="s">
-        <v>138</v>
-      </c>
-      <c r="B117" s="111" t="s">
-        <v>164</v>
-      </c>
-      <c r="C117" s="112">
+    <row r="117" s="2" customFormat="1" ht="60" spans="1:6">
+      <c r="A117" s="114" t="s">
+        <v>140</v>
+      </c>
+      <c r="B117" s="115" t="s">
+        <v>168</v>
+      </c>
+      <c r="C117" s="116">
         <f>B62</f>
         <v>0</v>
       </c>
-      <c r="D117" s="113" t="s">
-        <v>165</v>
-      </c>
-      <c r="E117" s="114">
+      <c r="D117" s="117" t="s">
+        <v>169</v>
+      </c>
+      <c r="E117" s="118">
         <f>IF(C117&gt;5,0,IF(C117&gt;3,3,IF(C117&gt;1,4,5)))</f>
         <v>5</v>
       </c>
-      <c r="F117" s="115"/>
-    </row>
-    <row r="118" s="2" customFormat="1" ht="66" spans="1:6">
-      <c r="A118" s="116" t="s">
-        <v>166</v>
-      </c>
-      <c r="B118" s="111" t="s">
-        <v>167</v>
-      </c>
-      <c r="C118" s="117">
+      <c r="F117" s="119"/>
+    </row>
+    <row r="118" s="2" customFormat="1" ht="60" spans="1:6">
+      <c r="A118" s="120" t="s">
+        <v>170</v>
+      </c>
+      <c r="B118" s="115" t="s">
+        <v>171</v>
+      </c>
+      <c r="C118" s="121">
         <f>B63/IF(B69=0,1,B69)</f>
         <v>0</v>
       </c>
-      <c r="D118" s="118" t="s">
-        <v>168</v>
-      </c>
-      <c r="E118" s="114">
+      <c r="D118" s="122" t="s">
+        <v>172</v>
+      </c>
+      <c r="E118" s="118">
         <f>IF(C118&gt;0.3,0,IF(C118&gt;0.2,1,IF(C118&gt;0.1,3,5)))</f>
         <v>5</v>
       </c>
-      <c r="F118" s="115"/>
-    </row>
-    <row r="119" s="2" customFormat="1" ht="49.5" spans="1:6">
-      <c r="A119" s="116"/>
-      <c r="B119" s="111" t="s">
-        <v>169</v>
-      </c>
-      <c r="C119" s="117">
+      <c r="F118" s="119"/>
+    </row>
+    <row r="119" s="2" customFormat="1" ht="45" spans="1:6">
+      <c r="A119" s="120"/>
+      <c r="B119" s="115" t="s">
+        <v>173</v>
+      </c>
+      <c r="C119" s="121">
         <f>B72/IF(B71=0,1,B71)</f>
         <v>0</v>
       </c>
-      <c r="D119" s="113" t="s">
-        <v>170</v>
-      </c>
-      <c r="E119" s="114">
+      <c r="D119" s="117" t="s">
+        <v>174</v>
+      </c>
+      <c r="E119" s="118">
         <f>IF(C119&gt;0.6,1,IF(C119&gt;0.2,3,5))</f>
         <v>5</v>
       </c>
-      <c r="F119" s="115"/>
-    </row>
-    <row r="120" s="2" customFormat="1" ht="66" spans="1:6">
-      <c r="A120" s="111" t="s">
-        <v>171</v>
-      </c>
-      <c r="B120" s="119" t="s">
-        <v>172</v>
-      </c>
-      <c r="C120" s="120">
+      <c r="F119" s="119"/>
+    </row>
+    <row r="120" s="2" customFormat="1" ht="60" spans="1:6">
+      <c r="A120" s="123" t="s">
+        <v>175</v>
+      </c>
+      <c r="B120" s="124" t="s">
+        <v>176</v>
+      </c>
+      <c r="C120" s="125">
         <f>B64/IF(B66=0,1,B66)</f>
         <v>0</v>
       </c>
-      <c r="D120" s="118" t="s">
-        <v>173</v>
-      </c>
-      <c r="E120" s="114">
+      <c r="D120" s="122" t="s">
+        <v>177</v>
+      </c>
+      <c r="E120" s="118">
         <f>IF(C120&gt;0.15,0,IF(C120&gt;0.1,1,IF(C120&gt;0.05,3,5)))</f>
         <v>5</v>
       </c>
-      <c r="F120" s="115"/>
+      <c r="F120" s="119"/>
     </row>
     <row r="121" s="2" customFormat="1" ht="66" spans="1:6">
-      <c r="A121" s="111"/>
-      <c r="B121" s="119" t="s">
-        <v>174</v>
-      </c>
-      <c r="C121" s="120">
+      <c r="A121" s="123"/>
+      <c r="B121" s="124" t="s">
+        <v>178</v>
+      </c>
+      <c r="C121" s="125">
         <f>B67/(IF(B66=0,1,B66)/6)</f>
         <v>0</v>
       </c>
-      <c r="D121" s="118" t="s">
-        <v>175</v>
-      </c>
-      <c r="E121" s="114">
+      <c r="D121" s="122" t="s">
+        <v>179</v>
+      </c>
+      <c r="E121" s="118">
         <f>IF(C121&gt;1,5,IF(C121&gt;0.8,3,1))</f>
         <v>1</v>
       </c>
-      <c r="F121" s="115"/>
+      <c r="F121" s="119"/>
     </row>
     <row r="122" s="2" customFormat="1" ht="66" spans="1:6">
-      <c r="A122" s="111"/>
-      <c r="B122" s="119" t="s">
-        <v>176</v>
-      </c>
-      <c r="C122" s="112">
+      <c r="A122" s="123"/>
+      <c r="B122" s="124" t="s">
+        <v>180</v>
+      </c>
+      <c r="C122" s="116">
         <f>B68/(IF(B66=0,1,B66)/30)</f>
         <v>0</v>
       </c>
-      <c r="D122" s="118" t="s">
-        <v>175</v>
-      </c>
-      <c r="E122" s="114">
+      <c r="D122" s="122" t="s">
+        <v>181</v>
+      </c>
+      <c r="E122" s="118">
         <f>IF(C122&gt;1,5,IF(C122&gt;0.8,3,1))</f>
         <v>1</v>
       </c>
-      <c r="F122" s="115"/>
+      <c r="F122" s="119"/>
     </row>
     <row r="123" s="2" customFormat="1" ht="19.5" hidden="1" spans="1:6">
-      <c r="A123" s="111"/>
-      <c r="B123" s="119" t="s">
-        <v>177</v>
-      </c>
-      <c r="C123" s="112"/>
-      <c r="D123" s="118" t="s">
-        <v>112</v>
-      </c>
-      <c r="E123" s="114" t="s">
-        <v>113</v>
-      </c>
-      <c r="F123" s="115"/>
-    </row>
-    <row r="124" s="2" customFormat="1" ht="66" spans="1:6">
-      <c r="A124" s="121" t="s">
-        <v>178</v>
-      </c>
-      <c r="B124" s="122" t="s">
-        <v>179</v>
-      </c>
-      <c r="C124" s="123">
+      <c r="A123" s="123"/>
+      <c r="B123" s="124" t="s">
+        <v>182</v>
+      </c>
+      <c r="C123" s="116"/>
+      <c r="D123" s="126" t="s">
+        <v>114</v>
+      </c>
+      <c r="E123" s="118" t="s">
+        <v>115</v>
+      </c>
+      <c r="F123" s="119"/>
+    </row>
+    <row r="124" s="2" customFormat="1" ht="60" spans="1:6">
+      <c r="A124" s="127" t="s">
+        <v>183</v>
+      </c>
+      <c r="B124" s="124" t="s">
+        <v>184</v>
+      </c>
+      <c r="C124" s="128">
         <f>B65/IF(B70=0,1,B70)</f>
         <v>0</v>
       </c>
-      <c r="D124" s="124" t="s">
-        <v>168</v>
-      </c>
-      <c r="E124" s="125">
+      <c r="D124" s="122" t="s">
+        <v>172</v>
+      </c>
+      <c r="E124" s="129">
         <f>IF(C124&gt;0.3,0,IF(C124&gt;0.2,1,IF(C124&gt;0.1,3,5)))</f>
         <v>5</v>
       </c>
-      <c r="F124" s="115"/>
+      <c r="F124" s="119"/>
     </row>
     <row r="125" s="2" customFormat="1" spans="1:6">
       <c r="A125" s="4"/>
-      <c r="B125" s="126"/>
-      <c r="C125" s="127"/>
-      <c r="D125" s="128"/>
-      <c r="E125" s="129"/>
-      <c r="F125" s="130"/>
+      <c r="B125" s="130"/>
+      <c r="C125" s="131"/>
+      <c r="D125" s="132"/>
+      <c r="E125" s="133"/>
+      <c r="F125" s="134"/>
     </row>
     <row r="126" s="2" customFormat="1" spans="1:6">
       <c r="A126" s="4"/>
-      <c r="B126" s="126"/>
-      <c r="C126" s="127"/>
-      <c r="D126" s="128"/>
-      <c r="E126" s="129"/>
-      <c r="F126" s="130"/>
+      <c r="B126" s="130"/>
+      <c r="C126" s="131"/>
+      <c r="D126" s="132"/>
+      <c r="E126" s="133"/>
+      <c r="F126" s="134"/>
     </row>
     <row r="127" s="2" customFormat="1" spans="1:6">
       <c r="A127" s="4"/>
-      <c r="B127" s="126"/>
-      <c r="C127" s="127"/>
-      <c r="D127" s="128"/>
-      <c r="E127" s="129"/>
-      <c r="F127" s="130"/>
+      <c r="B127" s="130"/>
+      <c r="C127" s="131"/>
+      <c r="D127" s="132"/>
+      <c r="E127" s="133"/>
+      <c r="F127" s="134"/>
     </row>
     <row r="128" s="2" customFormat="1" spans="1:6">
       <c r="A128" s="4"/>
-      <c r="B128" s="126"/>
-      <c r="C128" s="127"/>
-      <c r="D128" s="128"/>
-      <c r="E128" s="129"/>
-      <c r="F128" s="130"/>
+      <c r="B128" s="130"/>
+      <c r="C128" s="131"/>
+      <c r="D128" s="132"/>
+      <c r="E128" s="133"/>
+      <c r="F128" s="134"/>
     </row>
     <row r="129" s="2" customFormat="1" spans="1:6">
       <c r="A129" s="4"/>
-      <c r="B129" s="126"/>
-      <c r="C129" s="127"/>
-      <c r="D129" s="128"/>
-      <c r="E129" s="129"/>
-      <c r="F129" s="130"/>
+      <c r="B129" s="130"/>
+      <c r="C129" s="131"/>
+      <c r="D129" s="132"/>
+      <c r="E129" s="133"/>
+      <c r="F129" s="134"/>
     </row>
     <row r="130" s="2" customFormat="1" spans="1:6">
       <c r="A130" s="4"/>
-      <c r="B130" s="126"/>
-      <c r="C130" s="127"/>
-      <c r="D130" s="128"/>
-      <c r="E130" s="129"/>
-      <c r="F130" s="130"/>
+      <c r="B130" s="130"/>
+      <c r="C130" s="131"/>
+      <c r="D130" s="132"/>
+      <c r="E130" s="133"/>
+      <c r="F130" s="134"/>
     </row>
     <row r="131" s="2" customFormat="1" spans="1:6">
       <c r="A131" s="4"/>
-      <c r="B131" s="126"/>
-      <c r="C131" s="127"/>
-      <c r="D131" s="128"/>
-      <c r="E131" s="129"/>
-      <c r="F131" s="130"/>
+      <c r="B131" s="130"/>
+      <c r="C131" s="131"/>
+      <c r="D131" s="132"/>
+      <c r="E131" s="133"/>
+      <c r="F131" s="134"/>
     </row>
     <row r="132" s="2" customFormat="1" spans="1:6">
       <c r="A132" s="4"/>
-      <c r="B132" s="126"/>
-      <c r="C132" s="127"/>
-      <c r="D132" s="128"/>
-      <c r="E132" s="129"/>
-      <c r="F132" s="130"/>
+      <c r="B132" s="130"/>
+      <c r="C132" s="131"/>
+      <c r="D132" s="132"/>
+      <c r="E132" s="133"/>
+      <c r="F132" s="134"/>
     </row>
     <row r="133" s="2" customFormat="1" spans="1:6">
       <c r="A133" s="4"/>
-      <c r="B133" s="126"/>
-      <c r="C133" s="127"/>
-      <c r="D133" s="128"/>
-      <c r="E133" s="129"/>
-      <c r="F133" s="130"/>
+      <c r="B133" s="130"/>
+      <c r="C133" s="131"/>
+      <c r="D133" s="132"/>
+      <c r="E133" s="133"/>
+      <c r="F133" s="134"/>
     </row>
     <row r="134" s="2" customFormat="1" spans="1:6">
       <c r="A134" s="4"/>
-      <c r="B134" s="126"/>
-      <c r="C134" s="127"/>
-      <c r="D134" s="128"/>
-      <c r="E134" s="129"/>
-      <c r="F134" s="130"/>
+      <c r="B134" s="130"/>
+      <c r="C134" s="131"/>
+      <c r="D134" s="132"/>
+      <c r="E134" s="133"/>
+      <c r="F134" s="134"/>
     </row>
     <row r="135" s="2" customFormat="1" spans="1:6">
       <c r="A135" s="4"/>
-      <c r="B135" s="126"/>
-      <c r="C135" s="127"/>
-      <c r="D135" s="128"/>
-      <c r="E135" s="129"/>
-      <c r="F135" s="130"/>
+      <c r="B135" s="130"/>
+      <c r="C135" s="131"/>
+      <c r="D135" s="132"/>
+      <c r="E135" s="133"/>
+      <c r="F135" s="134"/>
     </row>
     <row r="136" s="2" customFormat="1" spans="1:6">
       <c r="A136" s="4"/>
-      <c r="B136" s="126"/>
-      <c r="C136" s="127"/>
-      <c r="D136" s="128"/>
-      <c r="E136" s="129"/>
-      <c r="F136" s="130"/>
+      <c r="B136" s="130"/>
+      <c r="C136" s="131"/>
+      <c r="D136" s="132"/>
+      <c r="E136" s="133"/>
+      <c r="F136" s="134"/>
     </row>
     <row r="137" s="2" customFormat="1" spans="1:6">
       <c r="A137" s="4"/>
-      <c r="B137" s="126"/>
-      <c r="C137" s="127"/>
-      <c r="D137" s="128"/>
-      <c r="E137" s="129"/>
-      <c r="F137" s="130"/>
+      <c r="B137" s="130"/>
+      <c r="C137" s="131"/>
+      <c r="D137" s="132"/>
+      <c r="E137" s="133"/>
+      <c r="F137" s="134"/>
     </row>
     <row r="138" s="2" customFormat="1" spans="1:6">
       <c r="A138" s="4"/>
-      <c r="B138" s="126"/>
-      <c r="C138" s="127"/>
-      <c r="D138" s="128"/>
-      <c r="E138" s="129"/>
-      <c r="F138" s="130"/>
+      <c r="B138" s="130"/>
+      <c r="C138" s="131"/>
+      <c r="D138" s="132"/>
+      <c r="E138" s="133"/>
+      <c r="F138" s="134"/>
     </row>
     <row r="139" s="2" customFormat="1" spans="1:6">
       <c r="A139" s="4"/>
-      <c r="B139" s="126"/>
-      <c r="C139" s="127"/>
-      <c r="D139" s="128"/>
-      <c r="E139" s="129"/>
-      <c r="F139" s="130"/>
+      <c r="B139" s="130"/>
+      <c r="C139" s="131"/>
+      <c r="D139" s="132"/>
+      <c r="E139" s="133"/>
+      <c r="F139" s="134"/>
     </row>
     <row r="140" s="2" customFormat="1" spans="1:6">
       <c r="A140" s="4"/>
-      <c r="B140" s="126"/>
-      <c r="C140" s="127"/>
-      <c r="D140" s="128"/>
-      <c r="E140" s="129"/>
-      <c r="F140" s="130"/>
+      <c r="B140" s="130"/>
+      <c r="C140" s="131"/>
+      <c r="D140" s="132"/>
+      <c r="E140" s="133"/>
+      <c r="F140" s="134"/>
     </row>
     <row r="141" s="2" customFormat="1" spans="1:6">
       <c r="A141" s="4"/>
-      <c r="B141" s="126"/>
-      <c r="C141" s="127"/>
-      <c r="D141" s="128"/>
-      <c r="E141" s="129"/>
-      <c r="F141" s="130"/>
+      <c r="B141" s="130"/>
+      <c r="C141" s="131"/>
+      <c r="D141" s="132"/>
+      <c r="E141" s="133"/>
+      <c r="F141" s="134"/>
     </row>
     <row r="142" s="2" customFormat="1" spans="1:6">
       <c r="A142" s="4"/>
-      <c r="B142" s="126"/>
-      <c r="C142" s="127"/>
-      <c r="D142" s="128"/>
-      <c r="E142" s="129"/>
-      <c r="F142" s="130"/>
+      <c r="B142" s="130"/>
+      <c r="C142" s="131"/>
+      <c r="D142" s="132"/>
+      <c r="E142" s="133"/>
+      <c r="F142" s="134"/>
     </row>
     <row r="143" s="2" customFormat="1" spans="1:6">
       <c r="A143" s="4"/>
-      <c r="B143" s="126"/>
-      <c r="C143" s="127"/>
-      <c r="D143" s="128"/>
-      <c r="E143" s="129"/>
-      <c r="F143" s="130"/>
+      <c r="B143" s="130"/>
+      <c r="C143" s="131"/>
+      <c r="D143" s="132"/>
+      <c r="E143" s="133"/>
+      <c r="F143" s="134"/>
     </row>
     <row r="144" s="2" customFormat="1" spans="1:6">
       <c r="A144" s="4"/>
-      <c r="B144" s="126"/>
-      <c r="C144" s="127"/>
-      <c r="D144" s="128"/>
-      <c r="E144" s="129"/>
-      <c r="F144" s="130"/>
+      <c r="B144" s="130"/>
+      <c r="C144" s="131"/>
+      <c r="D144" s="132"/>
+      <c r="E144" s="133"/>
+      <c r="F144" s="134"/>
     </row>
     <row r="145" s="2" customFormat="1" spans="1:6">
       <c r="A145" s="4"/>
-      <c r="B145" s="126"/>
-      <c r="C145" s="127"/>
-      <c r="D145" s="128"/>
-      <c r="E145" s="129"/>
-      <c r="F145" s="130"/>
+      <c r="B145" s="130"/>
+      <c r="C145" s="131"/>
+      <c r="D145" s="132"/>
+      <c r="E145" s="133"/>
+      <c r="F145" s="134"/>
     </row>
     <row r="146" s="2" customFormat="1" spans="1:6">
       <c r="A146" s="4"/>
-      <c r="B146" s="126"/>
-      <c r="C146" s="127"/>
-      <c r="D146" s="128"/>
-      <c r="E146" s="129"/>
-      <c r="F146" s="130"/>
+      <c r="B146" s="130"/>
+      <c r="C146" s="131"/>
+      <c r="D146" s="132"/>
+      <c r="E146" s="133"/>
+      <c r="F146" s="134"/>
     </row>
     <row r="147" s="2" customFormat="1" spans="1:6">
       <c r="A147" s="4"/>
-      <c r="B147" s="126"/>
-      <c r="C147" s="127"/>
-      <c r="D147" s="128"/>
-      <c r="E147" s="129"/>
-      <c r="F147" s="130"/>
+      <c r="B147" s="130"/>
+      <c r="C147" s="131"/>
+      <c r="D147" s="132"/>
+      <c r="E147" s="133"/>
+      <c r="F147" s="134"/>
     </row>
     <row r="148" s="2" customFormat="1" spans="1:6">
       <c r="A148" s="4"/>
-      <c r="B148" s="126"/>
-      <c r="C148" s="127"/>
-      <c r="D148" s="128"/>
-      <c r="E148" s="129"/>
-      <c r="F148" s="130"/>
+      <c r="B148" s="130"/>
+      <c r="C148" s="131"/>
+      <c r="D148" s="132"/>
+      <c r="E148" s="133"/>
+      <c r="F148" s="134"/>
     </row>
     <row r="149" s="2" customFormat="1" spans="1:6">
       <c r="A149" s="4"/>
-      <c r="B149" s="126"/>
-      <c r="C149" s="127"/>
-      <c r="D149" s="128"/>
-      <c r="E149" s="129"/>
-      <c r="F149" s="130"/>
+      <c r="B149" s="130"/>
+      <c r="C149" s="131"/>
+      <c r="D149" s="132"/>
+      <c r="E149" s="133"/>
+      <c r="F149" s="134"/>
     </row>
     <row r="150" s="2" customFormat="1" spans="1:6">
       <c r="A150" s="4"/>
-      <c r="B150" s="126"/>
-      <c r="C150" s="127"/>
-      <c r="D150" s="128"/>
-      <c r="E150" s="129"/>
-      <c r="F150" s="130"/>
+      <c r="B150" s="130"/>
+      <c r="C150" s="131"/>
+      <c r="D150" s="132"/>
+      <c r="E150" s="133"/>
+      <c r="F150" s="134"/>
     </row>
     <row r="151" s="2" customFormat="1" spans="1:6">
       <c r="A151" s="4"/>
-      <c r="B151" s="126"/>
-      <c r="C151" s="127"/>
-      <c r="D151" s="128"/>
-      <c r="E151" s="129"/>
-      <c r="F151" s="130"/>
+      <c r="B151" s="130"/>
+      <c r="C151" s="131"/>
+      <c r="D151" s="132"/>
+      <c r="E151" s="133"/>
+      <c r="F151" s="134"/>
     </row>
     <row r="152" s="2" customFormat="1" spans="1:6">
       <c r="A152" s="4"/>
-      <c r="B152" s="126"/>
-      <c r="C152" s="127"/>
-      <c r="D152" s="128"/>
-      <c r="E152" s="129"/>
-      <c r="F152" s="130"/>
+      <c r="B152" s="130"/>
+      <c r="C152" s="131"/>
+      <c r="D152" s="132"/>
+      <c r="E152" s="133"/>
+      <c r="F152" s="134"/>
     </row>
     <row r="153" s="2" customFormat="1" spans="1:6">
       <c r="A153" s="4"/>
-      <c r="B153" s="126"/>
-      <c r="C153" s="127"/>
-      <c r="D153" s="128"/>
-      <c r="E153" s="129"/>
-      <c r="F153" s="130"/>
+      <c r="B153" s="130"/>
+      <c r="C153" s="131"/>
+      <c r="D153" s="132"/>
+      <c r="E153" s="133"/>
+      <c r="F153" s="134"/>
     </row>
     <row r="154" s="2" customFormat="1" spans="1:6">
       <c r="A154" s="4"/>
-      <c r="B154" s="126"/>
-      <c r="C154" s="127"/>
-      <c r="D154" s="128"/>
-      <c r="E154" s="129"/>
-      <c r="F154" s="130"/>
+      <c r="B154" s="130"/>
+      <c r="C154" s="131"/>
+      <c r="D154" s="132"/>
+      <c r="E154" s="133"/>
+      <c r="F154" s="134"/>
     </row>
     <row r="155" s="2" customFormat="1" spans="1:6">
       <c r="A155" s="4"/>
-      <c r="B155" s="126"/>
-      <c r="C155" s="127"/>
-      <c r="D155" s="128"/>
-      <c r="E155" s="129"/>
-      <c r="F155" s="130"/>
+      <c r="B155" s="130"/>
+      <c r="C155" s="131"/>
+      <c r="D155" s="132"/>
+      <c r="E155" s="133"/>
+      <c r="F155" s="134"/>
     </row>
     <row r="156" s="2" customFormat="1" spans="1:6">
       <c r="A156" s="4"/>
-      <c r="B156" s="126"/>
-      <c r="C156" s="127"/>
-      <c r="D156" s="128"/>
-      <c r="E156" s="129"/>
-      <c r="F156" s="130"/>
+      <c r="B156" s="130"/>
+      <c r="C156" s="131"/>
+      <c r="D156" s="132"/>
+      <c r="E156" s="133"/>
+      <c r="F156" s="134"/>
     </row>
     <row r="157" s="2" customFormat="1" spans="1:6">
       <c r="A157" s="4"/>
-      <c r="B157" s="126"/>
-      <c r="C157" s="127"/>
-      <c r="D157" s="128"/>
-      <c r="E157" s="129"/>
-      <c r="F157" s="130"/>
+      <c r="B157" s="130"/>
+      <c r="C157" s="131"/>
+      <c r="D157" s="132"/>
+      <c r="E157" s="133"/>
+      <c r="F157" s="134"/>
     </row>
     <row r="158" spans="2:5">
-      <c r="B158" s="131"/>
-      <c r="C158" s="132"/>
-      <c r="D158" s="133"/>
-      <c r="E158" s="134"/>
+      <c r="B158" s="135"/>
+      <c r="C158" s="136"/>
+      <c r="D158" s="137"/>
+      <c r="E158" s="138"/>
     </row>
     <row r="159" spans="2:5">
-      <c r="B159" s="131"/>
-      <c r="C159" s="132"/>
-      <c r="D159" s="133"/>
-      <c r="E159" s="134"/>
+      <c r="B159" s="135"/>
+      <c r="C159" s="136"/>
+      <c r="D159" s="137"/>
+      <c r="E159" s="138"/>
     </row>
     <row r="160" spans="2:5">
-      <c r="B160" s="131"/>
-      <c r="C160" s="132"/>
-      <c r="D160" s="133"/>
-      <c r="E160" s="134"/>
+      <c r="B160" s="135"/>
+      <c r="C160" s="136"/>
+      <c r="D160" s="137"/>
+      <c r="E160" s="138"/>
     </row>
     <row r="161" spans="2:5">
-      <c r="B161" s="131"/>
-      <c r="C161" s="132"/>
-      <c r="D161" s="133"/>
-      <c r="E161" s="134"/>
+      <c r="B161" s="135"/>
+      <c r="C161" s="136"/>
+      <c r="D161" s="137"/>
+      <c r="E161" s="138"/>
     </row>
     <row r="162" spans="2:5">
-      <c r="B162" s="131"/>
-      <c r="C162" s="132"/>
-      <c r="D162" s="133"/>
-      <c r="E162" s="134"/>
+      <c r="B162" s="135"/>
+      <c r="C162" s="136"/>
+      <c r="D162" s="137"/>
+      <c r="E162" s="138"/>
     </row>
     <row r="163" spans="2:5">
-      <c r="B163" s="131"/>
-      <c r="C163" s="132"/>
-      <c r="D163" s="133"/>
-      <c r="E163" s="134"/>
+      <c r="B163" s="135"/>
+      <c r="C163" s="136"/>
+      <c r="D163" s="137"/>
+      <c r="E163" s="138"/>
     </row>
     <row r="164" spans="2:5">
-      <c r="B164" s="131"/>
-      <c r="C164" s="132"/>
-      <c r="D164" s="133"/>
-      <c r="E164" s="134"/>
+      <c r="B164" s="135"/>
+      <c r="C164" s="136"/>
+      <c r="D164" s="137"/>
+      <c r="E164" s="138"/>
     </row>
     <row r="165" spans="2:5">
-      <c r="B165" s="131"/>
-      <c r="C165" s="132"/>
-      <c r="D165" s="133"/>
-      <c r="E165" s="134"/>
+      <c r="B165" s="135"/>
+      <c r="C165" s="136"/>
+      <c r="D165" s="137"/>
+      <c r="E165" s="138"/>
     </row>
     <row r="166" spans="2:5">
-      <c r="B166" s="131"/>
-      <c r="C166" s="132"/>
-      <c r="D166" s="133"/>
-      <c r="E166" s="134"/>
+      <c r="B166" s="135"/>
+      <c r="C166" s="136"/>
+      <c r="D166" s="137"/>
+      <c r="E166" s="138"/>
     </row>
     <row r="167" spans="2:5">
-      <c r="B167" s="131"/>
-      <c r="C167" s="132"/>
-      <c r="D167" s="133"/>
-      <c r="E167" s="134"/>
+      <c r="B167" s="135"/>
+      <c r="C167" s="136"/>
+      <c r="D167" s="137"/>
+      <c r="E167" s="138"/>
     </row>
     <row r="168" spans="2:5">
-      <c r="B168" s="131"/>
-      <c r="C168" s="132"/>
-      <c r="D168" s="133"/>
-      <c r="E168" s="134"/>
+      <c r="B168" s="135"/>
+      <c r="C168" s="136"/>
+      <c r="D168" s="137"/>
+      <c r="E168" s="138"/>
     </row>
     <row r="169" spans="2:5">
-      <c r="B169" s="131"/>
-      <c r="C169" s="132"/>
-      <c r="D169" s="133"/>
-      <c r="E169" s="134"/>
+      <c r="B169" s="135"/>
+      <c r="C169" s="136"/>
+      <c r="D169" s="137"/>
+      <c r="E169" s="138"/>
     </row>
     <row r="170" spans="2:5">
-      <c r="B170" s="131"/>
-      <c r="C170" s="132"/>
-      <c r="D170" s="133"/>
-      <c r="E170" s="134"/>
+      <c r="B170" s="135"/>
+      <c r="C170" s="136"/>
+      <c r="D170" s="137"/>
+      <c r="E170" s="138"/>
     </row>
     <row r="171" spans="2:5">
-      <c r="B171" s="131"/>
-      <c r="C171" s="132"/>
-      <c r="D171" s="133"/>
-      <c r="E171" s="134"/>
+      <c r="B171" s="135"/>
+      <c r="C171" s="136"/>
+      <c r="D171" s="137"/>
+      <c r="E171" s="138"/>
     </row>
     <row r="172" spans="2:5">
-      <c r="B172" s="131"/>
-      <c r="C172" s="132"/>
-      <c r="D172" s="133"/>
-      <c r="E172" s="134"/>
+      <c r="B172" s="135"/>
+      <c r="C172" s="136"/>
+      <c r="D172" s="137"/>
+      <c r="E172" s="138"/>
     </row>
     <row r="173" spans="2:5">
-      <c r="B173" s="131"/>
-      <c r="C173" s="132"/>
-      <c r="D173" s="133"/>
-      <c r="E173" s="134"/>
+      <c r="B173" s="135"/>
+      <c r="C173" s="136"/>
+      <c r="D173" s="137"/>
+      <c r="E173" s="138"/>
     </row>
     <row r="174" spans="2:5">
-      <c r="B174" s="131"/>
-      <c r="C174" s="132"/>
-      <c r="D174" s="133"/>
-      <c r="E174" s="134"/>
+      <c r="B174" s="135"/>
+      <c r="C174" s="136"/>
+      <c r="D174" s="137"/>
+      <c r="E174" s="138"/>
     </row>
     <row r="175" spans="2:5">
-      <c r="B175" s="131"/>
-      <c r="C175" s="132"/>
-      <c r="D175" s="133"/>
-      <c r="E175" s="134"/>
+      <c r="B175" s="135"/>
+      <c r="C175" s="136"/>
+      <c r="D175" s="137"/>
+      <c r="E175" s="138"/>
     </row>
     <row r="176" spans="2:5">
-      <c r="B176" s="131"/>
-      <c r="C176" s="132"/>
-      <c r="D176" s="133"/>
-      <c r="E176" s="134"/>
+      <c r="B176" s="135"/>
+      <c r="C176" s="136"/>
+      <c r="D176" s="137"/>
+      <c r="E176" s="138"/>
     </row>
     <row r="177" spans="2:5">
-      <c r="B177" s="131"/>
-      <c r="C177" s="132"/>
-      <c r="D177" s="133"/>
-      <c r="E177" s="134"/>
+      <c r="B177" s="135"/>
+      <c r="C177" s="136"/>
+      <c r="D177" s="137"/>
+      <c r="E177" s="138"/>
     </row>
     <row r="178" spans="2:5">
-      <c r="B178" s="131"/>
-      <c r="C178" s="132"/>
-      <c r="D178" s="133"/>
-      <c r="E178" s="134"/>
+      <c r="B178" s="135"/>
+      <c r="C178" s="136"/>
+      <c r="D178" s="137"/>
+      <c r="E178" s="138"/>
     </row>
     <row r="179" spans="2:5">
-      <c r="B179" s="131"/>
-      <c r="C179" s="132"/>
-      <c r="D179" s="133"/>
-      <c r="E179" s="134"/>
+      <c r="B179" s="135"/>
+      <c r="C179" s="136"/>
+      <c r="D179" s="137"/>
+      <c r="E179" s="138"/>
     </row>
     <row r="180" spans="2:5">
-      <c r="B180" s="131"/>
-      <c r="C180" s="132"/>
-      <c r="D180" s="133"/>
-      <c r="E180" s="134"/>
+      <c r="B180" s="135"/>
+      <c r="C180" s="136"/>
+      <c r="D180" s="137"/>
+      <c r="E180" s="138"/>
     </row>
     <row r="181" spans="2:5">
-      <c r="B181" s="131"/>
-      <c r="C181" s="132"/>
-      <c r="D181" s="133"/>
-      <c r="E181" s="134"/>
+      <c r="B181" s="135"/>
+      <c r="C181" s="136"/>
+      <c r="D181" s="137"/>
+      <c r="E181" s="138"/>
     </row>
     <row r="182" spans="2:5">
-      <c r="B182" s="131"/>
-      <c r="C182" s="132"/>
-      <c r="D182" s="133"/>
-      <c r="E182" s="134"/>
+      <c r="B182" s="135"/>
+      <c r="C182" s="136"/>
+      <c r="D182" s="137"/>
+      <c r="E182" s="138"/>
     </row>
     <row r="183" spans="2:5">
-      <c r="B183" s="131"/>
-      <c r="C183" s="132"/>
-      <c r="D183" s="133"/>
-      <c r="E183" s="134"/>
+      <c r="B183" s="135"/>
+      <c r="C183" s="136"/>
+      <c r="D183" s="137"/>
+      <c r="E183" s="138"/>
     </row>
     <row r="184" spans="2:5">
-      <c r="B184" s="131"/>
-      <c r="C184" s="132"/>
-      <c r="D184" s="133"/>
-      <c r="E184" s="134"/>
+      <c r="B184" s="135"/>
+      <c r="C184" s="136"/>
+      <c r="D184" s="137"/>
+      <c r="E184" s="138"/>
     </row>
     <row r="185" spans="2:5">
-      <c r="B185" s="131"/>
-      <c r="C185" s="132"/>
-      <c r="D185" s="133"/>
-      <c r="E185" s="134"/>
+      <c r="B185" s="135"/>
+      <c r="C185" s="136"/>
+      <c r="D185" s="137"/>
+      <c r="E185" s="138"/>
     </row>
     <row r="186" spans="2:5">
-      <c r="B186" s="131"/>
-      <c r="C186" s="132"/>
-      <c r="D186" s="133"/>
-      <c r="E186" s="134"/>
+      <c r="B186" s="135"/>
+      <c r="C186" s="136"/>
+      <c r="D186" s="137"/>
+      <c r="E186" s="138"/>
     </row>
     <row r="187" spans="2:5">
-      <c r="B187" s="131"/>
-      <c r="C187" s="132"/>
-      <c r="D187" s="133"/>
-      <c r="E187" s="134"/>
+      <c r="B187" s="135"/>
+      <c r="C187" s="136"/>
+      <c r="D187" s="137"/>
+      <c r="E187" s="138"/>
     </row>
     <row r="188" spans="2:5">
-      <c r="B188" s="131"/>
-      <c r="C188" s="132"/>
-      <c r="D188" s="133"/>
-      <c r="E188" s="134"/>
+      <c r="B188" s="135"/>
+      <c r="C188" s="136"/>
+      <c r="D188" s="137"/>
+      <c r="E188" s="138"/>
     </row>
     <row r="189" spans="2:5">
-      <c r="B189" s="131"/>
-      <c r="C189" s="132"/>
-      <c r="D189" s="133"/>
-      <c r="E189" s="134"/>
+      <c r="B189" s="135"/>
+      <c r="C189" s="136"/>
+      <c r="D189" s="137"/>
+      <c r="E189" s="138"/>
     </row>
     <row r="190" spans="2:5">
-      <c r="B190" s="131"/>
-      <c r="C190" s="132"/>
-      <c r="D190" s="133"/>
-      <c r="E190" s="134"/>
+      <c r="B190" s="135"/>
+      <c r="C190" s="136"/>
+      <c r="D190" s="137"/>
+      <c r="E190" s="138"/>
     </row>
     <row r="191" spans="2:5">
-      <c r="B191" s="131"/>
-      <c r="C191" s="132"/>
-      <c r="D191" s="133"/>
-      <c r="E191" s="134"/>
+      <c r="B191" s="135"/>
+      <c r="C191" s="136"/>
+      <c r="D191" s="137"/>
+      <c r="E191" s="138"/>
     </row>
     <row r="192" spans="2:5">
-      <c r="B192" s="131"/>
-      <c r="C192" s="132"/>
-      <c r="D192" s="133"/>
-      <c r="E192" s="134"/>
+      <c r="B192" s="135"/>
+      <c r="C192" s="136"/>
+      <c r="D192" s="137"/>
+      <c r="E192" s="138"/>
     </row>
     <row r="193" spans="2:5">
-      <c r="B193" s="131"/>
-      <c r="C193" s="132"/>
-      <c r="D193" s="133"/>
-      <c r="E193" s="134"/>
+      <c r="B193" s="135"/>
+      <c r="C193" s="136"/>
+      <c r="D193" s="137"/>
+      <c r="E193" s="138"/>
     </row>
     <row r="194" spans="2:5">
-      <c r="B194" s="131"/>
-      <c r="C194" s="132"/>
-      <c r="D194" s="133"/>
-      <c r="E194" s="134"/>
+      <c r="B194" s="135"/>
+      <c r="C194" s="136"/>
+      <c r="D194" s="137"/>
+      <c r="E194" s="138"/>
     </row>
     <row r="195" spans="2:5">
-      <c r="B195" s="131"/>
-      <c r="C195" s="132"/>
-      <c r="D195" s="133"/>
-      <c r="E195" s="134"/>
+      <c r="B195" s="135"/>
+      <c r="C195" s="136"/>
+      <c r="D195" s="137"/>
+      <c r="E195" s="138"/>
     </row>
     <row r="196" spans="2:5">
-      <c r="B196" s="131"/>
-      <c r="C196" s="132"/>
-      <c r="D196" s="133"/>
-      <c r="E196" s="134"/>
+      <c r="B196" s="135"/>
+      <c r="C196" s="136"/>
+      <c r="D196" s="137"/>
+      <c r="E196" s="138"/>
     </row>
     <row r="197" spans="2:5">
-      <c r="B197" s="131"/>
-      <c r="C197" s="132"/>
-      <c r="D197" s="133"/>
-      <c r="E197" s="134"/>
+      <c r="B197" s="135"/>
+      <c r="C197" s="136"/>
+      <c r="D197" s="137"/>
+      <c r="E197" s="138"/>
     </row>
     <row r="198" spans="2:5">
-      <c r="B198" s="131"/>
-      <c r="C198" s="132"/>
-      <c r="D198" s="133"/>
-      <c r="E198" s="134"/>
+      <c r="B198" s="135"/>
+      <c r="C198" s="136"/>
+      <c r="D198" s="137"/>
+      <c r="E198" s="138"/>
     </row>
     <row r="199" spans="2:5">
-      <c r="B199" s="131"/>
-      <c r="C199" s="132"/>
-      <c r="D199" s="133"/>
-      <c r="E199" s="134"/>
+      <c r="B199" s="135"/>
+      <c r="C199" s="136"/>
+      <c r="D199" s="137"/>
+      <c r="E199" s="138"/>
     </row>
     <row r="200" spans="2:5">
-      <c r="B200" s="131"/>
-      <c r="C200" s="132"/>
-      <c r="D200" s="133"/>
-      <c r="E200" s="134"/>
+      <c r="B200" s="135"/>
+      <c r="C200" s="136"/>
+      <c r="D200" s="137"/>
+      <c r="E200" s="138"/>
     </row>
     <row r="201" spans="2:5">
-      <c r="B201" s="131"/>
-      <c r="C201" s="132"/>
-      <c r="D201" s="133"/>
-      <c r="E201" s="134"/>
+      <c r="B201" s="135"/>
+      <c r="C201" s="136"/>
+      <c r="D201" s="137"/>
+      <c r="E201" s="138"/>
     </row>
     <row r="202" spans="2:5">
-      <c r="B202" s="131"/>
-      <c r="C202" s="132"/>
-      <c r="D202" s="133"/>
-      <c r="E202" s="134"/>
+      <c r="B202" s="135"/>
+      <c r="C202" s="136"/>
+      <c r="D202" s="137"/>
+      <c r="E202" s="138"/>
     </row>
     <row r="203" spans="2:5">
-      <c r="B203" s="131"/>
-      <c r="C203" s="132"/>
-      <c r="D203" s="133"/>
-      <c r="E203" s="134"/>
+      <c r="B203" s="135"/>
+      <c r="C203" s="136"/>
+      <c r="D203" s="137"/>
+      <c r="E203" s="138"/>
     </row>
     <row r="204" spans="2:5">
-      <c r="B204" s="131"/>
-      <c r="C204" s="132"/>
-      <c r="D204" s="133"/>
-      <c r="E204" s="134"/>
+      <c r="B204" s="135"/>
+      <c r="C204" s="136"/>
+      <c r="D204" s="137"/>
+      <c r="E204" s="138"/>
     </row>
     <row r="205" spans="2:5">
-      <c r="B205" s="131"/>
-      <c r="C205" s="132"/>
-      <c r="D205" s="133"/>
-      <c r="E205" s="134"/>
+      <c r="B205" s="135"/>
+      <c r="C205" s="136"/>
+      <c r="D205" s="137"/>
+      <c r="E205" s="138"/>
     </row>
     <row r="206" spans="2:5">
-      <c r="B206" s="131"/>
-      <c r="C206" s="132"/>
-      <c r="D206" s="133"/>
-      <c r="E206" s="134"/>
+      <c r="B206" s="135"/>
+      <c r="C206" s="136"/>
+      <c r="D206" s="137"/>
+      <c r="E206" s="138"/>
     </row>
     <row r="207" spans="2:5">
-      <c r="B207" s="131"/>
-      <c r="C207" s="132"/>
-      <c r="D207" s="133"/>
-      <c r="E207" s="134"/>
+      <c r="B207" s="135"/>
+      <c r="C207" s="136"/>
+      <c r="D207" s="137"/>
+      <c r="E207" s="138"/>
     </row>
     <row r="208" spans="2:5">
-      <c r="B208" s="131"/>
-      <c r="C208" s="132"/>
-      <c r="D208" s="133"/>
-      <c r="E208" s="134"/>
+      <c r="B208" s="135"/>
+      <c r="C208" s="136"/>
+      <c r="D208" s="137"/>
+      <c r="E208" s="138"/>
     </row>
     <row r="209" spans="2:5">
-      <c r="B209" s="131"/>
-      <c r="C209" s="132"/>
-      <c r="D209" s="133"/>
-      <c r="E209" s="134"/>
+      <c r="B209" s="135"/>
+      <c r="C209" s="136"/>
+      <c r="D209" s="137"/>
+      <c r="E209" s="138"/>
     </row>
     <row r="210" spans="2:5">
-      <c r="B210" s="131"/>
-      <c r="C210" s="132"/>
-      <c r="D210" s="133"/>
-      <c r="E210" s="134"/>
+      <c r="B210" s="135"/>
+      <c r="C210" s="136"/>
+      <c r="D210" s="137"/>
+      <c r="E210" s="138"/>
     </row>
     <row r="211" spans="2:5">
-      <c r="B211" s="131"/>
-      <c r="C211" s="132"/>
-      <c r="D211" s="133"/>
-      <c r="E211" s="134"/>
+      <c r="B211" s="135"/>
+      <c r="C211" s="136"/>
+      <c r="D211" s="137"/>
+      <c r="E211" s="138"/>
     </row>
     <row r="212" spans="2:5">
-      <c r="B212" s="131"/>
-      <c r="C212" s="132"/>
-      <c r="D212" s="133"/>
-      <c r="E212" s="134"/>
+      <c r="B212" s="135"/>
+      <c r="C212" s="136"/>
+      <c r="D212" s="137"/>
+      <c r="E212" s="138"/>
     </row>
     <row r="213" spans="2:5">
-      <c r="B213" s="131"/>
-      <c r="C213" s="132"/>
-      <c r="D213" s="133"/>
-      <c r="E213" s="134"/>
+      <c r="B213" s="135"/>
+      <c r="C213" s="136"/>
+      <c r="D213" s="137"/>
+      <c r="E213" s="138"/>
     </row>
     <row r="214" spans="2:5">
-      <c r="B214" s="131"/>
-      <c r="C214" s="132"/>
-      <c r="D214" s="133"/>
-      <c r="E214" s="134"/>
+      <c r="B214" s="135"/>
+      <c r="C214" s="136"/>
+      <c r="D214" s="137"/>
+      <c r="E214" s="138"/>
     </row>
     <row r="215" spans="2:5">
-      <c r="B215" s="131"/>
-      <c r="C215" s="132"/>
-      <c r="D215" s="133"/>
-      <c r="E215" s="134"/>
+      <c r="B215" s="135"/>
+      <c r="C215" s="136"/>
+      <c r="D215" s="137"/>
+      <c r="E215" s="138"/>
     </row>
     <row r="216" spans="2:5">
-      <c r="B216" s="131"/>
-      <c r="C216" s="132"/>
-      <c r="D216" s="133"/>
-      <c r="E216" s="134"/>
+      <c r="B216" s="135"/>
+      <c r="C216" s="136"/>
+      <c r="D216" s="137"/>
+      <c r="E216" s="138"/>
     </row>
     <row r="217" spans="2:5">
-      <c r="B217" s="131"/>
-      <c r="C217" s="132"/>
-      <c r="D217" s="133"/>
-      <c r="E217" s="134"/>
+      <c r="B217" s="135"/>
+      <c r="C217" s="136"/>
+      <c r="D217" s="137"/>
+      <c r="E217" s="138"/>
     </row>
     <row r="218" spans="2:5">
-      <c r="B218" s="131"/>
-      <c r="C218" s="132"/>
-      <c r="D218" s="133"/>
-      <c r="E218" s="134"/>
+      <c r="B218" s="135"/>
+      <c r="C218" s="136"/>
+      <c r="D218" s="137"/>
+      <c r="E218" s="138"/>
     </row>
     <row r="219" spans="2:5">
-      <c r="B219" s="131"/>
-      <c r="C219" s="132"/>
-      <c r="D219" s="133"/>
-      <c r="E219" s="134"/>
+      <c r="B219" s="135"/>
+      <c r="C219" s="136"/>
+      <c r="D219" s="137"/>
+      <c r="E219" s="138"/>
     </row>
     <row r="220" spans="2:5">
-      <c r="B220" s="131"/>
-      <c r="C220" s="132"/>
-      <c r="D220" s="133"/>
-      <c r="E220" s="134"/>
+      <c r="B220" s="135"/>
+      <c r="C220" s="136"/>
+      <c r="D220" s="137"/>
+      <c r="E220" s="138"/>
     </row>
     <row r="221" spans="2:5">
-      <c r="B221" s="131"/>
-      <c r="C221" s="132"/>
-      <c r="D221" s="133"/>
-      <c r="E221" s="134"/>
+      <c r="B221" s="135"/>
+      <c r="C221" s="136"/>
+      <c r="D221" s="137"/>
+      <c r="E221" s="138"/>
     </row>
     <row r="222" spans="2:5">
-      <c r="B222" s="131"/>
-      <c r="C222" s="132"/>
-      <c r="D222" s="133"/>
-      <c r="E222" s="134"/>
+      <c r="B222" s="135"/>
+      <c r="C222" s="136"/>
+      <c r="D222" s="137"/>
+      <c r="E222" s="138"/>
     </row>
     <row r="223" spans="2:5">
-      <c r="B223" s="131"/>
-      <c r="C223" s="132"/>
-      <c r="D223" s="133"/>
-      <c r="E223" s="134"/>
+      <c r="B223" s="135"/>
+      <c r="C223" s="136"/>
+      <c r="D223" s="137"/>
+      <c r="E223" s="138"/>
     </row>
     <row r="224" spans="2:5">
-      <c r="B224" s="131"/>
-      <c r="C224" s="132"/>
-      <c r="D224" s="133"/>
-      <c r="E224" s="134"/>
+      <c r="B224" s="135"/>
+      <c r="C224" s="136"/>
+      <c r="D224" s="137"/>
+      <c r="E224" s="138"/>
     </row>
     <row r="225" spans="2:5">
-      <c r="B225" s="131"/>
-      <c r="C225" s="132"/>
-      <c r="D225" s="133"/>
-      <c r="E225" s="134"/>
+      <c r="B225" s="135"/>
+      <c r="C225" s="136"/>
+      <c r="D225" s="137"/>
+      <c r="E225" s="138"/>
     </row>
     <row r="226" spans="2:5">
-      <c r="B226" s="131"/>
-      <c r="C226" s="132"/>
-      <c r="D226" s="133"/>
-      <c r="E226" s="134"/>
+      <c r="B226" s="135"/>
+      <c r="C226" s="136"/>
+      <c r="D226" s="137"/>
+      <c r="E226" s="138"/>
     </row>
     <row r="227" spans="2:5">
-      <c r="B227" s="131"/>
-      <c r="C227" s="132"/>
-      <c r="D227" s="133"/>
-      <c r="E227" s="134"/>
+      <c r="B227" s="135"/>
+      <c r="C227" s="136"/>
+      <c r="D227" s="137"/>
+      <c r="E227" s="138"/>
     </row>
     <row r="228" spans="2:5">
-      <c r="B228" s="131"/>
-      <c r="C228" s="132"/>
-      <c r="D228" s="133"/>
-      <c r="E228" s="134"/>
+      <c r="B228" s="135"/>
+      <c r="C228" s="136"/>
+      <c r="D228" s="137"/>
+      <c r="E228" s="138"/>
     </row>
     <row r="229" spans="2:5">
-      <c r="B229" s="131"/>
-      <c r="C229" s="132"/>
-      <c r="D229" s="133"/>
-      <c r="E229" s="134"/>
+      <c r="B229" s="135"/>
+      <c r="C229" s="136"/>
+      <c r="D229" s="137"/>
+      <c r="E229" s="138"/>
     </row>
     <row r="230" spans="2:5">
-      <c r="B230" s="131"/>
-      <c r="C230" s="132"/>
-      <c r="D230" s="133"/>
-      <c r="E230" s="134"/>
+      <c r="B230" s="135"/>
+      <c r="C230" s="136"/>
+      <c r="D230" s="137"/>
+      <c r="E230" s="138"/>
     </row>
     <row r="231" spans="2:5">
-      <c r="B231" s="131"/>
-      <c r="C231" s="132"/>
-      <c r="D231" s="133"/>
-      <c r="E231" s="134"/>
+      <c r="B231" s="135"/>
+      <c r="C231" s="136"/>
+      <c r="D231" s="137"/>
+      <c r="E231" s="138"/>
     </row>
     <row r="232" spans="2:5">
-      <c r="B232" s="131"/>
-      <c r="C232" s="132"/>
-      <c r="D232" s="133"/>
-      <c r="E232" s="134"/>
+      <c r="B232" s="135"/>
+      <c r="C232" s="136"/>
+      <c r="D232" s="137"/>
+      <c r="E232" s="138"/>
     </row>
     <row r="233" spans="2:5">
-      <c r="B233" s="131"/>
-      <c r="C233" s="132"/>
-      <c r="D233" s="133"/>
-      <c r="E233" s="134"/>
+      <c r="B233" s="135"/>
+      <c r="C233" s="136"/>
+      <c r="D233" s="137"/>
+      <c r="E233" s="138"/>
     </row>
     <row r="234" spans="2:5">
-      <c r="B234" s="131"/>
-      <c r="C234" s="132"/>
-      <c r="D234" s="133"/>
-      <c r="E234" s="134"/>
+      <c r="B234" s="135"/>
+      <c r="C234" s="136"/>
+      <c r="D234" s="137"/>
+      <c r="E234" s="138"/>
     </row>
     <row r="235" spans="2:5">
-      <c r="B235" s="131"/>
-      <c r="C235" s="132"/>
-      <c r="D235" s="133"/>
-      <c r="E235" s="134"/>
+      <c r="B235" s="135"/>
+      <c r="C235" s="136"/>
+      <c r="D235" s="137"/>
+      <c r="E235" s="138"/>
     </row>
     <row r="236" spans="2:5">
-      <c r="B236" s="131"/>
-      <c r="C236" s="132"/>
-      <c r="D236" s="133"/>
-      <c r="E236" s="134"/>
+      <c r="B236" s="135"/>
+      <c r="C236" s="136"/>
+      <c r="D236" s="137"/>
+      <c r="E236" s="138"/>
     </row>
     <row r="237" spans="2:5">
-      <c r="B237" s="131"/>
-      <c r="C237" s="132"/>
-      <c r="D237" s="133"/>
-      <c r="E237" s="134"/>
+      <c r="B237" s="135"/>
+      <c r="C237" s="136"/>
+      <c r="D237" s="137"/>
+      <c r="E237" s="138"/>
     </row>
     <row r="238" spans="2:5">
-      <c r="B238" s="131"/>
-      <c r="C238" s="132"/>
-      <c r="D238" s="133"/>
-      <c r="E238" s="134"/>
+      <c r="B238" s="135"/>
+      <c r="C238" s="136"/>
+      <c r="D238" s="137"/>
+      <c r="E238" s="138"/>
     </row>
     <row r="239" spans="2:5">
-      <c r="B239" s="131"/>
-      <c r="C239" s="132"/>
-      <c r="D239" s="133"/>
-      <c r="E239" s="134"/>
+      <c r="B239" s="135"/>
+      <c r="C239" s="136"/>
+      <c r="D239" s="137"/>
+      <c r="E239" s="138"/>
     </row>
     <row r="240" spans="2:5">
-      <c r="B240" s="131"/>
-      <c r="C240" s="132"/>
-      <c r="D240" s="133"/>
-      <c r="E240" s="134"/>
+      <c r="B240" s="135"/>
+      <c r="C240" s="136"/>
+      <c r="D240" s="137"/>
+      <c r="E240" s="138"/>
     </row>
     <row r="241" spans="2:5">
-      <c r="B241" s="131"/>
-      <c r="C241" s="132"/>
-      <c r="D241" s="133"/>
-      <c r="E241" s="134"/>
+      <c r="B241" s="135"/>
+      <c r="C241" s="136"/>
+      <c r="D241" s="137"/>
+      <c r="E241" s="138"/>
     </row>
     <row r="242" spans="2:5">
-      <c r="B242" s="131"/>
-      <c r="C242" s="132"/>
-      <c r="D242" s="133"/>
-      <c r="E242" s="134"/>
+      <c r="B242" s="135"/>
+      <c r="C242" s="136"/>
+      <c r="D242" s="137"/>
+      <c r="E242" s="138"/>
     </row>
     <row r="243" spans="2:5">
-      <c r="B243" s="131"/>
-      <c r="C243" s="132"/>
-      <c r="D243" s="133"/>
-      <c r="E243" s="134"/>
+      <c r="B243" s="135"/>
+      <c r="C243" s="136"/>
+      <c r="D243" s="137"/>
+      <c r="E243" s="138"/>
     </row>
     <row r="244" spans="2:5">
-      <c r="B244" s="131"/>
-      <c r="C244" s="132"/>
-      <c r="D244" s="133"/>
-      <c r="E244" s="134"/>
+      <c r="B244" s="135"/>
+      <c r="C244" s="136"/>
+      <c r="D244" s="137"/>
+      <c r="E244" s="138"/>
     </row>
     <row r="245" spans="2:5">
-      <c r="B245" s="131"/>
-      <c r="C245" s="132"/>
-      <c r="D245" s="133"/>
-      <c r="E245" s="134"/>
+      <c r="B245" s="135"/>
+      <c r="C245" s="136"/>
+      <c r="D245" s="137"/>
+      <c r="E245" s="138"/>
     </row>
     <row r="246" spans="2:5">
-      <c r="B246" s="131"/>
-      <c r="C246" s="132"/>
-      <c r="D246" s="133"/>
-      <c r="E246" s="134"/>
+      <c r="B246" s="135"/>
+      <c r="C246" s="136"/>
+      <c r="D246" s="137"/>
+      <c r="E246" s="138"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
